--- a/Output/MoveQual_aff.xlsx
+++ b/Output/MoveQual_aff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
   <si>
     <t>ppID</t>
   </si>
@@ -285,6 +285,69 @@
   </si>
   <si>
     <t>LDLJ_A</t>
+  </si>
+  <si>
+    <t>BC_007</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_007</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
   </si>
 </sst>
 </file>
@@ -305,7 +368,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -315,14 +378,28 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,22 +409,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC18"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.37890625" customWidth="true"/>
-    <col min="2" max="2" width="8.15625" customWidth="true"/>
-    <col min="3" max="3" width="4.82421875" customWidth="true"/>
+    <col min="1" max="1" width="7.42578125" customWidth="true"/>
+    <col min="2" max="2" width="8.28515625" customWidth="true"/>
+    <col min="3" max="3" width="5.28515625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="11.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="18.37890625" customWidth="true"/>
-    <col min="13" max="13" width="18.15625" customWidth="true"/>
+    <col min="12" max="12" width="20" customWidth="true"/>
+    <col min="13" max="13" width="19.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
@@ -359,11 +436,11 @@
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
     <col min="23" max="23" width="12.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
-    <col min="25" max="25" width="12.37890625" customWidth="true"/>
-    <col min="26" max="26" width="12.37890625" customWidth="true"/>
-    <col min="27" max="27" width="12.37890625" customWidth="true"/>
-    <col min="28" max="28" width="12.37890625" customWidth="true"/>
-    <col min="29" max="29" width="12.37890625" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
+    <col min="26" max="26" width="12.42578125" customWidth="true"/>
+    <col min="27" max="27" width="12.42578125" customWidth="true"/>
+    <col min="28" max="28" width="12.42578125" customWidth="true"/>
+    <col min="29" max="29" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1343,6 +1420,629 @@
       </c>
       <c r="AC11" s="0">
         <v>-7.0184412604710129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2.7537743730111224</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1.6120231308519219</v>
+      </c>
+      <c r="F12" s="0">
+        <v>4.3036662857051091</v>
+      </c>
+      <c r="G12" s="0">
+        <v>2.8379312552289666</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.70168587632226131</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.92922116110568831</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0.61435490033874973</v>
+      </c>
+      <c r="K12" s="0">
+        <v>0.85764189528565082</v>
+      </c>
+      <c r="L12" s="0">
+        <v>2.3430555555555559</v>
+      </c>
+      <c r="M12" s="0">
+        <v>0.23251570310099964</v>
+      </c>
+      <c r="N12" s="0">
+        <v>0.47407328956201</v>
+      </c>
+      <c r="O12" s="0">
+        <v>0.40355671647947627</v>
+      </c>
+      <c r="P12" s="0">
+        <v>0.61686790072054376</v>
+      </c>
+      <c r="Q12" s="0">
+        <v>0.34680643764269103</v>
+      </c>
+      <c r="R12" s="0">
+        <v>2.1312569939424506</v>
+      </c>
+      <c r="S12" s="0">
+        <v>1.5285508540403903</v>
+      </c>
+      <c r="T12" s="0">
+        <v>2.8624619327456973</v>
+      </c>
+      <c r="U12" s="0">
+        <v>3.8823204921843386</v>
+      </c>
+      <c r="V12" s="0">
+        <v>0.54896472309098976</v>
+      </c>
+      <c r="W12" s="0">
+        <v>0.39372093497112864</v>
+      </c>
+      <c r="X12" s="0">
+        <v>0.73730696332470191</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>-4.4484941139554257</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>-2.8840545436427276</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>-4.5357415035772837</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>-2.1651257158106261</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>-7.3148423364777519</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="0">
+        <v>2.7537743730111224</v>
+      </c>
+      <c r="E13" s="0">
+        <v>1.6120231308519219</v>
+      </c>
+      <c r="F13" s="0">
+        <v>4.3036662857051091</v>
+      </c>
+      <c r="G13" s="0">
+        <v>2.8379312552289666</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.70168587632226131</v>
+      </c>
+      <c r="I13" s="0">
+        <v>0.92922116110568831</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0.61435490033874973</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.85764189528565082</v>
+      </c>
+      <c r="L13" s="0">
+        <v>2.3430555555555559</v>
+      </c>
+      <c r="M13" s="0">
+        <v>0.23251570310099964</v>
+      </c>
+      <c r="N13" s="0">
+        <v>0.47407328956201</v>
+      </c>
+      <c r="O13" s="0">
+        <v>0.40355671647947627</v>
+      </c>
+      <c r="P13" s="0">
+        <v>0.61686790072054376</v>
+      </c>
+      <c r="Q13" s="0">
+        <v>0.34680643764269103</v>
+      </c>
+      <c r="R13" s="0">
+        <v>2.1312569939424506</v>
+      </c>
+      <c r="S13" s="0">
+        <v>1.5285508540403903</v>
+      </c>
+      <c r="T13" s="0">
+        <v>2.8624619327456973</v>
+      </c>
+      <c r="U13" s="0">
+        <v>3.8823204921843386</v>
+      </c>
+      <c r="V13" s="0">
+        <v>0.54896472309098976</v>
+      </c>
+      <c r="W13" s="0">
+        <v>0.39372093497112864</v>
+      </c>
+      <c r="X13" s="0">
+        <v>0.73730696332470191</v>
+      </c>
+      <c r="Y13" s="0">
+        <v>-4.4484941139554257</v>
+      </c>
+      <c r="Z13" s="0">
+        <v>-2.8840545436427276</v>
+      </c>
+      <c r="AA13" s="0">
+        <v>-4.5357415035772837</v>
+      </c>
+      <c r="AB13" s="0">
+        <v>-2.1651257158106261</v>
+      </c>
+      <c r="AC13" s="0">
+        <v>-7.3148423364777519</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="0">
+        <v>7.0461786003027838</v>
+      </c>
+      <c r="E14" s="0">
+        <v>2.2698568205680583</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1.580419962677152</v>
+      </c>
+      <c r="G14" s="0">
+        <v>3.4291773997654902</v>
+      </c>
+      <c r="H14" s="0">
+        <v>1.2122613665596664</v>
+      </c>
+      <c r="I14" s="0">
+        <v>1.195391835880143</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.6287181038025127</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.0824157181500567</v>
+      </c>
+      <c r="L14" s="0">
+        <v>3.1166666666666671</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0.39775008259600425</v>
+      </c>
+      <c r="N14" s="0">
+        <v>0.46576207391454111</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0.25894663974826349</v>
+      </c>
+      <c r="P14" s="0">
+        <v>0.57585974403789075</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>0.30858702095361523</v>
+      </c>
+      <c r="R14" s="0">
+        <v>1.4037735346632347</v>
+      </c>
+      <c r="S14" s="0">
+        <v>1.126665450467556</v>
+      </c>
+      <c r="T14" s="0">
+        <v>2.1709956743944039</v>
+      </c>
+      <c r="U14" s="0">
+        <v>2.8201378321169663</v>
+      </c>
+      <c r="V14" s="0">
+        <v>0.49776770435701612</v>
+      </c>
+      <c r="W14" s="0">
+        <v>0.39950722891505358</v>
+      </c>
+      <c r="X14" s="0">
+        <v>0.76981899596188275</v>
+      </c>
+      <c r="Y14" s="0">
+        <v>-6.240668632273028</v>
+      </c>
+      <c r="Z14" s="0">
+        <v>-3.2539690911101404</v>
+      </c>
+      <c r="AA14" s="0">
+        <v>-4.6231042301105223</v>
+      </c>
+      <c r="AB14" s="0">
+        <v>-2.4495673160442122</v>
+      </c>
+      <c r="AC14" s="0">
+        <v>-8.6972703065504184</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="0">
+        <v>7.0461786003027838</v>
+      </c>
+      <c r="E15" s="0">
+        <v>2.2698568205680583</v>
+      </c>
+      <c r="F15" s="0">
+        <v>1.580419962677152</v>
+      </c>
+      <c r="G15" s="0">
+        <v>3.4291773997654902</v>
+      </c>
+      <c r="H15" s="0">
+        <v>1.2122613665596664</v>
+      </c>
+      <c r="I15" s="0">
+        <v>1.195391835880143</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.6287181038025127</v>
+      </c>
+      <c r="K15" s="0">
+        <v>1.0824157181500567</v>
+      </c>
+      <c r="L15" s="0">
+        <v>3.1166666666666671</v>
+      </c>
+      <c r="M15" s="0">
+        <v>0.39775008259600425</v>
+      </c>
+      <c r="N15" s="0">
+        <v>0.46576207391454111</v>
+      </c>
+      <c r="O15" s="0">
+        <v>0.25894663974826349</v>
+      </c>
+      <c r="P15" s="0">
+        <v>0.57585974403789075</v>
+      </c>
+      <c r="Q15" s="0">
+        <v>0.30858702095361523</v>
+      </c>
+      <c r="R15" s="0">
+        <v>1.4037735346632347</v>
+      </c>
+      <c r="S15" s="0">
+        <v>1.126665450467556</v>
+      </c>
+      <c r="T15" s="0">
+        <v>2.1709956743944039</v>
+      </c>
+      <c r="U15" s="0">
+        <v>2.8201378321169663</v>
+      </c>
+      <c r="V15" s="0">
+        <v>0.49776770435701612</v>
+      </c>
+      <c r="W15" s="0">
+        <v>0.39950722891505358</v>
+      </c>
+      <c r="X15" s="0">
+        <v>0.76981899596188275</v>
+      </c>
+      <c r="Y15" s="0">
+        <v>-6.240668632273028</v>
+      </c>
+      <c r="Z15" s="0">
+        <v>-3.2539690911101404</v>
+      </c>
+      <c r="AA15" s="0">
+        <v>-4.6231042301105223</v>
+      </c>
+      <c r="AB15" s="0">
+        <v>-2.4495673160442122</v>
+      </c>
+      <c r="AC15" s="0">
+        <v>-8.6972703065504184</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="0">
+        <v>7.0461786003027838</v>
+      </c>
+      <c r="E16" s="0">
+        <v>2.2698568205680583</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1.580419962677152</v>
+      </c>
+      <c r="G16" s="0">
+        <v>3.4291773997654902</v>
+      </c>
+      <c r="H16" s="0">
+        <v>1.2122613665596664</v>
+      </c>
+      <c r="I16" s="0">
+        <v>1.195391835880143</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0.6287181038025127</v>
+      </c>
+      <c r="K16" s="0">
+        <v>1.0824157181500567</v>
+      </c>
+      <c r="L16" s="0">
+        <v>3.1166666666666671</v>
+      </c>
+      <c r="M16" s="0">
+        <v>0.39775008259600425</v>
+      </c>
+      <c r="N16" s="0">
+        <v>0.46576207391454111</v>
+      </c>
+      <c r="O16" s="0">
+        <v>0.25894663974826349</v>
+      </c>
+      <c r="P16" s="0">
+        <v>0.57585974403789075</v>
+      </c>
+      <c r="Q16" s="0">
+        <v>0.30858702095361523</v>
+      </c>
+      <c r="R16" s="0">
+        <v>1.4037735346632347</v>
+      </c>
+      <c r="S16" s="0">
+        <v>1.126665450467556</v>
+      </c>
+      <c r="T16" s="0">
+        <v>2.1709956743944039</v>
+      </c>
+      <c r="U16" s="0">
+        <v>2.8201378321169663</v>
+      </c>
+      <c r="V16" s="0">
+        <v>0.49776770435701612</v>
+      </c>
+      <c r="W16" s="0">
+        <v>0.39950722891505358</v>
+      </c>
+      <c r="X16" s="0">
+        <v>0.76981899596188275</v>
+      </c>
+      <c r="Y16" s="0">
+        <v>-6.240668632273028</v>
+      </c>
+      <c r="Z16" s="0">
+        <v>-3.2539690911101404</v>
+      </c>
+      <c r="AA16" s="0">
+        <v>-4.6231042301105223</v>
+      </c>
+      <c r="AB16" s="0">
+        <v>-2.4495673160442122</v>
+      </c>
+      <c r="AC16" s="0">
+        <v>-8.6972703065504184</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="0">
+        <v>7.0461786003027838</v>
+      </c>
+      <c r="E17" s="0">
+        <v>2.2698568205680583</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1.580419962677152</v>
+      </c>
+      <c r="G17" s="0">
+        <v>3.4291773997654902</v>
+      </c>
+      <c r="H17" s="0">
+        <v>1.2122613665596664</v>
+      </c>
+      <c r="I17" s="0">
+        <v>1.195391835880143</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0.6287181038025127</v>
+      </c>
+      <c r="K17" s="0">
+        <v>1.0824157181500567</v>
+      </c>
+      <c r="L17" s="0">
+        <v>3.1166666666666671</v>
+      </c>
+      <c r="M17" s="0">
+        <v>0.39775008259600425</v>
+      </c>
+      <c r="N17" s="0">
+        <v>0.46576207391454111</v>
+      </c>
+      <c r="O17" s="0">
+        <v>0.25894663974826349</v>
+      </c>
+      <c r="P17" s="0">
+        <v>0.57585974403789075</v>
+      </c>
+      <c r="Q17" s="0">
+        <v>0.30858702095361523</v>
+      </c>
+      <c r="R17" s="0">
+        <v>1.4037735346632347</v>
+      </c>
+      <c r="S17" s="0">
+        <v>1.126665450467556</v>
+      </c>
+      <c r="T17" s="0">
+        <v>2.1709956743944039</v>
+      </c>
+      <c r="U17" s="0">
+        <v>2.8201378321169663</v>
+      </c>
+      <c r="V17" s="0">
+        <v>0.49776770435701612</v>
+      </c>
+      <c r="W17" s="0">
+        <v>0.39950722891505358</v>
+      </c>
+      <c r="X17" s="0">
+        <v>0.76981899596188275</v>
+      </c>
+      <c r="Y17" s="0">
+        <v>-6.240668632273028</v>
+      </c>
+      <c r="Z17" s="0">
+        <v>-3.2539690911101404</v>
+      </c>
+      <c r="AA17" s="0">
+        <v>-4.6231042301105223</v>
+      </c>
+      <c r="AB17" s="0">
+        <v>-2.4495673160442122</v>
+      </c>
+      <c r="AC17" s="0">
+        <v>-8.6972703065504184</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="0">
+        <v>2.2831849995487894</v>
+      </c>
+      <c r="E18" s="0">
+        <v>2.4263318356388495</v>
+      </c>
+      <c r="F18" s="0">
+        <v>2.2944475170257825</v>
+      </c>
+      <c r="G18" s="0">
+        <v>6.4190860147508708</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.38053248833902104</v>
+      </c>
+      <c r="I18" s="0">
+        <v>0.68923443374939364</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0.31938486827915924</v>
+      </c>
+      <c r="K18" s="0">
+        <v>0.36896630104312006</v>
+      </c>
+      <c r="L18" s="0">
+        <v>3.5736111111111111</v>
+      </c>
+      <c r="M18" s="0">
+        <v>0.5097265227022505</v>
+      </c>
+      <c r="N18" s="0">
+        <v>0.76845325210034621</v>
+      </c>
+      <c r="O18" s="0">
+        <v>0.56813394048472521</v>
+      </c>
+      <c r="P18" s="0">
+        <v>0.7374901331504653</v>
+      </c>
+      <c r="Q18" s="0">
+        <v>0.69987934020157849</v>
+      </c>
+      <c r="R18" s="0">
+        <v>1.8396915765781638</v>
+      </c>
+      <c r="S18" s="0">
+        <v>1.0531351827779369</v>
+      </c>
+      <c r="T18" s="0">
+        <v>3.2190113113398682</v>
+      </c>
+      <c r="U18" s="0">
+        <v>3.8542953483965636</v>
+      </c>
+      <c r="V18" s="0">
+        <v>0.47730944577028828</v>
+      </c>
+      <c r="W18" s="0">
+        <v>0.27323676251641033</v>
+      </c>
+      <c r="X18" s="0">
+        <v>0.83517505026671557</v>
+      </c>
+      <c r="Y18" s="0">
+        <v>-7.6821015800220165</v>
+      </c>
+      <c r="Z18" s="0">
+        <v>-3.1856608020369865</v>
+      </c>
+      <c r="AA18" s="0">
+        <v>-4.6698682793294397</v>
+      </c>
+      <c r="AB18" s="0">
+        <v>-2.4332578176472786</v>
+      </c>
+      <c r="AC18" s="0">
+        <v>-8.3763704576692977</v>
       </c>
     </row>
   </sheetData>

--- a/Output/MoveQual_aff.xlsx
+++ b/Output/MoveQual_aff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <t>ppID</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>F_L_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
   </si>
   <si>
     <t>T0</t>
@@ -368,7 +377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -385,11 +394,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -400,6 +410,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,12 +420,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AC19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="true"/>
-    <col min="2" max="2" width="8.28515625" customWidth="true"/>
-    <col min="3" max="3" width="5.28515625" customWidth="true"/>
+    <col min="1" max="1" width="7.37890625" customWidth="true"/>
+    <col min="2" max="2" width="8.15625" customWidth="true"/>
+    <col min="3" max="3" width="4.82421875" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -423,8 +434,8 @@
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="20" customWidth="true"/>
-    <col min="13" max="13" width="19.7109375" customWidth="true"/>
+    <col min="12" max="12" width="18.37890625" customWidth="true"/>
+    <col min="13" max="13" width="18.15625" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
@@ -436,11 +447,11 @@
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
     <col min="23" max="23" width="12.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
-    <col min="25" max="25" width="12.42578125" customWidth="true"/>
-    <col min="26" max="26" width="12.42578125" customWidth="true"/>
-    <col min="27" max="27" width="12.42578125" customWidth="true"/>
-    <col min="28" max="28" width="12.42578125" customWidth="true"/>
-    <col min="29" max="29" width="12.42578125" customWidth="true"/>
+    <col min="25" max="25" width="12.37890625" customWidth="true"/>
+    <col min="26" max="26" width="12.37890625" customWidth="true"/>
+    <col min="27" max="27" width="12.37890625" customWidth="true"/>
+    <col min="28" max="28" width="12.37890625" customWidth="true"/>
+    <col min="29" max="29" width="12.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2042,6 +2053,95 @@
         <v>-2.4332578176472786</v>
       </c>
       <c r="AC18" s="0">
+        <v>-8.3763704576692977</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="0">
+        <v>2.2831849995487894</v>
+      </c>
+      <c r="E19" s="0">
+        <v>2.4263318356388495</v>
+      </c>
+      <c r="F19" s="0">
+        <v>2.2944475170257825</v>
+      </c>
+      <c r="G19" s="0">
+        <v>6.4190860147508708</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.38053248833902104</v>
+      </c>
+      <c r="I19" s="0">
+        <v>0.68923443374939364</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0.31938486827915924</v>
+      </c>
+      <c r="K19" s="0">
+        <v>0.36896630104312006</v>
+      </c>
+      <c r="L19" s="0">
+        <v>3.5736111111111111</v>
+      </c>
+      <c r="M19" s="0">
+        <v>0.5097265227022505</v>
+      </c>
+      <c r="N19" s="0">
+        <v>0.76845325210034621</v>
+      </c>
+      <c r="O19" s="0">
+        <v>0.56813394048472521</v>
+      </c>
+      <c r="P19" s="0">
+        <v>0.7374901331504653</v>
+      </c>
+      <c r="Q19" s="0">
+        <v>0.69987934020157849</v>
+      </c>
+      <c r="R19" s="0">
+        <v>1.8396915765781638</v>
+      </c>
+      <c r="S19" s="0">
+        <v>1.0531351827779369</v>
+      </c>
+      <c r="T19" s="0">
+        <v>3.2190113113398682</v>
+      </c>
+      <c r="U19" s="0">
+        <v>3.8542953483965636</v>
+      </c>
+      <c r="V19" s="0">
+        <v>0.47730944577028828</v>
+      </c>
+      <c r="W19" s="0">
+        <v>0.27323676251641033</v>
+      </c>
+      <c r="X19" s="0">
+        <v>0.83517505026671557</v>
+      </c>
+      <c r="Y19" s="0">
+        <v>-7.6821015800220165</v>
+      </c>
+      <c r="Z19" s="0">
+        <v>-3.1856608020369865</v>
+      </c>
+      <c r="AA19" s="0">
+        <v>-4.6698682793294397</v>
+      </c>
+      <c r="AB19" s="0">
+        <v>-2.4332578176472786</v>
+      </c>
+      <c r="AC19" s="0">
         <v>-8.3763704576692977</v>
       </c>
     </row>

--- a/Output/MoveQual_aff.xlsx
+++ b/Output/MoveQual_aff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
   <si>
     <t>ppID</t>
   </si>
@@ -351,6 +351,120 @@
   </si>
   <si>
     <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>BC_001</t>
+  </si>
+  <si>
+    <t>BC_002</t>
+  </si>
+  <si>
+    <t>BC_003</t>
+  </si>
+  <si>
+    <t>BC_005</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>BC_007</t>
+  </si>
+  <si>
+    <t>BC_008</t>
+  </si>
+  <si>
+    <t>BC_009</t>
+  </si>
+  <si>
+    <t>BC_010</t>
+  </si>
+  <si>
+    <t>BC_011</t>
+  </si>
+  <si>
+    <t>BC_012</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>BC_014</t>
+  </si>
+  <si>
+    <t>BC_015</t>
+  </si>
+  <si>
+    <t>BC_016</t>
+  </si>
+  <si>
+    <t>BC_017</t>
+  </si>
+  <si>
+    <t>BC_018</t>
+  </si>
+  <si>
+    <t>BC_019</t>
+  </si>
+  <si>
+    <t>BC_020</t>
+  </si>
+  <si>
+    <t>BC_021</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
   </si>
   <si>
     <t>F_R_001</t>
@@ -377,7 +491,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -395,11 +509,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -411,6 +528,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,28 +540,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.37890625" customWidth="true"/>
     <col min="2" max="2" width="8.15625" customWidth="true"/>
-    <col min="3" max="3" width="4.82421875" customWidth="true"/>
+    <col min="3" max="3" width="3.15625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="18.37890625" customWidth="true"/>
-    <col min="13" max="13" width="18.15625" customWidth="true"/>
+    <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="13" max="13" width="13.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
     <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
@@ -2143,6 +2263,1964 @@
       </c>
       <c r="AC19" s="0">
         <v>-8.3763704576692977</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="0">
+        <v>2.2831849995487894</v>
+      </c>
+      <c r="E20" s="0">
+        <v>2.4263318356388495</v>
+      </c>
+      <c r="F20" s="0">
+        <v>2.2944475170257825</v>
+      </c>
+      <c r="G20" s="0">
+        <v>6.4190860147508708</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.38053248833902104</v>
+      </c>
+      <c r="I20" s="0">
+        <v>0.68923443374939364</v>
+      </c>
+      <c r="J20" s="0">
+        <v>0.31938486827915924</v>
+      </c>
+      <c r="K20" s="0">
+        <v>0.36896630104312006</v>
+      </c>
+      <c r="L20" s="0">
+        <v>3.5736111111111111</v>
+      </c>
+      <c r="M20" s="0">
+        <v>0.5097265227022505</v>
+      </c>
+      <c r="N20" s="0">
+        <v>0.76845325210034621</v>
+      </c>
+      <c r="O20" s="0">
+        <v>0.56813394048472521</v>
+      </c>
+      <c r="P20" s="0">
+        <v>0.7374901331504653</v>
+      </c>
+      <c r="Q20" s="0">
+        <v>0.69987934020157849</v>
+      </c>
+      <c r="R20" s="0">
+        <v>1.8396915765781638</v>
+      </c>
+      <c r="S20" s="0">
+        <v>1.0531351827779369</v>
+      </c>
+      <c r="T20" s="0">
+        <v>3.2190113113398682</v>
+      </c>
+      <c r="U20" s="0">
+        <v>3.8542953483965636</v>
+      </c>
+      <c r="V20" s="0">
+        <v>0.47730944577028828</v>
+      </c>
+      <c r="W20" s="0">
+        <v>0.27323676251641033</v>
+      </c>
+      <c r="X20" s="0">
+        <v>0.83517505026671557</v>
+      </c>
+      <c r="Y20" s="0">
+        <v>-7.6821015800220165</v>
+      </c>
+      <c r="Z20" s="0">
+        <v>-3.1856608020369865</v>
+      </c>
+      <c r="AA20" s="0">
+        <v>-4.6698682793294397</v>
+      </c>
+      <c r="AB20" s="0">
+        <v>-2.4332578176472786</v>
+      </c>
+      <c r="AC20" s="0">
+        <v>-8.3763704576692977</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="0">
+        <v>2.2831849995487894</v>
+      </c>
+      <c r="E21" s="0">
+        <v>2.4263318356388495</v>
+      </c>
+      <c r="F21" s="0">
+        <v>2.2944475170257825</v>
+      </c>
+      <c r="G21" s="0">
+        <v>6.4190860147508708</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.38053248833902104</v>
+      </c>
+      <c r="I21" s="0">
+        <v>0.68923443374939364</v>
+      </c>
+      <c r="J21" s="0">
+        <v>0.31938486827915924</v>
+      </c>
+      <c r="K21" s="0">
+        <v>0.36896630104312006</v>
+      </c>
+      <c r="L21" s="0">
+        <v>3.5736111111111111</v>
+      </c>
+      <c r="M21" s="0">
+        <v>0.5097265227022505</v>
+      </c>
+      <c r="N21" s="0">
+        <v>0.76845325210034621</v>
+      </c>
+      <c r="O21" s="0">
+        <v>0.56813394048472521</v>
+      </c>
+      <c r="P21" s="0">
+        <v>0.7374901331504653</v>
+      </c>
+      <c r="Q21" s="0">
+        <v>0.69987934020157849</v>
+      </c>
+      <c r="R21" s="0">
+        <v>1.8396915765781638</v>
+      </c>
+      <c r="S21" s="0">
+        <v>1.0531351827779369</v>
+      </c>
+      <c r="T21" s="0">
+        <v>3.2190113113398682</v>
+      </c>
+      <c r="U21" s="0">
+        <v>3.8542953483965636</v>
+      </c>
+      <c r="V21" s="0">
+        <v>0.47730944577028828</v>
+      </c>
+      <c r="W21" s="0">
+        <v>0.27323676251641033</v>
+      </c>
+      <c r="X21" s="0">
+        <v>0.83517505026671557</v>
+      </c>
+      <c r="Y21" s="0">
+        <v>-7.6821015800220165</v>
+      </c>
+      <c r="Z21" s="0">
+        <v>-3.1856608020369865</v>
+      </c>
+      <c r="AA21" s="0">
+        <v>-4.6698682793294397</v>
+      </c>
+      <c r="AB21" s="0">
+        <v>-2.4332578176472786</v>
+      </c>
+      <c r="AC21" s="0">
+        <v>-8.3763704576692977</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="0">
+        <v>2.9303747680983996</v>
+      </c>
+      <c r="E22" s="0">
+        <v>2.2637378988396986</v>
+      </c>
+      <c r="F22" s="0">
+        <v>2.4300695450574876</v>
+      </c>
+      <c r="G22" s="0">
+        <v>4.7918482238592377</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.39338804877665456</v>
+      </c>
+      <c r="I22" s="0">
+        <v>1.1543200624908574</v>
+      </c>
+      <c r="J22" s="0">
+        <v>0.38217589753691189</v>
+      </c>
+      <c r="K22" s="0">
+        <v>0.43656413423960838</v>
+      </c>
+      <c r="L22" s="0">
+        <v>2.9583333333333335</v>
+      </c>
+      <c r="M22" s="0">
+        <v>0.36649444991456792</v>
+      </c>
+      <c r="N22" s="0">
+        <v>0.71104387704537253</v>
+      </c>
+      <c r="O22" s="0">
+        <v>0.25987355962606307</v>
+      </c>
+      <c r="P22" s="0">
+        <v>0.53319654410132233</v>
+      </c>
+      <c r="Q22" s="0">
+        <v>0.44989922823185036</v>
+      </c>
+      <c r="R22" s="0">
+        <v>2.7624060574586968</v>
+      </c>
+      <c r="S22" s="0">
+        <v>0.73022665534722531</v>
+      </c>
+      <c r="T22" s="0">
+        <v>3.5466469202562396</v>
+      </c>
+      <c r="U22" s="0">
+        <v>4.5544288962972255</v>
+      </c>
+      <c r="V22" s="0">
+        <v>0.60653182217962553</v>
+      </c>
+      <c r="W22" s="0">
+        <v>0.16033330895579539</v>
+      </c>
+      <c r="X22" s="0">
+        <v>0.77872484147017473</v>
+      </c>
+      <c r="Y22" s="0">
+        <v>-7.654936999096809</v>
+      </c>
+      <c r="Z22" s="0">
+        <v>-2.8169379775050682</v>
+      </c>
+      <c r="AA22" s="0">
+        <v>-3.8549855491442848</v>
+      </c>
+      <c r="AB22" s="0">
+        <v>-2.283915058571607</v>
+      </c>
+      <c r="AC22" s="0">
+        <v>-7.2169715031952899</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="0">
+        <v>5.1161391132849721</v>
+      </c>
+      <c r="E23" s="0">
+        <v>1.9957931664911808</v>
+      </c>
+      <c r="F23" s="0">
+        <v>1.7954262517240889</v>
+      </c>
+      <c r="G23" s="0">
+        <v>3.7693596478401417</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.66225386519768148</v>
+      </c>
+      <c r="I23" s="0">
+        <v>0.90143285841318832</v>
+      </c>
+      <c r="J23" s="0">
+        <v>0.61825021860663243</v>
+      </c>
+      <c r="K23" s="0">
+        <v>0.74126236431171577</v>
+      </c>
+      <c r="L23" s="0">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="M23" s="0">
+        <v>0.14640759947893808</v>
+      </c>
+      <c r="N23" s="0">
+        <v>0.87480109958557783</v>
+      </c>
+      <c r="O23" s="0">
+        <v>0.8120840191666191</v>
+      </c>
+      <c r="P23" s="0">
+        <v>0.8964436177892654</v>
+      </c>
+      <c r="Q23" s="0">
+        <v>0.86252572812330552</v>
+      </c>
+      <c r="R23" s="0">
+        <v>1.8202608758155709</v>
+      </c>
+      <c r="S23" s="0">
+        <v>1.318320116966756</v>
+      </c>
+      <c r="T23" s="0">
+        <v>2.3294738361419549</v>
+      </c>
+      <c r="U23" s="0">
+        <v>3.2369377411519711</v>
+      </c>
+      <c r="V23" s="0">
+        <v>0.56234040360868076</v>
+      </c>
+      <c r="W23" s="0">
+        <v>0.40727385646212283</v>
+      </c>
+      <c r="X23" s="0">
+        <v>0.71965358076764696</v>
+      </c>
+      <c r="Y23" s="0">
+        <v>-6.9889085845818784</v>
+      </c>
+      <c r="Z23" s="0">
+        <v>-2.7549692373803016</v>
+      </c>
+      <c r="AA23" s="0">
+        <v>-3.6679890677189886</v>
+      </c>
+      <c r="AB23" s="0">
+        <v>-2.082035763117049</v>
+      </c>
+      <c r="AC23" s="0">
+        <v>-8.1398258498334481</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="0">
+        <v>1.2180839450979477</v>
+      </c>
+      <c r="E24" s="0">
+        <v>1.5666312227488286</v>
+      </c>
+      <c r="F24" s="0">
+        <v>2.129498234560014</v>
+      </c>
+      <c r="G24" s="0">
+        <v>3.9935153257981986</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.28999335924895836</v>
+      </c>
+      <c r="I24" s="0">
+        <v>1.0714613046599484</v>
+      </c>
+      <c r="J24" s="0">
+        <v>0.43703222511432332</v>
+      </c>
+      <c r="K24" s="0">
+        <v>0.43790469144812694</v>
+      </c>
+      <c r="L24" s="0">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M24" s="0">
+        <v>0.19293061504650372</v>
+      </c>
+      <c r="N24" s="0">
+        <v>0.79882738206353709</v>
+      </c>
+      <c r="O24" s="0">
+        <v>0.43844045582889085</v>
+      </c>
+      <c r="P24" s="0">
+        <v>0.51451446866040962</v>
+      </c>
+      <c r="Q24" s="0">
+        <v>0.56745179299121251</v>
+      </c>
+      <c r="R24" s="0">
+        <v>4.2306639253513953</v>
+      </c>
+      <c r="S24" s="0">
+        <v>1.0891910715022304</v>
+      </c>
+      <c r="T24" s="0">
+        <v>5.4889488925171932</v>
+      </c>
+      <c r="U24" s="0">
+        <v>7.0152273223449839</v>
+      </c>
+      <c r="V24" s="0">
+        <v>0.60306868629557242</v>
+      </c>
+      <c r="W24" s="0">
+        <v>0.15526098035810276</v>
+      </c>
+      <c r="X24" s="0">
+        <v>0.78243350362057817</v>
+      </c>
+      <c r="Y24" s="0">
+        <v>-8.9705334076444441</v>
+      </c>
+      <c r="Z24" s="0">
+        <v>-3.0522207903119249</v>
+      </c>
+      <c r="AA24" s="0">
+        <v>-4.4191071458079261</v>
+      </c>
+      <c r="AB24" s="0">
+        <v>-2.4261727235409642</v>
+      </c>
+      <c r="AC24" s="0">
+        <v>-7.0756610315520483</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="0">
+        <v>3.0055287452370458</v>
+      </c>
+      <c r="E25" s="0">
+        <v>2.1811067554919217</v>
+      </c>
+      <c r="F25" s="0">
+        <v>2.8937932907197341</v>
+      </c>
+      <c r="G25" s="0">
+        <v>3.4719985554355555</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.8736867248574236</v>
+      </c>
+      <c r="I25" s="0">
+        <v>0.91833277702326876</v>
+      </c>
+      <c r="J25" s="0">
+        <v>0.4485622096638604</v>
+      </c>
+      <c r="K25" s="0">
+        <v>0.78604184413672074</v>
+      </c>
+      <c r="L25" s="0">
+        <v>2.7769230769230768</v>
+      </c>
+      <c r="M25" s="0">
+        <v>0.27466633474380403</v>
+      </c>
+      <c r="N25" s="0">
+        <v>0.61606184133291975</v>
+      </c>
+      <c r="O25" s="0">
+        <v>0.47313403040001206</v>
+      </c>
+      <c r="P25" s="0">
+        <v>0.60249214111112481</v>
+      </c>
+      <c r="Q25" s="0">
+        <v>0.42303047566187041</v>
+      </c>
+      <c r="R25" s="0">
+        <v>1.667979690854148</v>
+      </c>
+      <c r="S25" s="0">
+        <v>1.3493320702183775</v>
+      </c>
+      <c r="T25" s="0">
+        <v>3.0748352647006332</v>
+      </c>
+      <c r="U25" s="0">
+        <v>3.7493286318844246</v>
+      </c>
+      <c r="V25" s="0">
+        <v>0.44487423072749332</v>
+      </c>
+      <c r="W25" s="0">
+        <v>0.35988631637771351</v>
+      </c>
+      <c r="X25" s="0">
+        <v>0.82010289483619148</v>
+      </c>
+      <c r="Y25" s="0">
+        <v>-4.273870944175937</v>
+      </c>
+      <c r="Z25" s="0">
+        <v>-3.1744377002101611</v>
+      </c>
+      <c r="AA25" s="0">
+        <v>-4.7465774822003048</v>
+      </c>
+      <c r="AB25" s="0">
+        <v>-2.4491669524872477</v>
+      </c>
+      <c r="AC25" s="0">
+        <v>-7.6080287007794176</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="0">
+        <v>2.2831849995487894</v>
+      </c>
+      <c r="E26" s="0">
+        <v>2.4263318356388495</v>
+      </c>
+      <c r="F26" s="0">
+        <v>2.2944475170257825</v>
+      </c>
+      <c r="G26" s="0">
+        <v>6.4190860147508708</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.38053248833902104</v>
+      </c>
+      <c r="I26" s="0">
+        <v>0.68923443374939364</v>
+      </c>
+      <c r="J26" s="0">
+        <v>0.31938486827915924</v>
+      </c>
+      <c r="K26" s="0">
+        <v>0.36896630104312006</v>
+      </c>
+      <c r="L26" s="0">
+        <v>3.5736111111111111</v>
+      </c>
+      <c r="M26" s="0">
+        <v>0.5097265227022505</v>
+      </c>
+      <c r="N26" s="0">
+        <v>0.76845325210034621</v>
+      </c>
+      <c r="O26" s="0">
+        <v>0.56813394048472521</v>
+      </c>
+      <c r="P26" s="0">
+        <v>0.7374901331504653</v>
+      </c>
+      <c r="Q26" s="0">
+        <v>0.69987934020157849</v>
+      </c>
+      <c r="R26" s="0">
+        <v>1.8396915765781638</v>
+      </c>
+      <c r="S26" s="0">
+        <v>1.0531351827779369</v>
+      </c>
+      <c r="T26" s="0">
+        <v>3.2190113113398682</v>
+      </c>
+      <c r="U26" s="0">
+        <v>3.8542953483965636</v>
+      </c>
+      <c r="V26" s="0">
+        <v>0.47730944577028828</v>
+      </c>
+      <c r="W26" s="0">
+        <v>0.27323676251641033</v>
+      </c>
+      <c r="X26" s="0">
+        <v>0.83517505026671557</v>
+      </c>
+      <c r="Y26" s="0">
+        <v>-7.6821015800220165</v>
+      </c>
+      <c r="Z26" s="0">
+        <v>-3.1856608020369865</v>
+      </c>
+      <c r="AA26" s="0">
+        <v>-4.6698682793294397</v>
+      </c>
+      <c r="AB26" s="0">
+        <v>-2.4332578176472786</v>
+      </c>
+      <c r="AC26" s="0">
+        <v>-8.3763704576692977</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="0">
+        <v>2.7537743730111224</v>
+      </c>
+      <c r="E27" s="0">
+        <v>1.6120231308519219</v>
+      </c>
+      <c r="F27" s="0">
+        <v>4.3036662857051091</v>
+      </c>
+      <c r="G27" s="0">
+        <v>2.8379312552289666</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.70168587632226131</v>
+      </c>
+      <c r="I27" s="0">
+        <v>0.92922116110568831</v>
+      </c>
+      <c r="J27" s="0">
+        <v>0.61435490033874973</v>
+      </c>
+      <c r="K27" s="0">
+        <v>0.85764189528565082</v>
+      </c>
+      <c r="L27" s="0">
+        <v>2.3430555555555559</v>
+      </c>
+      <c r="M27" s="0">
+        <v>0.23251570310099964</v>
+      </c>
+      <c r="N27" s="0">
+        <v>0.47407328956201</v>
+      </c>
+      <c r="O27" s="0">
+        <v>0.40355671647947627</v>
+      </c>
+      <c r="P27" s="0">
+        <v>0.61686790072054376</v>
+      </c>
+      <c r="Q27" s="0">
+        <v>0.34680643764269103</v>
+      </c>
+      <c r="R27" s="0">
+        <v>2.1312569939424506</v>
+      </c>
+      <c r="S27" s="0">
+        <v>1.5285508540403903</v>
+      </c>
+      <c r="T27" s="0">
+        <v>2.8624619327456973</v>
+      </c>
+      <c r="U27" s="0">
+        <v>3.8823204921843386</v>
+      </c>
+      <c r="V27" s="0">
+        <v>0.54896472309098976</v>
+      </c>
+      <c r="W27" s="0">
+        <v>0.39372093497112864</v>
+      </c>
+      <c r="X27" s="0">
+        <v>0.73730696332470191</v>
+      </c>
+      <c r="Y27" s="0">
+        <v>-4.4484941139554257</v>
+      </c>
+      <c r="Z27" s="0">
+        <v>-2.8840545436427276</v>
+      </c>
+      <c r="AA27" s="0">
+        <v>-4.5357415035772837</v>
+      </c>
+      <c r="AB27" s="0">
+        <v>-2.1651257158106261</v>
+      </c>
+      <c r="AC27" s="0">
+        <v>-7.3148423364777519</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="0">
+        <v>3.8348307825789654</v>
+      </c>
+      <c r="E28" s="0">
+        <v>1.4802213665215225</v>
+      </c>
+      <c r="F28" s="0">
+        <v>1.663548975467537</v>
+      </c>
+      <c r="G28" s="0">
+        <v>3.465609469878558</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.68105352645138628</v>
+      </c>
+      <c r="I28" s="0">
+        <v>0.89737197884372355</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0.47178873554388889</v>
+      </c>
+      <c r="K28" s="0">
+        <v>0.62645127871821238</v>
+      </c>
+      <c r="L28" s="0">
+        <v>2.2819444444444446</v>
+      </c>
+      <c r="M28" s="0">
+        <v>0.1074164776153997</v>
+      </c>
+      <c r="N28" s="0">
+        <v>0.89032526314177551</v>
+      </c>
+      <c r="O28" s="0">
+        <v>0.69838614650135244</v>
+      </c>
+      <c r="P28" s="0">
+        <v>0.86984957524427253</v>
+      </c>
+      <c r="Q28" s="0">
+        <v>0.81738261633078579</v>
+      </c>
+      <c r="R28" s="0">
+        <v>3.3754904483010741</v>
+      </c>
+      <c r="S28" s="0">
+        <v>1.650045255626589</v>
+      </c>
+      <c r="T28" s="0">
+        <v>4.5872949228120472</v>
+      </c>
+      <c r="U28" s="0">
+        <v>5.929575011840627</v>
+      </c>
+      <c r="V28" s="0">
+        <v>0.56926347024207247</v>
+      </c>
+      <c r="W28" s="0">
+        <v>0.27827378055453428</v>
+      </c>
+      <c r="X28" s="0">
+        <v>0.7736296300581047</v>
+      </c>
+      <c r="Y28" s="0">
+        <v>-5.5734463240821883</v>
+      </c>
+      <c r="Z28" s="0">
+        <v>-3.2305444224140252</v>
+      </c>
+      <c r="AA28" s="0">
+        <v>-4.6267507321163377</v>
+      </c>
+      <c r="AB28" s="0">
+        <v>-2.4123258561412748</v>
+      </c>
+      <c r="AC28" s="0">
+        <v>-7.1047710866153153</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="0">
+        <v>2.9187506741538543</v>
+      </c>
+      <c r="E29" s="0">
+        <v>2.4717172126950033</v>
+      </c>
+      <c r="F29" s="0">
+        <v>2.8109342747487234</v>
+      </c>
+      <c r="G29" s="0">
+        <v>1.9675583100889331</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.71947058891090154</v>
+      </c>
+      <c r="I29" s="0">
+        <v>0.71118582766195748</v>
+      </c>
+      <c r="J29" s="0">
+        <v>0.57729720272178331</v>
+      </c>
+      <c r="K29" s="0">
+        <v>0.84765008641601791</v>
+      </c>
+      <c r="L29" s="0">
+        <v>2.4513888888888888</v>
+      </c>
+      <c r="M29" s="0">
+        <v>0.06870311379492082</v>
+      </c>
+      <c r="N29" s="0">
+        <v>0.93064475176025874</v>
+      </c>
+      <c r="O29" s="0">
+        <v>0.87534570903124376</v>
+      </c>
+      <c r="P29" s="0">
+        <v>0.93633735437953258</v>
+      </c>
+      <c r="Q29" s="0">
+        <v>0.90023320674685448</v>
+      </c>
+      <c r="R29" s="0">
+        <v>1.9086658115383279</v>
+      </c>
+      <c r="S29" s="0">
+        <v>1.9952110977515225</v>
+      </c>
+      <c r="T29" s="0">
+        <v>3.3476521158635428</v>
+      </c>
+      <c r="U29" s="0">
+        <v>4.3394293626664506</v>
+      </c>
+      <c r="V29" s="0">
+        <v>0.43984258113732938</v>
+      </c>
+      <c r="W29" s="0">
+        <v>0.45978651361789297</v>
+      </c>
+      <c r="X29" s="0">
+        <v>0.7714498465315518</v>
+      </c>
+      <c r="Y29" s="0">
+        <v>-3.9324234560180398</v>
+      </c>
+      <c r="Z29" s="0">
+        <v>-2.8991339179494759</v>
+      </c>
+      <c r="AA29" s="0">
+        <v>-3.6784664166430936</v>
+      </c>
+      <c r="AB29" s="0">
+        <v>-2.2011180858185857</v>
+      </c>
+      <c r="AC29" s="0">
+        <v>-7.1832818863424377</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="0">
+        <v>3.4862449631735748</v>
+      </c>
+      <c r="E30" s="0">
+        <v>1.5481768515812686</v>
+      </c>
+      <c r="F30" s="0">
+        <v>2.4396553189361132</v>
+      </c>
+      <c r="G30" s="0">
+        <v>1.5231490418168629</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.85830541960326845</v>
+      </c>
+      <c r="I30" s="0">
+        <v>0.65753580732313366</v>
+      </c>
+      <c r="J30" s="0">
+        <v>0.62791921036278242</v>
+      </c>
+      <c r="K30" s="0">
+        <v>0.7923747796815529</v>
+      </c>
+      <c r="L30" s="0">
+        <v>2.3179487179487182</v>
+      </c>
+      <c r="M30" s="0">
+        <v>0.047366546671567138</v>
+      </c>
+      <c r="N30" s="0">
+        <v>0.94353683917975195</v>
+      </c>
+      <c r="O30" s="0">
+        <v>0.89353786399869262</v>
+      </c>
+      <c r="P30" s="0">
+        <v>0.92787263087483729</v>
+      </c>
+      <c r="Q30" s="0">
+        <v>0.89492164908936689</v>
+      </c>
+      <c r="R30" s="0">
+        <v>2.1651305513448853</v>
+      </c>
+      <c r="S30" s="0">
+        <v>3.1797231174678884</v>
+      </c>
+      <c r="T30" s="0">
+        <v>3.9327016261939765</v>
+      </c>
+      <c r="U30" s="0">
+        <v>5.5013245213126165</v>
+      </c>
+      <c r="V30" s="0">
+        <v>0.39356532103441266</v>
+      </c>
+      <c r="W30" s="0">
+        <v>0.57799228261291657</v>
+      </c>
+      <c r="X30" s="0">
+        <v>0.71486450416774094</v>
+      </c>
+      <c r="Y30" s="0">
+        <v>-5.2491117788006756</v>
+      </c>
+      <c r="Z30" s="0">
+        <v>-5.2052569860781928</v>
+      </c>
+      <c r="AA30" s="0">
+        <v>-5.4214309697958649</v>
+      </c>
+      <c r="AB30" s="0">
+        <v>-3.1542713226276713</v>
+      </c>
+      <c r="AC30" s="0">
+        <v>-7.1355059357240371</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="0">
+        <v>2.9058013585148723</v>
+      </c>
+      <c r="E31" s="0">
+        <v>2.352076103610119</v>
+      </c>
+      <c r="F31" s="0">
+        <v>1.5373379479626577</v>
+      </c>
+      <c r="G31" s="0">
+        <v>4.847862943443273</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0.71841510219599669</v>
+      </c>
+      <c r="I31" s="0">
+        <v>0.67633457232174521</v>
+      </c>
+      <c r="J31" s="0">
+        <v>0.63409955489220848</v>
+      </c>
+      <c r="K31" s="0">
+        <v>0.83972312230558921</v>
+      </c>
+      <c r="L31" s="0">
+        <v>2.3297619047619049</v>
+      </c>
+      <c r="M31" s="0">
+        <v>0.21976858180420036</v>
+      </c>
+      <c r="N31" s="0">
+        <v>0.94337110790023737</v>
+      </c>
+      <c r="O31" s="0">
+        <v>0.87262873899800653</v>
+      </c>
+      <c r="P31" s="0">
+        <v>0.93610752578463041</v>
+      </c>
+      <c r="Q31" s="0">
+        <v>0.85212913687048464</v>
+      </c>
+      <c r="R31" s="0">
+        <v>2.3105075419802015</v>
+      </c>
+      <c r="S31" s="0">
+        <v>2.7897161470126415</v>
+      </c>
+      <c r="T31" s="0">
+        <v>3.0003058465088812</v>
+      </c>
+      <c r="U31" s="0">
+        <v>4.7034876905383545</v>
+      </c>
+      <c r="V31" s="0">
+        <v>0.49123282423552894</v>
+      </c>
+      <c r="W31" s="0">
+        <v>0.59311649791802357</v>
+      </c>
+      <c r="X31" s="0">
+        <v>0.63788959255583177</v>
+      </c>
+      <c r="Y31" s="0">
+        <v>-3.2073952382256934</v>
+      </c>
+      <c r="Z31" s="0">
+        <v>-2.9703576410782806</v>
+      </c>
+      <c r="AA31" s="0">
+        <v>-3.146702254867384</v>
+      </c>
+      <c r="AB31" s="0">
+        <v>-1.9724784411498508</v>
+      </c>
+      <c r="AC31" s="0">
+        <v>-7.1247369813334753</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="0">
+        <v>2.7044050772300525</v>
+      </c>
+      <c r="E32" s="0">
+        <v>2.7432149359237563</v>
+      </c>
+      <c r="F32" s="0">
+        <v>2.7810706871869186</v>
+      </c>
+      <c r="G32" s="0">
+        <v>3.4090756878377304</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.99538525254720145</v>
+      </c>
+      <c r="I32" s="0">
+        <v>1.2387716545031182</v>
+      </c>
+      <c r="J32" s="0">
+        <v>0.70461160950042423</v>
+      </c>
+      <c r="K32" s="0">
+        <v>0.99954264034875506</v>
+      </c>
+      <c r="L32" s="0">
+        <v>1.8119047619047619</v>
+      </c>
+      <c r="M32" s="0">
+        <v>0.060067117527467621</v>
+      </c>
+      <c r="N32" s="0">
+        <v>0.8506791692231771</v>
+      </c>
+      <c r="O32" s="0">
+        <v>0.72381744085214661</v>
+      </c>
+      <c r="P32" s="0">
+        <v>0.8592155596179708</v>
+      </c>
+      <c r="Q32" s="0">
+        <v>0.79516350183979845</v>
+      </c>
+      <c r="R32" s="0">
+        <v>2.7904614693748817</v>
+      </c>
+      <c r="S32" s="0">
+        <v>1.7860028989589971</v>
+      </c>
+      <c r="T32" s="0">
+        <v>4.0022214677075008</v>
+      </c>
+      <c r="U32" s="0">
+        <v>5.1955998925758848</v>
+      </c>
+      <c r="V32" s="0">
+        <v>0.53708167046547173</v>
+      </c>
+      <c r="W32" s="0">
+        <v>0.3437529709535676</v>
+      </c>
+      <c r="X32" s="0">
+        <v>0.77030979106500663</v>
+      </c>
+      <c r="Y32" s="0">
+        <v>-3.6880224477753356</v>
+      </c>
+      <c r="Z32" s="0">
+        <v>-2.6177078056008845</v>
+      </c>
+      <c r="AA32" s="0">
+        <v>-3.763334352548195</v>
+      </c>
+      <c r="AB32" s="0">
+        <v>-2.045856034988168</v>
+      </c>
+      <c r="AC32" s="0">
+        <v>-7.2857762874331469</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="0">
+        <v>7.0461786003027838</v>
+      </c>
+      <c r="E33" s="0">
+        <v>2.2698568205680583</v>
+      </c>
+      <c r="F33" s="0">
+        <v>1.580419962677152</v>
+      </c>
+      <c r="G33" s="0">
+        <v>3.4291773997654902</v>
+      </c>
+      <c r="H33" s="0">
+        <v>1.2122613665596664</v>
+      </c>
+      <c r="I33" s="0">
+        <v>1.195391835880143</v>
+      </c>
+      <c r="J33" s="0">
+        <v>0.6287181038025127</v>
+      </c>
+      <c r="K33" s="0">
+        <v>1.0824157181500567</v>
+      </c>
+      <c r="L33" s="0">
+        <v>3.1166666666666671</v>
+      </c>
+      <c r="M33" s="0">
+        <v>0.39775008259600425</v>
+      </c>
+      <c r="N33" s="0">
+        <v>0.46576207391454111</v>
+      </c>
+      <c r="O33" s="0">
+        <v>0.25894663974826349</v>
+      </c>
+      <c r="P33" s="0">
+        <v>0.57585974403789075</v>
+      </c>
+      <c r="Q33" s="0">
+        <v>0.30858702095361523</v>
+      </c>
+      <c r="R33" s="0">
+        <v>1.4037735346632347</v>
+      </c>
+      <c r="S33" s="0">
+        <v>1.126665450467556</v>
+      </c>
+      <c r="T33" s="0">
+        <v>2.1709956743944039</v>
+      </c>
+      <c r="U33" s="0">
+        <v>2.8201378321169663</v>
+      </c>
+      <c r="V33" s="0">
+        <v>0.49776770435701612</v>
+      </c>
+      <c r="W33" s="0">
+        <v>0.39950722891505358</v>
+      </c>
+      <c r="X33" s="0">
+        <v>0.76981899596188275</v>
+      </c>
+      <c r="Y33" s="0">
+        <v>-6.240668632273028</v>
+      </c>
+      <c r="Z33" s="0">
+        <v>-3.2539690911101404</v>
+      </c>
+      <c r="AA33" s="0">
+        <v>-4.6231042301105223</v>
+      </c>
+      <c r="AB33" s="0">
+        <v>-2.4495673160442122</v>
+      </c>
+      <c r="AC33" s="0">
+        <v>-8.6972703065504184</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="0">
+        <v>3.4075179185249684</v>
+      </c>
+      <c r="E34" s="0">
+        <v>1.2242320672807088</v>
+      </c>
+      <c r="F34" s="0">
+        <v>2.3806180074635157</v>
+      </c>
+      <c r="G34" s="0">
+        <v>2.7942905517470153</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.80853677459091011</v>
+      </c>
+      <c r="I34" s="0">
+        <v>0.72971018882320737</v>
+      </c>
+      <c r="J34" s="0">
+        <v>0.45124836940352064</v>
+      </c>
+      <c r="K34" s="0">
+        <v>0.80359471167481611</v>
+      </c>
+      <c r="L34" s="0">
+        <v>1.7821428571428568</v>
+      </c>
+      <c r="M34" s="0">
+        <v>0.065523625840955571</v>
+      </c>
+      <c r="N34" s="0">
+        <v>0.91003522112238222</v>
+      </c>
+      <c r="O34" s="0">
+        <v>0.82954313941134805</v>
+      </c>
+      <c r="P34" s="0">
+        <v>0.92038721505432297</v>
+      </c>
+      <c r="Q34" s="0">
+        <v>0.84155957541255511</v>
+      </c>
+      <c r="R34" s="0">
+        <v>2.8259598378510078</v>
+      </c>
+      <c r="S34" s="0">
+        <v>2.6395216339553795</v>
+      </c>
+      <c r="T34" s="0">
+        <v>4.4132858292998183</v>
+      </c>
+      <c r="U34" s="0">
+        <v>5.8677265846632576</v>
+      </c>
+      <c r="V34" s="0">
+        <v>0.48161068807080182</v>
+      </c>
+      <c r="W34" s="0">
+        <v>0.44983718921982768</v>
+      </c>
+      <c r="X34" s="0">
+        <v>0.75212874451836631</v>
+      </c>
+      <c r="Y34" s="0">
+        <v>-3.0357321056833402</v>
+      </c>
+      <c r="Z34" s="0">
+        <v>-2.7251047370894939</v>
+      </c>
+      <c r="AA34" s="0">
+        <v>-3.0951731751826337</v>
+      </c>
+      <c r="AB34" s="0">
+        <v>-1.9966937362744321</v>
+      </c>
+      <c r="AC34" s="0">
+        <v>-6.583924395393824</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="0">
+        <v>4.1619359531564797</v>
+      </c>
+      <c r="E35" s="0">
+        <v>2.4962611372522479</v>
+      </c>
+      <c r="F35" s="0">
+        <v>2.2694804276963647</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.83919750378999269</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0.82204975493436661</v>
+      </c>
+      <c r="I35" s="0">
+        <v>0.83120577854765143</v>
+      </c>
+      <c r="J35" s="0">
+        <v>0.72536363930001602</v>
+      </c>
+      <c r="K35" s="0">
+        <v>1.0188677396107111</v>
+      </c>
+      <c r="L35" s="0">
+        <v>2.2583333333333333</v>
+      </c>
+      <c r="M35" s="0">
+        <v>0.25070413658845786</v>
+      </c>
+      <c r="N35" s="0">
+        <v>0.90647737795274064</v>
+      </c>
+      <c r="O35" s="0">
+        <v>0.8194466803228132</v>
+      </c>
+      <c r="P35" s="0">
+        <v>0.88681306565576901</v>
+      </c>
+      <c r="Q35" s="0">
+        <v>0.82329103099027723</v>
+      </c>
+      <c r="R35" s="0">
+        <v>2.0703017966128723</v>
+      </c>
+      <c r="S35" s="0">
+        <v>1.3975882219395193</v>
+      </c>
+      <c r="T35" s="0">
+        <v>2.6870807743485967</v>
+      </c>
+      <c r="U35" s="0">
+        <v>3.6687607519483199</v>
+      </c>
+      <c r="V35" s="0">
+        <v>0.5643054798581304</v>
+      </c>
+      <c r="W35" s="0">
+        <v>0.38094286229957086</v>
+      </c>
+      <c r="X35" s="0">
+        <v>0.73242191465377071</v>
+      </c>
+      <c r="Y35" s="0">
+        <v>-4.2162715161812425</v>
+      </c>
+      <c r="Z35" s="0">
+        <v>-2.8191421780682844</v>
+      </c>
+      <c r="AA35" s="0">
+        <v>-3.6760640951044103</v>
+      </c>
+      <c r="AB35" s="0">
+        <v>-2.2377244622378019</v>
+      </c>
+      <c r="AC35" s="0">
+        <v>-7.261238749674801</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="0">
+        <v>1.489242279598465</v>
+      </c>
+      <c r="E36" s="0">
+        <v>1.7809652457276377</v>
+      </c>
+      <c r="F36" s="0">
+        <v>2.6927517106878072</v>
+      </c>
+      <c r="G36" s="0">
+        <v>3.0049476791229122</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.87206593143299349</v>
+      </c>
+      <c r="I36" s="0">
+        <v>1.0004855773576522</v>
+      </c>
+      <c r="J36" s="0">
+        <v>0.66796956479372693</v>
+      </c>
+      <c r="K36" s="0">
+        <v>0.99523288417045819</v>
+      </c>
+      <c r="L36" s="0">
+        <v>1.8535714285714284</v>
+      </c>
+      <c r="M36" s="0">
+        <v>0.057801077766462025</v>
+      </c>
+      <c r="N36" s="0">
+        <v>0.84964962174861114</v>
+      </c>
+      <c r="O36" s="0">
+        <v>0.90834418629999891</v>
+      </c>
+      <c r="P36" s="0">
+        <v>0.87128094434632686</v>
+      </c>
+      <c r="Q36" s="0">
+        <v>0.84517192078811387</v>
+      </c>
+      <c r="R36" s="0">
+        <v>2.4333025120389746</v>
+      </c>
+      <c r="S36" s="0">
+        <v>2.4237945581848561</v>
+      </c>
+      <c r="T36" s="0">
+        <v>3.711186285476435</v>
+      </c>
+      <c r="U36" s="0">
+        <v>5.0565447512001791</v>
+      </c>
+      <c r="V36" s="0">
+        <v>0.4812184271604491</v>
+      </c>
+      <c r="W36" s="0">
+        <v>0.47933810090567569</v>
+      </c>
+      <c r="X36" s="0">
+        <v>0.73393719784554046</v>
+      </c>
+      <c r="Y36" s="0">
+        <v>-2.8932778390299445</v>
+      </c>
+      <c r="Z36" s="0">
+        <v>-2.6999906845562767</v>
+      </c>
+      <c r="AA36" s="0">
+        <v>-3.2622571607879949</v>
+      </c>
+      <c r="AB36" s="0">
+        <v>-2.1152961030628119</v>
+      </c>
+      <c r="AC36" s="0">
+        <v>-7.1476951632854533</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="0">
+        <v>2.4670219765163641</v>
+      </c>
+      <c r="E37" s="0">
+        <v>2.7318771799527006</v>
+      </c>
+      <c r="F37" s="0">
+        <v>2.6320029400423364</v>
+      </c>
+      <c r="G37" s="0">
+        <v>2.8680505626649819</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.72177976178309078</v>
+      </c>
+      <c r="I37" s="0">
+        <v>1.050356862671233</v>
+      </c>
+      <c r="J37" s="0">
+        <v>0.61630448086277956</v>
+      </c>
+      <c r="K37" s="0">
+        <v>0.92091110166975398</v>
+      </c>
+      <c r="L37" s="0">
+        <v>1.7904761904761901</v>
+      </c>
+      <c r="M37" s="0">
+        <v>0.073004591154737189</v>
+      </c>
+      <c r="N37" s="0">
+        <v>0.89887849599579428</v>
+      </c>
+      <c r="O37" s="0">
+        <v>0.87376220029361118</v>
+      </c>
+      <c r="P37" s="0">
+        <v>0.92630952701713765</v>
+      </c>
+      <c r="Q37" s="0">
+        <v>0.84436710988814001</v>
+      </c>
+      <c r="R37" s="0">
+        <v>3.1381610102270581</v>
+      </c>
+      <c r="S37" s="0">
+        <v>1.9654968939145825</v>
+      </c>
+      <c r="T37" s="0">
+        <v>4.3307491079860609</v>
+      </c>
+      <c r="U37" s="0">
+        <v>5.6979487890309484</v>
+      </c>
+      <c r="V37" s="0">
+        <v>0.55075275795182543</v>
+      </c>
+      <c r="W37" s="0">
+        <v>0.34494815006030538</v>
+      </c>
+      <c r="X37" s="0">
+        <v>0.76005405951052663</v>
+      </c>
+      <c r="Y37" s="0">
+        <v>-3.5206975264447316</v>
+      </c>
+      <c r="Z37" s="0">
+        <v>-2.6607987710300103</v>
+      </c>
+      <c r="AA37" s="0">
+        <v>-3.392538750847335</v>
+      </c>
+      <c r="AB37" s="0">
+        <v>-2.2117852259913398</v>
+      </c>
+      <c r="AC37" s="0">
+        <v>-6.7855620884934478</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="0">
+        <v>4.2183093295769671</v>
+      </c>
+      <c r="E38" s="0">
+        <v>1.8896830107964016</v>
+      </c>
+      <c r="F38" s="0">
+        <v>2.3429728992855403</v>
+      </c>
+      <c r="G38" s="0">
+        <v>4.6134958808541144</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0.74217786490280002</v>
+      </c>
+      <c r="I38" s="0">
+        <v>1.0387401053742997</v>
+      </c>
+      <c r="J38" s="0">
+        <v>0.59915934920339242</v>
+      </c>
+      <c r="K38" s="0">
+        <v>0.86617962704855678</v>
+      </c>
+      <c r="L38" s="0">
+        <v>2.2583333333333333</v>
+      </c>
+      <c r="M38" s="0">
+        <v>0.14540688564563373</v>
+      </c>
+      <c r="N38" s="0">
+        <v>0.90775647577187901</v>
+      </c>
+      <c r="O38" s="0">
+        <v>0.74422203741961412</v>
+      </c>
+      <c r="P38" s="0">
+        <v>0.85932135445188407</v>
+      </c>
+      <c r="Q38" s="0">
+        <v>0.80577831965503965</v>
+      </c>
+      <c r="R38" s="0">
+        <v>2.4643670800454958</v>
+      </c>
+      <c r="S38" s="0">
+        <v>1.1737771040015763</v>
+      </c>
+      <c r="T38" s="0">
+        <v>3.1751728020221579</v>
+      </c>
+      <c r="U38" s="0">
+        <v>4.187192390826044</v>
+      </c>
+      <c r="V38" s="0">
+        <v>0.58854880550624233</v>
+      </c>
+      <c r="W38" s="0">
+        <v>0.28032557247029549</v>
+      </c>
+      <c r="X38" s="0">
+        <v>0.75830592570306121</v>
+      </c>
+      <c r="Y38" s="0">
+        <v>-5.6816289526223125</v>
+      </c>
+      <c r="Z38" s="0">
+        <v>-2.5662675262113539</v>
+      </c>
+      <c r="AA38" s="0">
+        <v>-3.5112538896266594</v>
+      </c>
+      <c r="AB38" s="0">
+        <v>-2.0669721328016855</v>
+      </c>
+      <c r="AC38" s="0">
+        <v>-7.0787885385255365</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="0">
+        <v>4.54588203441795</v>
+      </c>
+      <c r="E39" s="0">
+        <v>1.8901962206098124</v>
+      </c>
+      <c r="F39" s="0">
+        <v>3.2980970578095725</v>
+      </c>
+      <c r="G39" s="0">
+        <v>2.1961415356795735</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.83246135952029887</v>
+      </c>
+      <c r="I39" s="0">
+        <v>1.1675280130303438</v>
+      </c>
+      <c r="J39" s="0">
+        <v>0.58230822629608026</v>
+      </c>
+      <c r="K39" s="0">
+        <v>0.87291001954747205</v>
+      </c>
+      <c r="L39" s="0">
+        <v>2.038095238095238</v>
+      </c>
+      <c r="M39" s="0">
+        <v>0.073504628445631964</v>
+      </c>
+      <c r="N39" s="0">
+        <v>0.92126147637542255</v>
+      </c>
+      <c r="O39" s="0">
+        <v>0.82811831777198597</v>
+      </c>
+      <c r="P39" s="0">
+        <v>0.93425823059257351</v>
+      </c>
+      <c r="Q39" s="0">
+        <v>0.89381480927197721</v>
+      </c>
+      <c r="R39" s="0">
+        <v>2.8133087288303242</v>
+      </c>
+      <c r="S39" s="0">
+        <v>1.4485368690946254</v>
+      </c>
+      <c r="T39" s="0">
+        <v>3.9750815437756932</v>
+      </c>
+      <c r="U39" s="0">
+        <v>5.0807714320273725</v>
+      </c>
+      <c r="V39" s="0">
+        <v>0.5537168452601956</v>
+      </c>
+      <c r="W39" s="0">
+        <v>0.28510175835967833</v>
+      </c>
+      <c r="X39" s="0">
+        <v>0.78237755761225425</v>
+      </c>
+      <c r="Y39" s="0">
+        <v>-7.135437076874152</v>
+      </c>
+      <c r="Z39" s="0">
+        <v>-3.0005927244273614</v>
+      </c>
+      <c r="AA39" s="0">
+        <v>-3.898743160307188</v>
+      </c>
+      <c r="AB39" s="0">
+        <v>-2.3649723703066314</v>
+      </c>
+      <c r="AC39" s="0">
+        <v>-7.309141636014993</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="0">
+        <v>3.5619272788461465</v>
+      </c>
+      <c r="E40" s="0">
+        <v>1.6719262240445498</v>
+      </c>
+      <c r="F40" s="0">
+        <v>1.8276356364399675</v>
+      </c>
+      <c r="G40" s="0">
+        <v>6.5210290648304383</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.91023264226285283</v>
+      </c>
+      <c r="I40" s="0">
+        <v>0.63069303405925492</v>
+      </c>
+      <c r="J40" s="0">
+        <v>0.6188900569147503</v>
+      </c>
+      <c r="K40" s="0">
+        <v>0.86526903144483691</v>
+      </c>
+      <c r="L40" s="0">
+        <v>2.2404761904761901</v>
+      </c>
+      <c r="M40" s="0">
+        <v>0.071824300614277872</v>
+      </c>
+      <c r="N40" s="0">
+        <v>0.94395548775580707</v>
+      </c>
+      <c r="O40" s="0">
+        <v>0.94312066049153209</v>
+      </c>
+      <c r="P40" s="0">
+        <v>0.93780603681366936</v>
+      </c>
+      <c r="Q40" s="0">
+        <v>0.91789345363888664</v>
+      </c>
+      <c r="R40" s="0">
+        <v>2.0269837922122731</v>
+      </c>
+      <c r="S40" s="0">
+        <v>2.4192503779083974</v>
+      </c>
+      <c r="T40" s="0">
+        <v>3.5394683644098386</v>
+      </c>
+      <c r="U40" s="0">
+        <v>4.7422855236224679</v>
+      </c>
+      <c r="V40" s="0">
+        <v>0.42742761525331574</v>
+      </c>
+      <c r="W40" s="0">
+        <v>0.51014439469271256</v>
+      </c>
+      <c r="X40" s="0">
+        <v>0.74636340363288822</v>
+      </c>
+      <c r="Y40" s="0">
+        <v>-3.0433674674986517</v>
+      </c>
+      <c r="Z40" s="0">
+        <v>-3.3438657878495639</v>
+      </c>
+      <c r="AA40" s="0">
+        <v>-3.7406704843287217</v>
+      </c>
+      <c r="AB40" s="0">
+        <v>-2.2642538697021037</v>
+      </c>
+      <c r="AC40" s="0">
+        <v>-7.1513000287688611</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="0">
+        <v>2.5519463120813302</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0.97447845127530697</v>
+      </c>
+      <c r="F41" s="0">
+        <v>3.3367818345589568</v>
+      </c>
+      <c r="G41" s="0">
+        <v>1.5610546775224892</v>
+      </c>
+      <c r="H41" s="0">
+        <v>1.0319807761282105</v>
+      </c>
+      <c r="I41" s="0">
+        <v>0.88708071498649288</v>
+      </c>
+      <c r="J41" s="0">
+        <v>0.58421298680853651</v>
+      </c>
+      <c r="K41" s="0">
+        <v>1.0665565593304018</v>
+      </c>
+      <c r="L41" s="0">
+        <v>1.691025641025641</v>
+      </c>
+      <c r="M41" s="0">
+        <v>0.075955452531275003</v>
+      </c>
+      <c r="N41" s="0">
+        <v>0.90310546906329947</v>
+      </c>
+      <c r="O41" s="0">
+        <v>0.89738261943034225</v>
+      </c>
+      <c r="P41" s="0">
+        <v>0.9079833867448116</v>
+      </c>
+      <c r="Q41" s="0">
+        <v>0.84082141207099859</v>
+      </c>
+      <c r="R41" s="0">
+        <v>3.0534327854767702</v>
+      </c>
+      <c r="S41" s="0">
+        <v>2.7957580820330885</v>
+      </c>
+      <c r="T41" s="0">
+        <v>4.9443420842910273</v>
+      </c>
+      <c r="U41" s="0">
+        <v>6.4487389213061732</v>
+      </c>
+      <c r="V41" s="0">
+        <v>0.47349300735194072</v>
+      </c>
+      <c r="W41" s="0">
+        <v>0.43353562861664369</v>
+      </c>
+      <c r="X41" s="0">
+        <v>0.76671456925559101</v>
+      </c>
+      <c r="Y41" s="0">
+        <v>-5.0751705681297166</v>
+      </c>
+      <c r="Z41" s="0">
+        <v>-5.1244398651969512</v>
+      </c>
+      <c r="AA41" s="0">
+        <v>-7.6281777391662411</v>
+      </c>
+      <c r="AB41" s="0">
+        <v>-3.4293332736477211</v>
+      </c>
+      <c r="AC41" s="0">
+        <v>-6.8875063883538328</v>
       </c>
     </row>
   </sheetData>

--- a/Output/MoveQual_aff.xlsx
+++ b/Output/MoveQual_aff.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="582">
   <si>
     <t>ppID</t>
   </si>
@@ -936,6 +936,831 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>ppID</t>
+  </si>
+  <si>
+    <t>BC_001</t>
+  </si>
+  <si>
+    <t>BC_002</t>
+  </si>
+  <si>
+    <t>BC_003</t>
+  </si>
+  <si>
+    <t>BC_005</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>BC_007</t>
+  </si>
+  <si>
+    <t>BC_008</t>
+  </si>
+  <si>
+    <t>BC_009</t>
+  </si>
+  <si>
+    <t>BC_010</t>
+  </si>
+  <si>
+    <t>BC_011</t>
+  </si>
+  <si>
+    <t>BC_012</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>BC_014</t>
+  </si>
+  <si>
+    <t>BC_015</t>
+  </si>
+  <si>
+    <t>BC_016</t>
+  </si>
+  <si>
+    <t>BC_017</t>
+  </si>
+  <si>
+    <t>BC_018</t>
+  </si>
+  <si>
+    <t>BC_019</t>
+  </si>
+  <si>
+    <t>BC_020</t>
+  </si>
+  <si>
+    <t>BC_021</t>
+  </si>
+  <si>
+    <t>BC_022</t>
+  </si>
+  <si>
+    <t>BC_023</t>
+  </si>
+  <si>
+    <t>BC_026</t>
+  </si>
+  <si>
+    <t>BC_027</t>
+  </si>
+  <si>
+    <t>BC_028</t>
+  </si>
+  <si>
+    <t>BC_029</t>
+  </si>
+  <si>
+    <t>BC_030</t>
+  </si>
+  <si>
+    <t>BC_031</t>
+  </si>
+  <si>
+    <t>BC_032</t>
+  </si>
+  <si>
+    <t>BC_033</t>
+  </si>
+  <si>
+    <t>BC_034</t>
+  </si>
+  <si>
+    <t>BC_035</t>
+  </si>
+  <si>
+    <t>BC_036</t>
+  </si>
+  <si>
+    <t>BC_037</t>
+  </si>
+  <si>
+    <t>BC_038</t>
+  </si>
+  <si>
+    <t>BC_039</t>
+  </si>
+  <si>
+    <t>BC_040</t>
+  </si>
+  <si>
+    <t>BC_041</t>
+  </si>
+  <si>
+    <t>BC_042</t>
+  </si>
+  <si>
+    <t>BC_043</t>
+  </si>
+  <si>
+    <t>BC_044</t>
+  </si>
+  <si>
+    <t>BC_045</t>
+  </si>
+  <si>
+    <t>BC_046</t>
+  </si>
+  <si>
+    <t>BC_047</t>
+  </si>
+  <si>
+    <t>BC_048</t>
+  </si>
+  <si>
+    <t>BC_049</t>
+  </si>
+  <si>
+    <t>BC_050</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>lyapExp_x</t>
+  </si>
+  <si>
+    <t>lyapExp_y</t>
+  </si>
+  <si>
+    <t>lyapExp_z</t>
+  </si>
+  <si>
+    <t>lyapExp_res</t>
+  </si>
+  <si>
+    <t>sampen_x</t>
+  </si>
+  <si>
+    <t>sampen_y</t>
+  </si>
+  <si>
+    <t>sampen_z</t>
+  </si>
+  <si>
+    <t>sampen_res</t>
+  </si>
+  <si>
+    <t>avg_movement_time</t>
+  </si>
+  <si>
+    <t>var_movement_time</t>
+  </si>
+  <si>
+    <t>reg_x</t>
+  </si>
+  <si>
+    <t>reg_y</t>
+  </si>
+  <si>
+    <t>reg_z</t>
+  </si>
+  <si>
+    <t>reg_res</t>
+  </si>
+  <si>
+    <t>rms_x</t>
+  </si>
+  <si>
+    <t>rms_y</t>
+  </si>
+  <si>
+    <t>rms_z</t>
+  </si>
+  <si>
+    <t>rms_res</t>
+  </si>
+  <si>
+    <t>rmsr_x</t>
+  </si>
+  <si>
+    <t>rmsr_y</t>
+  </si>
+  <si>
+    <t>rmsr_z</t>
+  </si>
+  <si>
+    <t>LDLJ_A</t>
+  </si>
+  <si>
+    <t>ppID</t>
+  </si>
+  <si>
+    <t>BC_001</t>
+  </si>
+  <si>
+    <t>BC_002</t>
+  </si>
+  <si>
+    <t>BC_003</t>
+  </si>
+  <si>
+    <t>BC_005</t>
+  </si>
+  <si>
+    <t>BC_006</t>
+  </si>
+  <si>
+    <t>BC_007</t>
+  </si>
+  <si>
+    <t>BC_008</t>
+  </si>
+  <si>
+    <t>BC_009</t>
+  </si>
+  <si>
+    <t>BC_010</t>
+  </si>
+  <si>
+    <t>BC_011</t>
+  </si>
+  <si>
+    <t>BC_012</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>BC_014</t>
+  </si>
+  <si>
+    <t>BC_015</t>
+  </si>
+  <si>
+    <t>BC_016</t>
+  </si>
+  <si>
+    <t>BC_017</t>
+  </si>
+  <si>
+    <t>BC_018</t>
+  </si>
+  <si>
+    <t>BC_019</t>
+  </si>
+  <si>
+    <t>BC_020</t>
+  </si>
+  <si>
+    <t>BC_021</t>
+  </si>
+  <si>
+    <t>BC_023</t>
+  </si>
+  <si>
+    <t>BC_025</t>
+  </si>
+  <si>
+    <t>BC_026</t>
+  </si>
+  <si>
+    <t>BC_027</t>
+  </si>
+  <si>
+    <t>BC_029</t>
+  </si>
+  <si>
+    <t>BC_030</t>
+  </si>
+  <si>
+    <t>BC_031</t>
+  </si>
+  <si>
+    <t>BC_032</t>
+  </si>
+  <si>
+    <t>BC_033</t>
+  </si>
+  <si>
+    <t>BC_034</t>
+  </si>
+  <si>
+    <t>BC_035</t>
+  </si>
+  <si>
+    <t>BC_036</t>
+  </si>
+  <si>
+    <t>BC_037</t>
+  </si>
+  <si>
+    <t>BC_038</t>
+  </si>
+  <si>
+    <t>BC_039</t>
+  </si>
+  <si>
+    <t>BC_041</t>
+  </si>
+  <si>
+    <t>BC_042</t>
+  </si>
+  <si>
+    <t>BC_043</t>
+  </si>
+  <si>
+    <t>BC_044</t>
+  </si>
+  <si>
+    <t>BC_045</t>
+  </si>
+  <si>
+    <t>BC_046</t>
+  </si>
+  <si>
+    <t>BC_047</t>
+  </si>
+  <si>
+    <t>BC_048</t>
+  </si>
+  <si>
+    <t>BC_049</t>
+  </si>
+  <si>
+    <t>BC_050</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_R_002</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>lyapExp_x</t>
+  </si>
+  <si>
+    <t>lyapExp_y</t>
+  </si>
+  <si>
+    <t>lyapExp_z</t>
+  </si>
+  <si>
+    <t>lyapExp_res</t>
+  </si>
+  <si>
+    <t>sampen_x</t>
+  </si>
+  <si>
+    <t>sampen_y</t>
+  </si>
+  <si>
+    <t>sampen_z</t>
+  </si>
+  <si>
+    <t>sampen_res</t>
+  </si>
+  <si>
+    <t>avg_movement_time</t>
+  </si>
+  <si>
+    <t>var_movement_time</t>
+  </si>
+  <si>
+    <t>reg_x</t>
+  </si>
+  <si>
+    <t>reg_y</t>
+  </si>
+  <si>
+    <t>reg_z</t>
+  </si>
+  <si>
+    <t>reg_res</t>
+  </si>
+  <si>
+    <t>rms_x</t>
+  </si>
+  <si>
+    <t>rms_y</t>
+  </si>
+  <si>
+    <t>rms_z</t>
+  </si>
+  <si>
+    <t>rms_res</t>
+  </si>
+  <si>
+    <t>rmsr_x</t>
+  </si>
+  <si>
+    <t>rmsr_y</t>
+  </si>
+  <si>
+    <t>rmsr_z</t>
+  </si>
+  <si>
+    <t>LDLJ_A</t>
+  </si>
+  <si>
+    <t>ppID</t>
+  </si>
+  <si>
+    <t>BC_011</t>
+  </si>
+  <si>
+    <t>BC_012</t>
+  </si>
+  <si>
+    <t>BC_013</t>
+  </si>
+  <si>
+    <t>BC_014</t>
+  </si>
+  <si>
+    <t>BC_015</t>
+  </si>
+  <si>
+    <t>BC_016</t>
+  </si>
+  <si>
+    <t>BC_017</t>
+  </si>
+  <si>
+    <t>BC_018</t>
+  </si>
+  <si>
+    <t>BC_019</t>
+  </si>
+  <si>
+    <t>BC_020</t>
+  </si>
+  <si>
+    <t>BC_022</t>
+  </si>
+  <si>
+    <t>BC_023</t>
+  </si>
+  <si>
+    <t>BC_026</t>
+  </si>
+  <si>
+    <t>BC_027</t>
+  </si>
+  <si>
+    <t>BC_028</t>
+  </si>
+  <si>
+    <t>BC_029</t>
+  </si>
+  <si>
+    <t>BC_031</t>
+  </si>
+  <si>
+    <t>BC_032</t>
+  </si>
+  <si>
+    <t>BC_033</t>
+  </si>
+  <si>
+    <t>BC_034</t>
+  </si>
+  <si>
+    <t>BC_035</t>
+  </si>
+  <si>
+    <t>BC_036</t>
+  </si>
+  <si>
+    <t>BC_037</t>
+  </si>
+  <si>
+    <t>BC_038</t>
+  </si>
+  <si>
+    <t>BC_039</t>
+  </si>
+  <si>
+    <t>BC_040</t>
+  </si>
+  <si>
+    <t>BC_041</t>
+  </si>
+  <si>
+    <t>BC_042</t>
+  </si>
+  <si>
+    <t>BC_043</t>
+  </si>
+  <si>
+    <t>BC_044</t>
+  </si>
+  <si>
+    <t>BC_045</t>
+  </si>
+  <si>
+    <t>BC_046</t>
+  </si>
+  <si>
+    <t>BC_047</t>
+  </si>
+  <si>
+    <t>BC_048</t>
+  </si>
+  <si>
+    <t>BC_049</t>
+  </si>
+  <si>
+    <t>BC_050</t>
+  </si>
+  <si>
+    <t>trial</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>F_R_001</t>
+  </si>
+  <si>
+    <t>F_L_001</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>lyapExp_x</t>
+  </si>
+  <si>
+    <t>lyapExp_y</t>
+  </si>
+  <si>
+    <t>lyapExp_z</t>
+  </si>
+  <si>
+    <t>lyapExp_res</t>
+  </si>
+  <si>
+    <t>sampen_x</t>
+  </si>
+  <si>
+    <t>sampen_y</t>
+  </si>
+  <si>
+    <t>sampen_z</t>
+  </si>
+  <si>
+    <t>sampen_res</t>
+  </si>
+  <si>
+    <t>avg_movement_time</t>
+  </si>
+  <si>
+    <t>var_movement_time</t>
+  </si>
+  <si>
+    <t>reg_x</t>
+  </si>
+  <si>
+    <t>reg_y</t>
+  </si>
+  <si>
+    <t>reg_z</t>
+  </si>
+  <si>
+    <t>reg_res</t>
+  </si>
+  <si>
+    <t>rms_x</t>
+  </si>
+  <si>
+    <t>rms_y</t>
+  </si>
+  <si>
+    <t>rms_z</t>
+  </si>
+  <si>
+    <t>rms_res</t>
+  </si>
+  <si>
+    <t>rmsr_x</t>
+  </si>
+  <si>
+    <t>rmsr_y</t>
+  </si>
+  <si>
+    <t>rmsr_z</t>
+  </si>
+  <si>
+    <t>LDLJ_A</t>
   </si>
 </sst>
 </file>
@@ -956,7 +1781,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -970,11 +1795,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -982,6 +1810,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,22 +1822,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y35"/>
+  <dimension ref="A1:Y37"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.37890625" customWidth="true"/>
     <col min="2" max="2" width="8.15625" customWidth="true"/>
-    <col min="3" max="3" width="3.15625" customWidth="true"/>
+    <col min="3" max="3" width="4.82421875" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="8" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="13.7109375" customWidth="true"/>
+    <col min="12" max="12" width="18.37890625" customWidth="true"/>
+    <col min="13" max="13" width="18.15625" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
@@ -1023,2477 +1854,2477 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>135</v>
+        <v>499</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>163</v>
+        <v>536</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>179</v>
+        <v>558</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>181</v>
+        <v>560</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>182</v>
+        <v>561</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>183</v>
+        <v>562</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>184</v>
+        <v>563</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>185</v>
+        <v>564</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>186</v>
+        <v>565</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>187</v>
+        <v>566</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>188</v>
+        <v>567</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>189</v>
+        <v>568</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>190</v>
+        <v>569</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>191</v>
+        <v>570</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>192</v>
+        <v>571</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>193</v>
+        <v>572</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>194</v>
+        <v>573</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>195</v>
+        <v>574</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>196</v>
+        <v>575</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>197</v>
+        <v>576</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>198</v>
+        <v>577</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>199</v>
+        <v>578</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>200</v>
+        <v>579</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>201</v>
+        <v>580</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>202</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>136</v>
+        <v>500</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>164</v>
+        <v>537</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D2" s="0">
-        <v>3.950177267615139</v>
+        <v>3.4050260626578241</v>
       </c>
       <c r="E2" s="0">
-        <v>1.560012276889176</v>
+        <v>2.1719511337286179</v>
       </c>
       <c r="F2" s="0">
-        <v>2.1220651450972046</v>
+        <v>3.7060324925785113</v>
       </c>
       <c r="G2" s="0">
-        <v>4.7864228304331142</v>
+        <v>4.9328790670744773</v>
       </c>
       <c r="H2" s="0">
-        <v>0.513645575611406</v>
+        <v>0.66905539087451416</v>
       </c>
       <c r="I2" s="0">
-        <v>1.1271172817354533</v>
+        <v>0.62589280253452118</v>
       </c>
       <c r="J2" s="0">
-        <v>0.4459919872478435</v>
+        <v>0.56290319034011138</v>
       </c>
       <c r="K2" s="0">
-        <v>0.61180608277574755</v>
+        <v>0.95103717063612159</v>
       </c>
       <c r="L2" s="0">
-        <v>2.2212121212121216</v>
+        <v>1.9538461538461538</v>
       </c>
       <c r="M2" s="0">
-        <v>0.13019022601368715</v>
+        <v>0.067410381575537304</v>
       </c>
       <c r="N2" s="0">
-        <v>0.71131507546834094</v>
+        <v>0.8023710437126802</v>
       </c>
       <c r="O2" s="0">
-        <v>0.47491846543578947</v>
+        <v>0.80599800690697565</v>
       </c>
       <c r="P2" s="0">
-        <v>0.70853075086613027</v>
+        <v>0.82856599881112114</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.69258608066718685</v>
+        <v>0.61596077358061196</v>
       </c>
       <c r="R2" s="0">
-        <v>2.7498095276518524</v>
+        <v>2.1633710833412061</v>
       </c>
       <c r="S2" s="0">
-        <v>0.71959015121777481</v>
+        <v>2.7731206157703152</v>
       </c>
       <c r="T2" s="0">
-        <v>3.7065531041770137</v>
+        <v>2.9119871999594409</v>
       </c>
       <c r="U2" s="0">
-        <v>4.9272588295791406</v>
+        <v>4.8616250906359673</v>
       </c>
       <c r="V2" s="0">
-        <v>0.58870422243316201</v>
+        <v>0.47378090692855324</v>
       </c>
       <c r="W2" s="0">
-        <v>0.15405640142827229</v>
+        <v>0.60731679852758191</v>
       </c>
       <c r="X2" s="0">
-        <v>0.7935325851332995</v>
+        <v>0.63772874990560513</v>
       </c>
       <c r="Y2" s="0">
-        <v>-6.5390928602788847</v>
+        <v>-6.4832062764718321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>137</v>
+        <v>501</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>165</v>
+        <v>538</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D3" s="0">
-        <v>3.7880044777491153</v>
+        <v>2.713224734041209</v>
       </c>
       <c r="E3" s="0">
-        <v>2.3150567388930674</v>
+        <v>3.1032058301269263</v>
       </c>
       <c r="F3" s="0">
-        <v>4.2330586124817478</v>
+        <v>2.8704628016268448</v>
       </c>
       <c r="G3" s="0">
-        <v>2.0886334866315748</v>
+        <v>3.4731171929434645</v>
       </c>
       <c r="H3" s="0">
-        <v>0.65576454349680635</v>
+        <v>1.017683517772173</v>
       </c>
       <c r="I3" s="0">
-        <v>0.85007525394192707</v>
+        <v>1.2434645214875817</v>
       </c>
       <c r="J3" s="0">
-        <v>0.58462959402146286</v>
+        <v>0.68922263970814146</v>
       </c>
       <c r="K3" s="0">
-        <v>0.89021815064855447</v>
+        <v>1.0235761682737423</v>
       </c>
       <c r="L3" s="0">
-        <v>2.1625000000000001</v>
+        <v>1.703846153846154</v>
       </c>
       <c r="M3" s="0">
-        <v>0.061597012258647152</v>
+        <v>0.096741792204684499</v>
       </c>
       <c r="N3" s="0">
-        <v>0.80728873071622043</v>
+        <v>0.63165742695712979</v>
       </c>
       <c r="O3" s="0">
-        <v>0.80164933068914201</v>
+        <v>0.51544120483046429</v>
       </c>
       <c r="P3" s="0">
-        <v>0.84295317415325832</v>
+        <v>0.77220282594046941</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.61461820806981204</v>
+        <v>0.48062714416740476</v>
       </c>
       <c r="R3" s="0">
-        <v>1.7323280619227583</v>
+        <v>2.5525068489132448</v>
       </c>
       <c r="S3" s="0">
-        <v>1.3303430345466014</v>
+        <v>1.7367600072253413</v>
       </c>
       <c r="T3" s="0">
-        <v>2.3428465264946134</v>
+        <v>3.7255159992900628</v>
       </c>
       <c r="U3" s="0">
-        <v>3.3736565217593664</v>
+        <v>5.0403807111669297</v>
       </c>
       <c r="V3" s="0">
-        <v>0.54083245713603989</v>
+        <v>0.52754078732549103</v>
       </c>
       <c r="W3" s="0">
-        <v>0.4153328160077655</v>
+        <v>0.35894585042824401</v>
       </c>
       <c r="X3" s="0">
-        <v>0.73143619356390432</v>
+        <v>0.76997311262689283</v>
       </c>
       <c r="Y3" s="0">
-        <v>-6.9039665546162317</v>
+        <v>-7.0677629347986874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>138</v>
+        <v>502</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>166</v>
+        <v>539</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D4" s="0">
-        <v>2.6326479244440453</v>
+        <v>5.8949967730450954</v>
       </c>
       <c r="E4" s="0">
-        <v>1.7216255420231557</v>
+        <v>2.4816062829325993</v>
       </c>
       <c r="F4" s="0">
-        <v>1.8075455068403652</v>
+        <v>3.4746442607064409</v>
       </c>
       <c r="G4" s="0">
-        <v>3.8486632747151579</v>
+        <v>2.9972412520234211</v>
       </c>
       <c r="H4" s="0">
-        <v>0.37419063609082776</v>
+        <v>1.263056085582656</v>
       </c>
       <c r="I4" s="0">
-        <v>1.0252527874351434</v>
+        <v>1.2137994130525367</v>
       </c>
       <c r="J4" s="0">
-        <v>0.40926966923920838</v>
+        <v>0.6674682505175662</v>
       </c>
       <c r="K4" s="0">
-        <v>0.585365370692155</v>
+        <v>1.2103634057865635</v>
       </c>
       <c r="L4" s="0">
-        <v>1.9416666666666667</v>
+        <v>2.6012820512820509</v>
       </c>
       <c r="M4" s="0">
-        <v>0.090313706914098402</v>
+        <v>0.25426560355462391</v>
       </c>
       <c r="N4" s="0">
-        <v>0.74834381938761818</v>
+        <v>0.37253404975592458</v>
       </c>
       <c r="O4" s="0">
-        <v>0.42779337414139446</v>
+        <v>0.3412320908651208</v>
       </c>
       <c r="P4" s="0">
-        <v>0.71549763391647692</v>
+        <v>0.47235481271423296</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.72529811002772182</v>
+        <v>0.23206225847054457</v>
       </c>
       <c r="R4" s="0">
-        <v>4.268185919347701</v>
+        <v>1.4081351419228265</v>
       </c>
       <c r="S4" s="0">
-        <v>0.99563361592827815</v>
+        <v>1.1442676504993909</v>
       </c>
       <c r="T4" s="0">
-        <v>5.8571496681139452</v>
+        <v>2.0833612601611309</v>
       </c>
       <c r="U4" s="0">
-        <v>7.615111077750937</v>
+        <v>2.915511164666297</v>
       </c>
       <c r="V4" s="0">
-        <v>0.58345312644599878</v>
+        <v>0.50969274331930192</v>
       </c>
       <c r="W4" s="0">
-        <v>0.13610127510492032</v>
+        <v>0.41418248896065879</v>
       </c>
       <c r="X4" s="0">
-        <v>0.80066153407991569</v>
+        <v>0.75409957780521131</v>
       </c>
       <c r="Y4" s="0">
-        <v>-6.3566843319296362</v>
+        <v>-8.265346158944018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>139</v>
+        <v>503</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>166</v>
+        <v>540</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D5" s="0">
-        <v>4.3407651788144372</v>
+        <v>3.4010999791770131</v>
       </c>
       <c r="E5" s="0">
-        <v>2.5620387038994097</v>
+        <v>1.2542907228751654</v>
       </c>
       <c r="F5" s="0">
-        <v>3.8956594395321464</v>
+        <v>2.4222045500103113</v>
       </c>
       <c r="G5" s="0">
-        <v>5.8797160248649716</v>
+        <v>2.7415678318352654</v>
       </c>
       <c r="H5" s="0">
-        <v>0.87354920250519896</v>
+        <v>0.81136968011386867</v>
       </c>
       <c r="I5" s="0">
-        <v>0.84519256459178249</v>
+        <v>0.72067576093960162</v>
       </c>
       <c r="J5" s="0">
-        <v>0.48834387043006267</v>
+        <v>0.43727842244643406</v>
       </c>
       <c r="K5" s="0">
-        <v>0.85059192732215538</v>
+        <v>0.8193756590874689</v>
       </c>
       <c r="L5" s="0">
-        <v>2.1819444444444449</v>
+        <v>1.7076923076923074</v>
       </c>
       <c r="M5" s="0">
-        <v>0.19507293809867934</v>
+        <v>0.078355606944245759</v>
       </c>
       <c r="N5" s="0">
-        <v>0.34466113920976382</v>
+        <v>0.72211767978701447</v>
       </c>
       <c r="O5" s="0">
-        <v>0.46478161506570687</v>
+        <v>0.75536373197408058</v>
       </c>
       <c r="P5" s="0">
-        <v>0.44139862526724666</v>
+        <v>0.8007320741231102</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.31689051178387428</v>
+        <v>0.65351663211724997</v>
       </c>
       <c r="R5" s="0">
-        <v>1.5069374153376851</v>
+        <v>2.5707651893178172</v>
       </c>
       <c r="S5" s="0">
-        <v>1.2797668435858447</v>
+        <v>2.507814115166223</v>
       </c>
       <c r="T5" s="0">
-        <v>3.0305885908675667</v>
+        <v>4.1058368226326678</v>
       </c>
       <c r="U5" s="0">
-        <v>3.872475585264604</v>
+        <v>5.6980950872567027</v>
       </c>
       <c r="V5" s="0">
-        <v>0.41646016178356721</v>
+        <v>0.47127689413737389</v>
       </c>
       <c r="W5" s="0">
-        <v>0.35367885971931617</v>
+        <v>0.45973659989655785</v>
       </c>
       <c r="X5" s="0">
-        <v>0.83753937091628661</v>
+        <v>0.75268874560988541</v>
       </c>
       <c r="Y5" s="0">
-        <v>-6.7753694942956617</v>
+        <v>-6.369986725869472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>140</v>
+        <v>504</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>166</v>
+        <v>540</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D6" s="0">
-        <v>2.5829431909678706</v>
+        <v>2.8879954034844002</v>
       </c>
       <c r="E6" s="0">
-        <v>1.9883389950296644</v>
+        <v>2.1064766874437271</v>
       </c>
       <c r="F6" s="0">
-        <v>2.0543001922981317</v>
+        <v>3.6885490920762263</v>
       </c>
       <c r="G6" s="0">
-        <v>5.5631002449503306</v>
+        <v>0.67443539495819083</v>
       </c>
       <c r="H6" s="0">
-        <v>0.87606531624934503</v>
+        <v>0.82086194319276007</v>
       </c>
       <c r="I6" s="0">
-        <v>1.1788457813003759</v>
+        <v>0.7616473147988343</v>
       </c>
       <c r="J6" s="0">
-        <v>0.4646160511633165</v>
+        <v>0.66757138576005748</v>
       </c>
       <c r="K6" s="0">
-        <v>0.90142636160343348</v>
+        <v>1.1108802917682108</v>
       </c>
       <c r="L6" s="0">
-        <v>2.3458333333333332</v>
+        <v>1.9153846153846152</v>
       </c>
       <c r="M6" s="0">
-        <v>0.20488047759855035</v>
+        <v>0.15417965988212426</v>
       </c>
       <c r="N6" s="0">
-        <v>0.4139160552912714</v>
+        <v>0.81714237794163491</v>
       </c>
       <c r="O6" s="0">
-        <v>0.33603374799694119</v>
+        <v>0.65719270964417986</v>
       </c>
       <c r="P6" s="0">
-        <v>0.42246544012617787</v>
+        <v>0.81476649782820298</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.35977183164305548</v>
+        <v>0.45482579469671092</v>
       </c>
       <c r="R6" s="0">
-        <v>1.9352721266753494</v>
+        <v>2.0324210720384643</v>
       </c>
       <c r="S6" s="0">
-        <v>1.1701912068730276</v>
+        <v>1.3820220844453528</v>
       </c>
       <c r="T6" s="0">
-        <v>3.4319856054677809</v>
+        <v>2.7044644000612412</v>
       </c>
       <c r="U6" s="0">
-        <v>4.3721062320242341</v>
+        <v>3.8524223775090545</v>
       </c>
       <c r="V6" s="0">
-        <v>0.47085448482781889</v>
+        <v>0.55615290738120393</v>
       </c>
       <c r="W6" s="0">
-        <v>0.28470919942861039</v>
+        <v>0.3781773427286963</v>
       </c>
       <c r="X6" s="0">
-        <v>0.83500702145446004</v>
+        <v>0.74005124218400997</v>
       </c>
       <c r="Y6" s="0">
-        <v>-7.4603320380031724</v>
+        <v>-6.6281676900356432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>505</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>166</v>
+        <v>541</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D7" s="0">
-        <v>2.6901710225861626</v>
+        <v>1.5024970040736167</v>
       </c>
       <c r="E7" s="0">
-        <v>1.6033360621498687</v>
+        <v>2.4870318135636884</v>
       </c>
       <c r="F7" s="0">
-        <v>4.2538870063110439</v>
+        <v>3.3764383291287543</v>
       </c>
       <c r="G7" s="0">
-        <v>3.3510813413432516</v>
+        <v>2.7438343148280873</v>
       </c>
       <c r="H7" s="0">
-        <v>0.72057906505023162</v>
+        <v>0.88976195428460392</v>
       </c>
       <c r="I7" s="0">
-        <v>0.95490152238482229</v>
+        <v>1.0037614218293474</v>
       </c>
       <c r="J7" s="0">
-        <v>0.61077970703033757</v>
+        <v>0.66444027998845778</v>
       </c>
       <c r="K7" s="0">
-        <v>0.89920153481078091</v>
+        <v>1.0107461047363695</v>
       </c>
       <c r="L7" s="0">
-        <v>2.1805555555555558</v>
+        <v>1.78974358974359</v>
       </c>
       <c r="M7" s="0">
-        <v>0.11587029785896782</v>
+        <v>0.05294059456321349</v>
       </c>
       <c r="N7" s="0">
-        <v>0.63072201942878092</v>
+        <v>0.72167743097585035</v>
       </c>
       <c r="O7" s="0">
-        <v>0.59189691851912418</v>
+        <v>0.79472399439280594</v>
       </c>
       <c r="P7" s="0">
-        <v>0.67403033543011415</v>
+        <v>0.82323560729022383</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.51797524759264491</v>
+        <v>0.6948728774576447</v>
       </c>
       <c r="R7" s="0">
-        <v>2.0317441762795014</v>
+        <v>1.9440017750706109</v>
       </c>
       <c r="S7" s="0">
-        <v>1.3676340003449363</v>
+        <v>2.206761999079168</v>
       </c>
       <c r="T7" s="0">
-        <v>2.6400004960888457</v>
+        <v>3.4109716118209858</v>
       </c>
       <c r="U7" s="0">
-        <v>3.8261363429712443</v>
+        <v>4.7719703288054856</v>
       </c>
       <c r="V7" s="0">
-        <v>0.56419906092173844</v>
+        <v>0.43164170792299578</v>
       </c>
       <c r="W7" s="0">
-        <v>0.37978099196141324</v>
+        <v>0.48998438709115799</v>
       </c>
       <c r="X7" s="0">
-        <v>0.73310696204567138</v>
+        <v>0.75736433530251579</v>
       </c>
       <c r="Y7" s="0">
-        <v>-7.1442019519585145</v>
+        <v>-6.9851511897376364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>142</v>
+        <v>506</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>166</v>
+        <v>541</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D8" s="0">
-        <v>2.8701101027465885</v>
+        <v>2.4401411389970722</v>
       </c>
       <c r="E8" s="0">
-        <v>1.7972143322624277</v>
+        <v>2.7465612926817049</v>
       </c>
       <c r="F8" s="0">
-        <v>1.369369402547584</v>
+        <v>2.607601354760662</v>
       </c>
       <c r="G8" s="0">
-        <v>1.8092775966065497</v>
+        <v>2.8278999879877471</v>
       </c>
       <c r="H8" s="0">
-        <v>0.70179525971009638</v>
+        <v>0.73811336683455775</v>
       </c>
       <c r="I8" s="0">
-        <v>0.83312747843399415</v>
+        <v>1.0651447140299335</v>
       </c>
       <c r="J8" s="0">
-        <v>0.44682428056925794</v>
+        <v>0.61927226902551147</v>
       </c>
       <c r="K8" s="0">
-        <v>0.70830152044517891</v>
+        <v>0.94310310388636687</v>
       </c>
       <c r="L8" s="0">
-        <v>1.854166666666667</v>
+        <v>1.7333333333333332</v>
       </c>
       <c r="M8" s="0">
-        <v>0.060771554350549727</v>
+        <v>0.029658550700086963</v>
       </c>
       <c r="N8" s="0">
-        <v>0.74181063744636189</v>
+        <v>0.85080863683184538</v>
       </c>
       <c r="O8" s="0">
-        <v>0.71227042647123084</v>
+        <v>0.74429029761364207</v>
       </c>
       <c r="P8" s="0">
-        <v>0.81141870662880089</v>
+        <v>0.86850102139500407</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.56984570511874899</v>
+        <v>0.64864111523083778</v>
       </c>
       <c r="R8" s="0">
-        <v>3.4111947394260964</v>
+        <v>2.7705590317031854</v>
       </c>
       <c r="S8" s="0">
-        <v>1.6754953495119087</v>
+        <v>1.7907172062345083</v>
       </c>
       <c r="T8" s="0">
-        <v>4.5293315106168812</v>
+        <v>3.9480450274885053</v>
       </c>
       <c r="U8" s="0">
-        <v>6.2444863851385142</v>
+        <v>5.4208205777602041</v>
       </c>
       <c r="V8" s="0">
-        <v>0.57694029906392363</v>
+        <v>0.53850866194485447</v>
       </c>
       <c r="W8" s="0">
-        <v>0.28337895132608176</v>
+        <v>0.34805853822871441</v>
       </c>
       <c r="X8" s="0">
-        <v>0.76605238806582965</v>
+        <v>0.76737453370336239</v>
       </c>
       <c r="Y8" s="0">
-        <v>-6.5882602269025412</v>
+        <v>-6.7042802422529695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>143</v>
+        <v>507</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>167</v>
+        <v>541</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D9" s="0">
-        <v>2.9319082555145077</v>
+        <v>3.2253256065815821</v>
       </c>
       <c r="E9" s="0">
-        <v>1.8978680218145336</v>
+        <v>1.2401979476585607</v>
       </c>
       <c r="F9" s="0">
-        <v>3.0670544146051033</v>
+        <v>3.0558446991835537</v>
       </c>
       <c r="G9" s="0">
-        <v>1.9032090196816376</v>
+        <v>4.7157378239402421</v>
       </c>
       <c r="H9" s="0">
-        <v>0.75502637118742533</v>
+        <v>0.7958574587153413</v>
       </c>
       <c r="I9" s="0">
-        <v>0.7391141776913922</v>
+        <v>1.0570467897960041</v>
       </c>
       <c r="J9" s="0">
-        <v>0.54497559411923091</v>
+        <v>0.5741338434003983</v>
       </c>
       <c r="K9" s="0">
-        <v>1.0382349135528708</v>
+        <v>0.97068161859439139</v>
       </c>
       <c r="L9" s="0">
-        <v>1.9069444444444443</v>
+        <v>1.7705128205128207</v>
       </c>
       <c r="M9" s="0">
-        <v>0.066461173192229689</v>
+        <v>0.13143683283479185</v>
       </c>
       <c r="N9" s="0">
-        <v>0.77812999144282824</v>
+        <v>0.82549884269039053</v>
       </c>
       <c r="O9" s="0">
-        <v>0.775123487055008</v>
+        <v>0.67354029643657021</v>
       </c>
       <c r="P9" s="0">
-        <v>0.84114459120576257</v>
+        <v>0.86208041713132644</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.60690774859229835</v>
+        <v>0.66331072543720171</v>
       </c>
       <c r="R9" s="0">
-        <v>1.8662747070688179</v>
+        <v>2.3441637252373178</v>
       </c>
       <c r="S9" s="0">
-        <v>1.9757540003189844</v>
+        <v>1.1707209763108797</v>
       </c>
       <c r="T9" s="0">
-        <v>3.4271963974163184</v>
+        <v>3.3391698973232922</v>
       </c>
       <c r="U9" s="0">
-        <v>4.6138108922853736</v>
+        <v>4.5009139077230103</v>
       </c>
       <c r="V9" s="0">
-        <v>0.42667031632196967</v>
+        <v>0.55228316712550196</v>
       </c>
       <c r="W9" s="0">
-        <v>0.45169962444302308</v>
+        <v>0.27582095979741139</v>
       </c>
       <c r="X9" s="0">
-        <v>0.78353040173801947</v>
+        <v>0.78670585446293684</v>
       </c>
       <c r="Y9" s="0">
-        <v>-6.4016875789448813</v>
+        <v>-6.5038661265959092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>144</v>
+        <v>508</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>167</v>
+        <v>542</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D10" s="0">
-        <v>3.1960222662904019</v>
+        <v>4.2403064339307486</v>
       </c>
       <c r="E10" s="0">
-        <v>1.7276680619967029</v>
+        <v>1.3464664719774537</v>
       </c>
       <c r="F10" s="0">
-        <v>2.2747508334918196</v>
+        <v>3.0538313497509604</v>
       </c>
       <c r="G10" s="0">
-        <v>3.0000924040900072</v>
+        <v>1.7724497507337023</v>
       </c>
       <c r="H10" s="0">
-        <v>0.89600308357631198</v>
+        <v>0.81474520940877027</v>
       </c>
       <c r="I10" s="0">
-        <v>0.6700843527350262</v>
+        <v>1.1194183605182535</v>
       </c>
       <c r="J10" s="0">
-        <v>0.57120109251063456</v>
+        <v>0.54017540271468123</v>
       </c>
       <c r="K10" s="0">
-        <v>0.98603718811088115</v>
+        <v>0.88832987966924648</v>
       </c>
       <c r="L10" s="0">
-        <v>1.6847222222222225</v>
+        <v>1.855128205128205</v>
       </c>
       <c r="M10" s="0">
-        <v>0.058369397221373895</v>
+        <v>0.070179866594441989</v>
       </c>
       <c r="N10" s="0">
-        <v>0.70855607144574106</v>
+        <v>0.74969771466224477</v>
       </c>
       <c r="O10" s="0">
-        <v>0.80768707465855261</v>
+        <v>0.59265130711221647</v>
       </c>
       <c r="P10" s="0">
-        <v>0.84743311420967005</v>
+        <v>0.79235393947789456</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.60061699120981948</v>
+        <v>0.57736423206086052</v>
       </c>
       <c r="R10" s="0">
-        <v>2.0398979558442631</v>
+        <v>2.6678352860836214</v>
       </c>
       <c r="S10" s="0">
-        <v>3.3784344195615494</v>
+        <v>1.3944232556449123</v>
       </c>
       <c r="T10" s="0">
-        <v>4.079939563902804</v>
+        <v>3.6538192279543402</v>
       </c>
       <c r="U10" s="0">
-        <v>6.0014134271773836</v>
+        <v>5.0081141331334287</v>
       </c>
       <c r="V10" s="0">
-        <v>0.35936811717127615</v>
+        <v>0.56353019507315005</v>
       </c>
       <c r="W10" s="0">
-        <v>0.59517762291299547</v>
+        <v>0.29454577400903453</v>
       </c>
       <c r="X10" s="0">
-        <v>0.71876154150344462</v>
+        <v>0.77180082032493091</v>
       </c>
       <c r="Y10" s="0">
-        <v>-6.3082003076253255</v>
+        <v>-6.975307665549634</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>145</v>
+        <v>509</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>167</v>
+        <v>543</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D11" s="0">
-        <v>3.4050260626578241</v>
+        <v>2.8854656967961074</v>
       </c>
       <c r="E11" s="0">
-        <v>2.1719511337286179</v>
+        <v>1.4694173392686596</v>
       </c>
       <c r="F11" s="0">
-        <v>3.7060324925785113</v>
+        <v>2.943632347666842</v>
       </c>
       <c r="G11" s="0">
-        <v>4.9328790670744773</v>
+        <v>1.7391863857388572</v>
       </c>
       <c r="H11" s="0">
-        <v>0.66905539087451416</v>
+        <v>0.96263958154920681</v>
       </c>
       <c r="I11" s="0">
-        <v>0.62589280253452118</v>
+        <v>0.6345421036591421</v>
       </c>
       <c r="J11" s="0">
-        <v>0.56290319034011138</v>
+        <v>0.57844497570803044</v>
       </c>
       <c r="K11" s="0">
-        <v>0.95103717063612159</v>
+        <v>1.019617045035236</v>
       </c>
       <c r="L11" s="0">
-        <v>1.9538461538461538</v>
+        <v>1.7884615384615385</v>
       </c>
       <c r="M11" s="0">
-        <v>0.067410381575537304</v>
+        <v>0.060623540602753274</v>
       </c>
       <c r="N11" s="0">
-        <v>0.8023710437126802</v>
+        <v>0.67537604721854583</v>
       </c>
       <c r="O11" s="0">
-        <v>0.80599800690697565</v>
+        <v>0.86221996463019079</v>
       </c>
       <c r="P11" s="0">
-        <v>0.82856599881112114</v>
+        <v>0.88668950012138992</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.61596077358061196</v>
+        <v>0.6081841781545787</v>
       </c>
       <c r="R11" s="0">
-        <v>2.1633710833412061</v>
+        <v>1.8631137918824696</v>
       </c>
       <c r="S11" s="0">
-        <v>2.7731206157703152</v>
+        <v>2.2852277123286449</v>
       </c>
       <c r="T11" s="0">
-        <v>2.9119871999594409</v>
+        <v>3.630125849965363</v>
       </c>
       <c r="U11" s="0">
-        <v>4.8616250906359673</v>
+        <v>5.044308200802389</v>
       </c>
       <c r="V11" s="0">
-        <v>0.47378090692855324</v>
+        <v>0.39838442951828512</v>
       </c>
       <c r="W11" s="0">
-        <v>0.60731679852758191</v>
+        <v>0.48864387267272907</v>
       </c>
       <c r="X11" s="0">
-        <v>0.63772874990560513</v>
+        <v>0.7762196931389902</v>
       </c>
       <c r="Y11" s="0">
-        <v>-6.4832062764718321</v>
+        <v>-6.4260756166014401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>146</v>
+        <v>510</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>168</v>
+        <v>544</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D12" s="0">
-        <v>2.713224734041209</v>
+        <v>2.7720739835538146</v>
       </c>
       <c r="E12" s="0">
-        <v>3.1032058301269263</v>
+        <v>1.3275452679501023</v>
       </c>
       <c r="F12" s="0">
-        <v>2.8704628016268448</v>
+        <v>3.4921917446437205</v>
       </c>
       <c r="G12" s="0">
-        <v>3.4731171929434645</v>
+        <v>0.54320036982638686</v>
       </c>
       <c r="H12" s="0">
-        <v>1.017683517772173</v>
+        <v>0.86587177940568949</v>
       </c>
       <c r="I12" s="0">
-        <v>1.2434645214875817</v>
+        <v>1.1234481991380698</v>
       </c>
       <c r="J12" s="0">
-        <v>0.68922263970814146</v>
+        <v>0.75682824556842954</v>
       </c>
       <c r="K12" s="0">
-        <v>1.0235761682737423</v>
+        <v>1.2691147443985273</v>
       </c>
       <c r="L12" s="0">
-        <v>1.703846153846154</v>
+        <v>1.8256410256410254</v>
       </c>
       <c r="M12" s="0">
-        <v>0.096741792204684499</v>
+        <v>0.058379102923217803</v>
       </c>
       <c r="N12" s="0">
-        <v>0.63165742695712979</v>
+        <v>0.85306187580538961</v>
       </c>
       <c r="O12" s="0">
-        <v>0.51544120483046429</v>
+        <v>0.68480850499899593</v>
       </c>
       <c r="P12" s="0">
-        <v>0.77220282594046941</v>
+        <v>0.84430937931322203</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.48062714416740476</v>
+        <v>0.49831486409356257</v>
       </c>
       <c r="R12" s="0">
-        <v>2.5525068489132448</v>
+        <v>2.6896946500124521</v>
       </c>
       <c r="S12" s="0">
-        <v>1.7367600072253413</v>
+        <v>1.6145297666388372</v>
       </c>
       <c r="T12" s="0">
-        <v>3.7255159992900628</v>
+        <v>3.2712693142707909</v>
       </c>
       <c r="U12" s="0">
-        <v>5.0403807111669297</v>
+        <v>4.7433617735727944</v>
       </c>
       <c r="V12" s="0">
-        <v>0.52754078732549103</v>
+        <v>0.59344126452099832</v>
       </c>
       <c r="W12" s="0">
-        <v>0.35894585042824401</v>
+        <v>0.356222066440333</v>
       </c>
       <c r="X12" s="0">
-        <v>0.76997311262689283</v>
+        <v>0.72175709552778033</v>
       </c>
       <c r="Y12" s="0">
-        <v>-7.0677629347986874</v>
+        <v>-6.973852120095879</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>147</v>
+        <v>511</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>169</v>
+        <v>545</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D13" s="0">
-        <v>5.8949967730450954</v>
+        <v>4.4635261646594397</v>
       </c>
       <c r="E13" s="0">
-        <v>2.4816062829325993</v>
+        <v>1.8048170252593752</v>
       </c>
       <c r="F13" s="0">
-        <v>3.4746442607064409</v>
+        <v>3.6343715333742255</v>
       </c>
       <c r="G13" s="0">
-        <v>2.9972412520234211</v>
+        <v>1.8109037178143002</v>
       </c>
       <c r="H13" s="0">
-        <v>1.263056085582656</v>
+        <v>0.77946964296080545</v>
       </c>
       <c r="I13" s="0">
-        <v>1.2137994130525367</v>
+        <v>0.74224344183429358</v>
       </c>
       <c r="J13" s="0">
-        <v>0.6674682505175662</v>
+        <v>0.59111541841456505</v>
       </c>
       <c r="K13" s="0">
-        <v>1.2103634057865635</v>
+        <v>0.96627403321081817</v>
       </c>
       <c r="L13" s="0">
-        <v>2.6012820512820509</v>
+        <v>1.9999999999999996</v>
       </c>
       <c r="M13" s="0">
-        <v>0.25426560355462391</v>
+        <v>0.089494464964372314</v>
       </c>
       <c r="N13" s="0">
-        <v>0.37253404975592458</v>
+        <v>0.64633520068070838</v>
       </c>
       <c r="O13" s="0">
-        <v>0.3412320908651208</v>
+        <v>0.74673189079993318</v>
       </c>
       <c r="P13" s="0">
-        <v>0.47235481271423296</v>
+        <v>0.76134355159735434</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.23206225847054457</v>
+        <v>0.45384931152670788</v>
       </c>
       <c r="R13" s="0">
-        <v>1.4081351419228265</v>
+        <v>1.8518973104840253</v>
       </c>
       <c r="S13" s="0">
-        <v>1.1442676504993909</v>
+        <v>1.9299712505910711</v>
       </c>
       <c r="T13" s="0">
-        <v>2.0833612601611309</v>
+        <v>3.19364979706853</v>
       </c>
       <c r="U13" s="0">
-        <v>2.915511164666297</v>
+        <v>4.4842162822525857</v>
       </c>
       <c r="V13" s="0">
-        <v>0.50969274331930192</v>
+        <v>0.44455009955167879</v>
       </c>
       <c r="W13" s="0">
-        <v>0.41418248896065879</v>
+        <v>0.46329183952316111</v>
       </c>
       <c r="X13" s="0">
-        <v>0.75409957780521131</v>
+        <v>0.76663934181584881</v>
       </c>
       <c r="Y13" s="0">
-        <v>-8.265346158944018</v>
+        <v>-6.7786475488015938</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>148</v>
+        <v>512</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>170</v>
+        <v>545</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D14" s="0">
-        <v>3.4010999791770131</v>
+        <v>2.0530162714333953</v>
       </c>
       <c r="E14" s="0">
-        <v>1.2542907228751654</v>
+        <v>1.3931505410197584</v>
       </c>
       <c r="F14" s="0">
-        <v>2.4222045500103113</v>
+        <v>3.7200810056825349</v>
       </c>
       <c r="G14" s="0">
-        <v>2.7415678318352654</v>
+        <v>0.51125812102903823</v>
       </c>
       <c r="H14" s="0">
-        <v>0.81136968011386867</v>
+        <v>1.0461673356732064</v>
       </c>
       <c r="I14" s="0">
-        <v>0.72067576093960162</v>
+        <v>1.0968235791032139</v>
       </c>
       <c r="J14" s="0">
-        <v>0.43727842244643406</v>
+        <v>0.83228859466414529</v>
       </c>
       <c r="K14" s="0">
-        <v>0.8193756590874689</v>
+        <v>1.3520526281115486</v>
       </c>
       <c r="L14" s="0">
-        <v>1.7076923076923074</v>
+        <v>1.7807692307692307</v>
       </c>
       <c r="M14" s="0">
-        <v>0.078355606944245759</v>
+        <v>0.13365346184535537</v>
       </c>
       <c r="N14" s="0">
-        <v>0.72211767978701447</v>
+        <v>0.6268175991275815</v>
       </c>
       <c r="O14" s="0">
-        <v>0.75536373197408058</v>
+        <v>0.39384907686068293</v>
       </c>
       <c r="P14" s="0">
-        <v>0.8007320741231102</v>
+        <v>0.67392539442425736</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.65351663211724997</v>
+        <v>0.18243959780579336</v>
       </c>
       <c r="R14" s="0">
-        <v>2.5707651893178172</v>
+        <v>1.9527996454355754</v>
       </c>
       <c r="S14" s="0">
-        <v>2.507814115166223</v>
+        <v>1.3865699767282291</v>
       </c>
       <c r="T14" s="0">
-        <v>4.1058368226326678</v>
+        <v>3.1670866786035963</v>
       </c>
       <c r="U14" s="0">
-        <v>5.6980950872567027</v>
+        <v>4.1471551832516784</v>
       </c>
       <c r="V14" s="0">
-        <v>0.47127689413737389</v>
+        <v>0.49180263980292138</v>
       </c>
       <c r="W14" s="0">
-        <v>0.45973659989655785</v>
+        <v>0.34920058308097202</v>
       </c>
       <c r="X14" s="0">
-        <v>0.75268874560988541</v>
+        <v>0.79761464145211569</v>
       </c>
       <c r="Y14" s="0">
-        <v>-6.369986725869472</v>
+        <v>-7.1811175503587785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>149</v>
+        <v>513</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>170</v>
+        <v>546</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D15" s="0">
-        <v>2.8879954034844002</v>
+        <v>3.3209884820559643</v>
       </c>
       <c r="E15" s="0">
-        <v>2.1064766874437271</v>
+        <v>1.1333331577621735</v>
       </c>
       <c r="F15" s="0">
-        <v>3.6885490920762263</v>
+        <v>1.5208252641925137</v>
       </c>
       <c r="G15" s="0">
-        <v>0.67443539495819083</v>
+        <v>3.8379062394795862</v>
       </c>
       <c r="H15" s="0">
-        <v>0.82086194319276007</v>
+        <v>0.60646898578095654</v>
       </c>
       <c r="I15" s="0">
-        <v>0.7616473147988343</v>
+        <v>1.0511672821771949</v>
       </c>
       <c r="J15" s="0">
-        <v>0.66757138576005748</v>
+        <v>0.49086055627695979</v>
       </c>
       <c r="K15" s="0">
-        <v>1.1108802917682108</v>
+        <v>0.72145083338107452</v>
       </c>
       <c r="L15" s="0">
-        <v>1.9153846153846152</v>
+        <v>1.8833333333333333</v>
       </c>
       <c r="M15" s="0">
-        <v>0.15417965988212426</v>
+        <v>0.10274023338281624</v>
       </c>
       <c r="N15" s="0">
-        <v>0.81714237794163491</v>
+        <v>0.787826713315671</v>
       </c>
       <c r="O15" s="0">
-        <v>0.65719270964417986</v>
+        <v>0.58702221937901033</v>
       </c>
       <c r="P15" s="0">
-        <v>0.81476649782820298</v>
+        <v>0.75176894204036016</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.45482579469671092</v>
+        <v>0.73540081661130252</v>
       </c>
       <c r="R15" s="0">
-        <v>2.0324210720384643</v>
+        <v>4.0485224846129269</v>
       </c>
       <c r="S15" s="0">
-        <v>1.3820220844453528</v>
+        <v>1.399887338631304</v>
       </c>
       <c r="T15" s="0">
-        <v>2.7044644000612412</v>
+        <v>4.8207730327405569</v>
       </c>
       <c r="U15" s="0">
-        <v>3.8524223775090545</v>
+        <v>6.7313283481812514</v>
       </c>
       <c r="V15" s="0">
-        <v>0.55615290738120393</v>
+        <v>0.62777168310946418</v>
       </c>
       <c r="W15" s="0">
-        <v>0.3781773427286963</v>
+        <v>0.21706922317370403</v>
       </c>
       <c r="X15" s="0">
-        <v>0.74005124218400997</v>
+        <v>0.747518338394902</v>
       </c>
       <c r="Y15" s="0">
-        <v>-6.6281676900356432</v>
+        <v>-6.7175902021743195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>150</v>
+        <v>514</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>171</v>
+        <v>547</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D16" s="0">
-        <v>1.5024970040736167</v>
+        <v>1.5965591573777402</v>
       </c>
       <c r="E16" s="0">
-        <v>2.4870318135636884</v>
+        <v>3.2302545151040918</v>
       </c>
       <c r="F16" s="0">
-        <v>3.3764383291287543</v>
+        <v>3.4264030619269712</v>
       </c>
       <c r="G16" s="0">
-        <v>2.7438343148280873</v>
+        <v>3.5872229141466541</v>
       </c>
       <c r="H16" s="0">
-        <v>0.88976195428460392</v>
+        <v>1.0322165973605493</v>
       </c>
       <c r="I16" s="0">
-        <v>1.0037614218293474</v>
+        <v>0.92834724150199055</v>
       </c>
       <c r="J16" s="0">
-        <v>0.66444027998845778</v>
+        <v>0.7122446796994103</v>
       </c>
       <c r="K16" s="0">
-        <v>1.0107461047363695</v>
+        <v>1.215230403612378</v>
       </c>
       <c r="L16" s="0">
-        <v>1.78974358974359</v>
+        <v>1.8641025641025639</v>
       </c>
       <c r="M16" s="0">
-        <v>0.05294059456321349</v>
+        <v>0.084394947256972261</v>
       </c>
       <c r="N16" s="0">
-        <v>0.72167743097585035</v>
+        <v>0.68977080534236435</v>
       </c>
       <c r="O16" s="0">
-        <v>0.79472399439280594</v>
+        <v>0.74543854612625815</v>
       </c>
       <c r="P16" s="0">
-        <v>0.82323560729022383</v>
+        <v>0.82425052281452438</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.6948728774576447</v>
+        <v>0.55362406282348575</v>
       </c>
       <c r="R16" s="0">
-        <v>1.9440017750706109</v>
+        <v>1.9613157469860809</v>
       </c>
       <c r="S16" s="0">
-        <v>2.206761999079168</v>
+        <v>2.4283929815250942</v>
       </c>
       <c r="T16" s="0">
-        <v>3.4109716118209858</v>
+        <v>3.5442208946711062</v>
       </c>
       <c r="U16" s="0">
-        <v>4.7719703288054856</v>
+        <v>5.083769087522132</v>
       </c>
       <c r="V16" s="0">
-        <v>0.43164170792299578</v>
+        <v>0.41528185731119832</v>
       </c>
       <c r="W16" s="0">
-        <v>0.48998438709115799</v>
+        <v>0.51417909084700597</v>
       </c>
       <c r="X16" s="0">
-        <v>0.75736433530251579</v>
+        <v>0.75044043169588615</v>
       </c>
       <c r="Y16" s="0">
-        <v>-6.9851511897376364</v>
+        <v>-6.8927014246844021</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>151</v>
+        <v>515</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>171</v>
+        <v>548</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D17" s="0">
-        <v>2.4401411389970722</v>
+        <v>3.5080752394826127</v>
       </c>
       <c r="E17" s="0">
-        <v>2.7465612926817049</v>
+        <v>0.84782842756740828</v>
       </c>
       <c r="F17" s="0">
-        <v>2.607601354760662</v>
+        <v>4.0473029363944422</v>
       </c>
       <c r="G17" s="0">
-        <v>2.8278999879877471</v>
+        <v>2.9878727477821059</v>
       </c>
       <c r="H17" s="0">
-        <v>0.73811336683455775</v>
+        <v>0.96607958120945325</v>
       </c>
       <c r="I17" s="0">
-        <v>1.0651447140299335</v>
+        <v>1.1162175221175485</v>
       </c>
       <c r="J17" s="0">
-        <v>0.61927226902551147</v>
+        <v>0.47473141969249188</v>
       </c>
       <c r="K17" s="0">
-        <v>0.94310310388636687</v>
+        <v>0.90371462166317218</v>
       </c>
       <c r="L17" s="0">
-        <v>1.7333333333333332</v>
+        <v>2.4294871794871797</v>
       </c>
       <c r="M17" s="0">
-        <v>0.029658550700086963</v>
+        <v>0.091326096163450651</v>
       </c>
       <c r="N17" s="0">
-        <v>0.85080863683184538</v>
+        <v>0.67683888771566192</v>
       </c>
       <c r="O17" s="0">
-        <v>0.74429029761364207</v>
+        <v>0.40269930471507276</v>
       </c>
       <c r="P17" s="0">
-        <v>0.86850102139500407</v>
+        <v>0.69116822527094024</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.64864111523083778</v>
+        <v>0.55714401024179372</v>
       </c>
       <c r="R17" s="0">
-        <v>2.7705590317031854</v>
+        <v>1.8800869203412227</v>
       </c>
       <c r="S17" s="0">
-        <v>1.7907172062345083</v>
+        <v>1.1785717908492408</v>
       </c>
       <c r="T17" s="0">
-        <v>3.9480450274885053</v>
+        <v>2.7715309634173395</v>
       </c>
       <c r="U17" s="0">
-        <v>5.4208205777602041</v>
+        <v>3.7385087502530618</v>
       </c>
       <c r="V17" s="0">
-        <v>0.53850866194485447</v>
+        <v>0.52954644130795381</v>
       </c>
       <c r="W17" s="0">
-        <v>0.34805853822871441</v>
+        <v>0.33195725735748755</v>
       </c>
       <c r="X17" s="0">
-        <v>0.76737453370336239</v>
+        <v>0.78063112017506497</v>
       </c>
       <c r="Y17" s="0">
-        <v>-6.7042802422529695</v>
+        <v>-8.0138459478885675</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>152</v>
+        <v>516</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>171</v>
+        <v>549</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D18" s="0">
-        <v>3.2253256065815821</v>
+        <v>1.7873588949914441</v>
       </c>
       <c r="E18" s="0">
-        <v>1.2401979476585607</v>
+        <v>1.7781263893989365</v>
       </c>
       <c r="F18" s="0">
-        <v>3.0558446991835537</v>
+        <v>3.3747405666106944</v>
       </c>
       <c r="G18" s="0">
-        <v>4.7157378239402421</v>
+        <v>3.9094961581200369</v>
       </c>
       <c r="H18" s="0">
-        <v>0.7958574587153413</v>
+        <v>0.67029422914498504</v>
       </c>
       <c r="I18" s="0">
-        <v>1.0570467897960041</v>
+        <v>1.1285083910711931</v>
       </c>
       <c r="J18" s="0">
-        <v>0.5741338434003983</v>
+        <v>0.65667760434854694</v>
       </c>
       <c r="K18" s="0">
-        <v>0.97068161859439139</v>
+        <v>1.1255229264439945</v>
       </c>
       <c r="L18" s="0">
-        <v>1.7705128205128207</v>
+        <v>2.1474358974358974</v>
       </c>
       <c r="M18" s="0">
-        <v>0.13143683283479185</v>
+        <v>0.09048382141201787</v>
       </c>
       <c r="N18" s="0">
-        <v>0.82549884269039053</v>
+        <v>0.85916924105944092</v>
       </c>
       <c r="O18" s="0">
-        <v>0.67354029643657021</v>
+        <v>0.67591907555697106</v>
       </c>
       <c r="P18" s="0">
-        <v>0.86208041713132644</v>
+        <v>0.8701073884434033</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.66331072543720171</v>
+        <v>0.48179578909222476</v>
       </c>
       <c r="R18" s="0">
-        <v>2.3441637252373178</v>
+        <v>2.3997099005164619</v>
       </c>
       <c r="S18" s="0">
-        <v>1.1707209763108797</v>
+        <v>1.1543892821883324</v>
       </c>
       <c r="T18" s="0">
-        <v>3.3391698973232922</v>
+        <v>2.3579630519377903</v>
       </c>
       <c r="U18" s="0">
-        <v>4.5009139077230103</v>
+        <v>3.8497600871888511</v>
       </c>
       <c r="V18" s="0">
-        <v>0.55228316712550196</v>
+        <v>0.67467198510738402</v>
       </c>
       <c r="W18" s="0">
-        <v>0.27582095979741139</v>
+        <v>0.32455344224444416</v>
       </c>
       <c r="X18" s="0">
-        <v>0.78670585446293684</v>
+        <v>0.66293497089725473</v>
       </c>
       <c r="Y18" s="0">
-        <v>-6.5038661265959092</v>
+        <v>-6.9329958885324254</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>153</v>
+        <v>517</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>172</v>
+        <v>549</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D19" s="0">
-        <v>4.2403064339307486</v>
+        <v>1.9114965952505631</v>
       </c>
       <c r="E19" s="0">
-        <v>1.3464664719774537</v>
+        <v>2.3451605191150282</v>
       </c>
       <c r="F19" s="0">
-        <v>3.0538313497509604</v>
+        <v>3.6682192023532179</v>
       </c>
       <c r="G19" s="0">
-        <v>1.7724497507337023</v>
+        <v>2.4172976705130438</v>
       </c>
       <c r="H19" s="0">
-        <v>0.81474520940877027</v>
+        <v>0.56968509485179319</v>
       </c>
       <c r="I19" s="0">
-        <v>1.1194183605182535</v>
+        <v>0.87773193067091881</v>
       </c>
       <c r="J19" s="0">
-        <v>0.54017540271468123</v>
+        <v>0.57659722752034837</v>
       </c>
       <c r="K19" s="0">
-        <v>0.88832987966924648</v>
+        <v>0.97506636332498708</v>
       </c>
       <c r="L19" s="0">
-        <v>1.855128205128205</v>
+        <v>1.7653846153846153</v>
       </c>
       <c r="M19" s="0">
-        <v>0.070179866594441989</v>
+        <v>0.16686953465339804</v>
       </c>
       <c r="N19" s="0">
-        <v>0.74969771466224477</v>
+        <v>0.8195679099998161</v>
       </c>
       <c r="O19" s="0">
-        <v>0.59265130711221647</v>
+        <v>0.64532096101802339</v>
       </c>
       <c r="P19" s="0">
-        <v>0.79235393947789456</v>
+        <v>0.78632667129870693</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.57736423206086052</v>
+        <v>0.61594143803954216</v>
       </c>
       <c r="R19" s="0">
-        <v>2.6678352860836214</v>
+        <v>2.9647128582008646</v>
       </c>
       <c r="S19" s="0">
-        <v>1.3944232556449123</v>
+        <v>1.4018606307055244</v>
       </c>
       <c r="T19" s="0">
-        <v>3.6538192279543402</v>
+        <v>3.5872833007347058</v>
       </c>
       <c r="U19" s="0">
-        <v>5.0081141331334287</v>
+        <v>5.2573415804702117</v>
       </c>
       <c r="V19" s="0">
-        <v>0.56353019507315005</v>
+        <v>0.6099749693364328</v>
       </c>
       <c r="W19" s="0">
-        <v>0.29454577400903453</v>
+        <v>0.28842587330614938</v>
       </c>
       <c r="X19" s="0">
-        <v>0.77180082032493091</v>
+        <v>0.73806575072320146</v>
       </c>
       <c r="Y19" s="0">
-        <v>-6.975307665549634</v>
+        <v>-6.2203660520249642</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>154</v>
+        <v>518</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>173</v>
+        <v>549</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D20" s="0">
-        <v>2.8854656967961074</v>
+        <v>1.5656299758476153</v>
       </c>
       <c r="E20" s="0">
-        <v>1.4694173392686596</v>
+        <v>1.8325611818443763</v>
       </c>
       <c r="F20" s="0">
-        <v>2.943632347666842</v>
+        <v>2.5944738617268865</v>
       </c>
       <c r="G20" s="0">
-        <v>1.7391863857388572</v>
+        <v>1.9459777328416843</v>
       </c>
       <c r="H20" s="0">
-        <v>0.96263958154920681</v>
+        <v>0.35795093907941217</v>
       </c>
       <c r="I20" s="0">
-        <v>0.6345421036591421</v>
+        <v>0.5678765345257033</v>
       </c>
       <c r="J20" s="0">
-        <v>0.57844497570803044</v>
+        <v>0.46497364669696906</v>
       </c>
       <c r="K20" s="0">
-        <v>1.019617045035236</v>
+        <v>0.69071201562098727</v>
       </c>
       <c r="L20" s="0">
-        <v>1.7884615384615385</v>
+        <v>1.7846153846153845</v>
       </c>
       <c r="M20" s="0">
-        <v>0.060623540602753274</v>
+        <v>0.23515770304020511</v>
       </c>
       <c r="N20" s="0">
-        <v>0.67537604721854583</v>
+        <v>0.81459645122470703</v>
       </c>
       <c r="O20" s="0">
-        <v>0.86221996463019079</v>
+        <v>0.73744019363253444</v>
       </c>
       <c r="P20" s="0">
-        <v>0.88668950012138992</v>
+        <v>0.79244188160197271</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.6081841781545787</v>
+        <v>0.66836647521496939</v>
       </c>
       <c r="R20" s="0">
-        <v>1.8631137918824696</v>
+        <v>2.3720105621383976</v>
       </c>
       <c r="S20" s="0">
-        <v>2.2852277123286449</v>
+        <v>2.5373651630308367</v>
       </c>
       <c r="T20" s="0">
-        <v>3.630125849965363</v>
+        <v>3.5506868445394004</v>
       </c>
       <c r="U20" s="0">
-        <v>5.044308200802389</v>
+        <v>5.3741277527547089</v>
       </c>
       <c r="V20" s="0">
-        <v>0.39838442951828512</v>
+        <v>0.47754483105346412</v>
       </c>
       <c r="W20" s="0">
-        <v>0.48864387267272907</v>
+        <v>0.51083483245881434</v>
       </c>
       <c r="X20" s="0">
-        <v>0.7762196931389902</v>
+        <v>0.7148417365269697</v>
       </c>
       <c r="Y20" s="0">
-        <v>-6.4260756166014401</v>
+        <v>-5.7518256019071856</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>155</v>
+        <v>519</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>174</v>
+        <v>549</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D21" s="0">
-        <v>2.4109880362533094</v>
+        <v>2.9409702000141138</v>
       </c>
       <c r="E21" s="0">
-        <v>2.0399468594485444</v>
+        <v>1.4505865052433691</v>
       </c>
       <c r="F21" s="0">
-        <v>2.2782987738355214</v>
+        <v>4.2478910048911853</v>
       </c>
       <c r="G21" s="0">
-        <v>1.9309187531583716</v>
+        <v>0.59225795175421547</v>
       </c>
       <c r="H21" s="0">
-        <v>1.0419007472769244</v>
+        <v>0.82726042549954448</v>
       </c>
       <c r="I21" s="0">
-        <v>0.88492270115425153</v>
+        <v>1.2147743946435663</v>
       </c>
       <c r="J21" s="0">
-        <v>0.54686254090722564</v>
+        <v>0.77216161431425057</v>
       </c>
       <c r="K21" s="0">
-        <v>1.0950834793579192</v>
+        <v>1.0911886830184372</v>
       </c>
       <c r="L21" s="0">
-        <v>1.5384615384615381</v>
+        <v>1.8948717948717948</v>
       </c>
       <c r="M21" s="0">
-        <v>0.074032217518923707</v>
+        <v>0.061382458958616715</v>
       </c>
       <c r="N21" s="0">
-        <v>0.6464370409392437</v>
+        <v>0.84232523518831515</v>
       </c>
       <c r="O21" s="0">
-        <v>0.52523123135112348</v>
+        <v>0.69853447699439941</v>
       </c>
       <c r="P21" s="0">
-        <v>0.7641950029095872</v>
+        <v>0.80970378894647432</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.41194123682342637</v>
+        <v>0.60276252036733191</v>
       </c>
       <c r="R21" s="0">
-        <v>2.6744019616053634</v>
+        <v>2.7740415708362334</v>
       </c>
       <c r="S21" s="0">
-        <v>2.4715572638971861</v>
+        <v>1.6581499886955815</v>
       </c>
       <c r="T21" s="0">
-        <v>4.7993208120441002</v>
+        <v>3.5775683293860649</v>
       </c>
       <c r="U21" s="0">
-        <v>6.3301096804865562</v>
+        <v>5.0588809607467216</v>
       </c>
       <c r="V21" s="0">
-        <v>0.44392158733204323</v>
+        <v>0.5753866007076387</v>
       </c>
       <c r="W21" s="0">
-        <v>0.41025157755742808</v>
+        <v>0.34393042104677407</v>
       </c>
       <c r="X21" s="0">
-        <v>0.79663496496967834</v>
+        <v>0.74205264314918851</v>
       </c>
       <c r="Y21" s="0">
-        <v>-6.5481981938868481</v>
+        <v>-7.0282742397235518</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>174</v>
+        <v>549</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D22" s="0">
-        <v>2.7720739835538146</v>
+        <v>1.8108347725087017</v>
       </c>
       <c r="E22" s="0">
-        <v>1.3275452679501023</v>
+        <v>1.3967026915973604</v>
       </c>
       <c r="F22" s="0">
-        <v>3.4921917446437205</v>
+        <v>4.4052882933139905</v>
       </c>
       <c r="G22" s="0">
-        <v>0.54320036982638686</v>
+        <v>0.65784084941766563</v>
       </c>
       <c r="H22" s="0">
-        <v>0.86587177940568949</v>
+        <v>0.87251882455418872</v>
       </c>
       <c r="I22" s="0">
-        <v>1.1234481991380698</v>
+        <v>1.2768966456649959</v>
       </c>
       <c r="J22" s="0">
-        <v>0.75682824556842954</v>
+        <v>0.67088265050928386</v>
       </c>
       <c r="K22" s="0">
-        <v>1.2691147443985273</v>
+        <v>1.0614249298161877</v>
       </c>
       <c r="L22" s="0">
-        <v>1.8256410256410254</v>
+        <v>1.8217948717948718</v>
       </c>
       <c r="M22" s="0">
-        <v>0.058379102923217803</v>
+        <v>0.11000517988322008</v>
       </c>
       <c r="N22" s="0">
-        <v>0.85306187580538961</v>
+        <v>0.65044846081481</v>
       </c>
       <c r="O22" s="0">
-        <v>0.68480850499899593</v>
+        <v>0.39412490894293528</v>
       </c>
       <c r="P22" s="0">
-        <v>0.84430937931322203</v>
+        <v>0.63131820159514174</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.49831486409356257</v>
+        <v>0.33606193826333325</v>
       </c>
       <c r="R22" s="0">
-        <v>2.6896946500124521</v>
+        <v>2.7121199962653644</v>
       </c>
       <c r="S22" s="0">
-        <v>1.6145297666388372</v>
+        <v>1.2381233491678036</v>
       </c>
       <c r="T22" s="0">
-        <v>3.2712693142707909</v>
+        <v>3.4416271538285641</v>
       </c>
       <c r="U22" s="0">
-        <v>4.7433617735727944</v>
+        <v>4.7755387602226422</v>
       </c>
       <c r="V22" s="0">
-        <v>0.59344126452099832</v>
+        <v>0.59562682329423433</v>
       </c>
       <c r="W22" s="0">
-        <v>0.356222066440333</v>
+        <v>0.27191255487468519</v>
       </c>
       <c r="X22" s="0">
-        <v>0.72175709552778033</v>
+        <v>0.75583877240714537</v>
       </c>
       <c r="Y22" s="0">
-        <v>-6.973852120095879</v>
+        <v>-6.9403364560443066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>157</v>
+        <v>521</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>175</v>
+        <v>550</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D23" s="0">
-        <v>4.4635261646594397</v>
+        <v>3.2298757034801495</v>
       </c>
       <c r="E23" s="0">
-        <v>1.8048170252593752</v>
+        <v>3.5158476201774036</v>
       </c>
       <c r="F23" s="0">
-        <v>3.6343715333742255</v>
+        <v>3.2562543400318504</v>
       </c>
       <c r="G23" s="0">
-        <v>1.8109037178143002</v>
+        <v>1.5542788923611013</v>
       </c>
       <c r="H23" s="0">
-        <v>0.77946964296080545</v>
+        <v>0.89907968868772037</v>
       </c>
       <c r="I23" s="0">
-        <v>0.74224344183429358</v>
+        <v>1.3896835269540766</v>
       </c>
       <c r="J23" s="0">
-        <v>0.59111541841456505</v>
+        <v>0.71646303095716646</v>
       </c>
       <c r="K23" s="0">
-        <v>0.96627403321081817</v>
+        <v>1.1485099576049709</v>
       </c>
       <c r="L23" s="0">
-        <v>1.9999999999999996</v>
+        <v>1.6525641025641025</v>
       </c>
       <c r="M23" s="0">
-        <v>0.089494464964372314</v>
+        <v>0.098799777385356544</v>
       </c>
       <c r="N23" s="0">
-        <v>0.64633520068070838</v>
+        <v>0.62021562623895243</v>
       </c>
       <c r="O23" s="0">
-        <v>0.74673189079993318</v>
+        <v>0.41315899728022737</v>
       </c>
       <c r="P23" s="0">
-        <v>0.76134355159735434</v>
+        <v>0.67496778966808013</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.45384931152670788</v>
+        <v>0.38833367473171687</v>
       </c>
       <c r="R23" s="0">
-        <v>1.8518973104840253</v>
+        <v>3.321904851444657</v>
       </c>
       <c r="S23" s="0">
-        <v>1.9299712505910711</v>
+        <v>1.6108536456594145</v>
       </c>
       <c r="T23" s="0">
-        <v>3.19364979706853</v>
+        <v>4.5901603682363898</v>
       </c>
       <c r="U23" s="0">
-        <v>4.4842162822525857</v>
+        <v>6.1304626999602734</v>
       </c>
       <c r="V23" s="0">
-        <v>0.44455009955167879</v>
+        <v>0.56393071072189216</v>
       </c>
       <c r="W23" s="0">
-        <v>0.46329183952316111</v>
+        <v>0.27346052397334858</v>
       </c>
       <c r="X23" s="0">
-        <v>0.76663934181584881</v>
+        <v>0.77923134904399427</v>
       </c>
       <c r="Y23" s="0">
-        <v>-6.7786475488015938</v>
+        <v>-6.9055850395497202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>158</v>
+        <v>522</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>175</v>
+        <v>551</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D24" s="0">
-        <v>2.0530162714333953</v>
+        <v>2.2097863098412462</v>
       </c>
       <c r="E24" s="0">
-        <v>1.3931505410197584</v>
+        <v>2.0120955985887652</v>
       </c>
       <c r="F24" s="0">
-        <v>3.7200810056825349</v>
+        <v>3.3602448638013254</v>
       </c>
       <c r="G24" s="0">
-        <v>0.51125812102903823</v>
+        <v>0.64816155321454383</v>
       </c>
       <c r="H24" s="0">
-        <v>1.0461673356732064</v>
+        <v>0.98103860340076743</v>
       </c>
       <c r="I24" s="0">
-        <v>1.0968235791032139</v>
+        <v>0.93394052058481691</v>
       </c>
       <c r="J24" s="0">
-        <v>0.83228859466414529</v>
+        <v>0.850115831862851</v>
       </c>
       <c r="K24" s="0">
-        <v>1.3520526281115486</v>
+        <v>1.3837370578766046</v>
       </c>
       <c r="L24" s="0">
-        <v>1.7807692307692307</v>
+        <v>1.8769230769230771</v>
       </c>
       <c r="M24" s="0">
-        <v>0.13365346184535537</v>
+        <v>0.11273914120709792</v>
       </c>
       <c r="N24" s="0">
-        <v>0.6268175991275815</v>
+        <v>0.73032635402465718</v>
       </c>
       <c r="O24" s="0">
-        <v>0.39384907686068293</v>
+        <v>0.6110992584417877</v>
       </c>
       <c r="P24" s="0">
-        <v>0.67392539442425736</v>
+        <v>0.77481218940326801</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.18243959780579336</v>
+        <v>0.34617360829385069</v>
       </c>
       <c r="R24" s="0">
-        <v>1.9527996454355754</v>
+        <v>2.3218661889580225</v>
       </c>
       <c r="S24" s="0">
-        <v>1.3865699767282291</v>
+        <v>1.8087331682499781</v>
       </c>
       <c r="T24" s="0">
-        <v>3.1670866786035963</v>
+        <v>3.2036015578516452</v>
       </c>
       <c r="U24" s="0">
-        <v>4.1471551832516784</v>
+        <v>4.6103315677043089</v>
       </c>
       <c r="V24" s="0">
-        <v>0.49180263980292138</v>
+        <v>0.5337180444041173</v>
       </c>
       <c r="W24" s="0">
-        <v>0.34920058308097202</v>
+        <v>0.41576622029216104</v>
       </c>
       <c r="X24" s="0">
-        <v>0.79761464145211569</v>
+        <v>0.73639900810729964</v>
       </c>
       <c r="Y24" s="0">
-        <v>-7.1811175503587785</v>
+        <v>-7.1576734613851531</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>159</v>
+        <v>523</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>176</v>
+        <v>551</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D25" s="0">
-        <v>3.3209884820559643</v>
+        <v>2.4111061800738907</v>
       </c>
       <c r="E25" s="0">
-        <v>1.1333331577621735</v>
+        <v>1.3361458002159394</v>
       </c>
       <c r="F25" s="0">
-        <v>1.5208252641925137</v>
+        <v>2.3314050765011061</v>
       </c>
       <c r="G25" s="0">
-        <v>3.8379062394795862</v>
+        <v>2.8620239991767846</v>
       </c>
       <c r="H25" s="0">
-        <v>0.60646898578095654</v>
+        <v>0.82959734022278109</v>
       </c>
       <c r="I25" s="0">
-        <v>1.0511672821771949</v>
+        <v>1.0697146446891463</v>
       </c>
       <c r="J25" s="0">
-        <v>0.49086055627695979</v>
+        <v>0.71931602030672093</v>
       </c>
       <c r="K25" s="0">
-        <v>0.72145083338107452</v>
+        <v>1.0983542850754173</v>
       </c>
       <c r="L25" s="0">
-        <v>1.8833333333333333</v>
+        <v>1.582051282051282</v>
       </c>
       <c r="M25" s="0">
-        <v>0.10274023338281624</v>
+        <v>0.061787246399753241</v>
       </c>
       <c r="N25" s="0">
-        <v>0.787826713315671</v>
+        <v>0.76039711371328556</v>
       </c>
       <c r="O25" s="0">
-        <v>0.58702221937901033</v>
+        <v>0.64167251008755211</v>
       </c>
       <c r="P25" s="0">
-        <v>0.75176894204036016</v>
+        <v>0.80407621501601245</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.73540081661130252</v>
+        <v>0.51238076103167951</v>
       </c>
       <c r="R25" s="0">
-        <v>4.0485224846129269</v>
+        <v>3.3755158996272412</v>
       </c>
       <c r="S25" s="0">
-        <v>1.399887338631304</v>
+        <v>2.5347367218286534</v>
       </c>
       <c r="T25" s="0">
-        <v>4.8207730327405569</v>
+        <v>4.9726134414106564</v>
       </c>
       <c r="U25" s="0">
-        <v>6.7313283481812514</v>
+        <v>6.7993147753735705</v>
       </c>
       <c r="V25" s="0">
-        <v>0.62777168310946418</v>
+        <v>0.51750123546022109</v>
       </c>
       <c r="W25" s="0">
-        <v>0.21706922317370403</v>
+        <v>0.38860115730978295</v>
       </c>
       <c r="X25" s="0">
-        <v>0.747518338394902</v>
+        <v>0.76235268205381301</v>
       </c>
       <c r="Y25" s="0">
-        <v>-6.7175902021743195</v>
+        <v>-6.7497603672837547</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>160</v>
+        <v>524</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>177</v>
+        <v>552</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D26" s="0">
-        <v>1.5965591573777402</v>
+        <v>2.6029283595674881</v>
       </c>
       <c r="E26" s="0">
-        <v>3.2302545151040918</v>
+        <v>3.3501451768453396</v>
       </c>
       <c r="F26" s="0">
-        <v>3.4264030619269712</v>
+        <v>0.94186622246635332</v>
       </c>
       <c r="G26" s="0">
-        <v>3.5872229141466541</v>
+        <v>0.63045490628150824</v>
       </c>
       <c r="H26" s="0">
-        <v>1.0322165973605493</v>
+        <v>1.0881384217413297</v>
       </c>
       <c r="I26" s="0">
-        <v>0.92834724150199055</v>
+        <v>1.398946937908282</v>
       </c>
       <c r="J26" s="0">
-        <v>0.7122446796994103</v>
+        <v>0.77117900189579369</v>
       </c>
       <c r="K26" s="0">
-        <v>1.215230403612378</v>
+        <v>1.1299426596365547</v>
       </c>
       <c r="L26" s="0">
-        <v>1.8641025641025639</v>
+        <v>1.7256410256410257</v>
       </c>
       <c r="M26" s="0">
-        <v>0.084394947256972261</v>
+        <v>0.074104338546761142</v>
       </c>
       <c r="N26" s="0">
-        <v>0.68977080534236435</v>
+        <v>0.72044853662427</v>
       </c>
       <c r="O26" s="0">
-        <v>0.74543854612625815</v>
+        <v>0.46744344254115144</v>
       </c>
       <c r="P26" s="0">
-        <v>0.82425052281452438</v>
+        <v>0.80387708498936938</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.55362406282348575</v>
+        <v>0.5990085906328374</v>
       </c>
       <c r="R26" s="0">
-        <v>1.9613157469860809</v>
+        <v>3.0448904197394469</v>
       </c>
       <c r="S26" s="0">
-        <v>2.4283929815250942</v>
+        <v>1.8382534479926091</v>
       </c>
       <c r="T26" s="0">
-        <v>3.5442208946711062</v>
+        <v>4.6268799075282896</v>
       </c>
       <c r="U26" s="0">
-        <v>5.083769087522132</v>
+        <v>6.083356859380646</v>
       </c>
       <c r="V26" s="0">
-        <v>0.41528185731119832</v>
+        <v>0.52174534572327214</v>
       </c>
       <c r="W26" s="0">
-        <v>0.51417909084700597</v>
+        <v>0.31498676423040922</v>
       </c>
       <c r="X26" s="0">
-        <v>0.75044043169588615</v>
+        <v>0.79282099655329497</v>
       </c>
       <c r="Y26" s="0">
-        <v>-6.8927014246844021</v>
+        <v>-7.4172817118760843</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>161</v>
+        <v>525</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>178</v>
+        <v>552</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D27" s="0">
-        <v>3.5080752394826127</v>
+        <v>3.4432783067471897</v>
       </c>
       <c r="E27" s="0">
-        <v>0.84782842756740828</v>
+        <v>1.5554366940860902</v>
       </c>
       <c r="F27" s="0">
-        <v>4.0473029363944422</v>
+        <v>4.2288707254177833</v>
       </c>
       <c r="G27" s="0">
-        <v>2.9878727477821059</v>
+        <v>0.82677663958660719</v>
       </c>
       <c r="H27" s="0">
-        <v>0.96607958120945325</v>
+        <v>1.0152486219064003</v>
       </c>
       <c r="I27" s="0">
-        <v>1.1162175221175485</v>
+        <v>1.2268581735480133</v>
       </c>
       <c r="J27" s="0">
-        <v>0.47473141969249188</v>
+        <v>0.58243235139037941</v>
       </c>
       <c r="K27" s="0">
-        <v>0.90371462166317218</v>
+        <v>1.0401478331286846</v>
       </c>
       <c r="L27" s="0">
-        <v>2.4294871794871797</v>
+        <v>2.1269230769230769</v>
       </c>
       <c r="M27" s="0">
-        <v>0.091326096163450651</v>
+        <v>0.15775309786511285</v>
       </c>
       <c r="N27" s="0">
-        <v>0.67683888771566192</v>
+        <v>0.55392067577961801</v>
       </c>
       <c r="O27" s="0">
-        <v>0.40269930471507276</v>
+        <v>0.45098483255821303</v>
       </c>
       <c r="P27" s="0">
-        <v>0.69116822527094024</v>
+        <v>0.61567819080488084</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.55714401024179372</v>
+        <v>0.3279601217274109</v>
       </c>
       <c r="R27" s="0">
-        <v>1.8800869203412227</v>
+        <v>2.0863952512891024</v>
       </c>
       <c r="S27" s="0">
-        <v>1.1785717908492408</v>
+        <v>1.3063318338406469</v>
       </c>
       <c r="T27" s="0">
-        <v>2.7715309634173395</v>
+        <v>3.1126773069823797</v>
       </c>
       <c r="U27" s="0">
-        <v>3.7385087502530618</v>
+        <v>4.2239571913773641</v>
       </c>
       <c r="V27" s="0">
-        <v>0.52954644130795381</v>
+        <v>0.52575042845979902</v>
       </c>
       <c r="W27" s="0">
-        <v>0.33195725735748755</v>
+        <v>0.32918236414123608</v>
       </c>
       <c r="X27" s="0">
-        <v>0.78063112017506497</v>
+        <v>0.78436309073841837</v>
       </c>
       <c r="Y27" s="0">
-        <v>-8.0138459478885675</v>
+        <v>-7.4362916338615319</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>162</v>
+        <v>526</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>178</v>
+        <v>552</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>180</v>
+        <v>559</v>
       </c>
       <c r="D28" s="0">
-        <v>0.72335700050594909</v>
+        <v>1.4215447955866085</v>
       </c>
       <c r="E28" s="0">
-        <v>0.82155213838447216</v>
+        <v>1.3523825015645046</v>
       </c>
       <c r="F28" s="0">
-        <v>2.6357160043961754</v>
+        <v>2.4802237779250396</v>
       </c>
       <c r="G28" s="0">
-        <v>1.9014573631978204</v>
+        <v>3.1834245933666936</v>
       </c>
       <c r="H28" s="0">
-        <v>0.50196798115676955</v>
+        <v>0.86840118062475469</v>
       </c>
       <c r="I28" s="0">
-        <v>0.71044495921056583</v>
+        <v>0.90389220692765559</v>
       </c>
       <c r="J28" s="0">
-        <v>0.43517658362643413</v>
+        <v>0.65514237905583894</v>
       </c>
       <c r="K28" s="0">
-        <v>0.78113837456778146</v>
+        <v>1.1341132123512669</v>
       </c>
       <c r="L28" s="0">
-        <v>1.1948717948717951</v>
+        <v>1.6256410256410254</v>
       </c>
       <c r="M28" s="0">
-        <v>0.061382458958616742</v>
+        <v>0.12183310241188493</v>
       </c>
       <c r="N28" s="0">
-        <v>0.86915743989661776</v>
+        <v>0.65299178045899542</v>
       </c>
       <c r="O28" s="0">
-        <v>0.85230545144416414</v>
+        <v>0.65167468997079037</v>
       </c>
       <c r="P28" s="0">
-        <v>0.93939920418256284</v>
+        <v>0.70705706052629602</v>
       </c>
       <c r="Q28" s="0">
-        <v>0.70555554743735693</v>
+        <v>0.33879877485625703</v>
       </c>
       <c r="R28" s="0">
-        <v>5.6441289934552801</v>
+        <v>2.9173606380528065</v>
       </c>
       <c r="S28" s="0">
-        <v>5.2749755270295129</v>
+        <v>3.0146379162434225</v>
       </c>
       <c r="T28" s="0">
-        <v>8.5608355301668624</v>
+        <v>4.7744084876270296</v>
       </c>
       <c r="U28" s="0">
-        <v>12.111967551117768</v>
+        <v>6.697817450755525</v>
       </c>
       <c r="V28" s="0">
-        <v>0.4894642444199136</v>
+        <v>0.45902002035642947</v>
       </c>
       <c r="W28" s="0">
-        <v>0.45745090405710503</v>
+        <v>0.47432571058644429</v>
       </c>
       <c r="X28" s="0">
-        <v>0.74240381451860848</v>
+        <v>0.75120951883522336</v>
       </c>
       <c r="Y28" s="0">
-        <v>-6.132743248144175</v>
+        <v>-6.6469376693780404</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>270</v>
+        <v>527</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>277</v>
+        <v>553</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>278</v>
+        <v>559</v>
       </c>
       <c r="D29" s="0">
-        <v>3.2298757034801495</v>
+        <v>3.0091853835715447</v>
       </c>
       <c r="E29" s="0">
-        <v>3.5158476201774036</v>
+        <v>1.4616886559278497</v>
       </c>
       <c r="F29" s="0">
-        <v>3.2562543400318504</v>
+        <v>2.7688893082892054</v>
       </c>
       <c r="G29" s="0">
-        <v>1.5542788923611013</v>
+        <v>4.3910995172800051</v>
       </c>
       <c r="H29" s="0">
-        <v>0.89907968868772037</v>
+        <v>0.92273349348486233</v>
       </c>
       <c r="I29" s="0">
-        <v>1.3896835269540766</v>
+        <v>0.81022950895512658</v>
       </c>
       <c r="J29" s="0">
-        <v>0.71646303095716646</v>
+        <v>0.62004572776094014</v>
       </c>
       <c r="K29" s="0">
-        <v>1.1485099576049709</v>
+        <v>1.1680069354123503</v>
       </c>
       <c r="L29" s="0">
-        <v>1.6525641025641025</v>
+        <v>1.8448717948717948</v>
       </c>
       <c r="M29" s="0">
-        <v>0.098799777385356544</v>
+        <v>0.072131764521543892</v>
       </c>
       <c r="N29" s="0">
-        <v>0.62021562623895243</v>
+        <v>0.78584108151824905</v>
       </c>
       <c r="O29" s="0">
-        <v>0.41315899728022737</v>
+        <v>0.80608163245294051</v>
       </c>
       <c r="P29" s="0">
-        <v>0.67496778966808013</v>
+        <v>0.85241254838800506</v>
       </c>
       <c r="Q29" s="0">
-        <v>0.38833367473171687</v>
+        <v>0.45994497898008135</v>
       </c>
       <c r="R29" s="0">
-        <v>3.321904851444657</v>
+        <v>2.1631925280381017</v>
       </c>
       <c r="S29" s="0">
-        <v>1.6108536456594145</v>
+        <v>2.6903466886965526</v>
       </c>
       <c r="T29" s="0">
-        <v>4.5901603682363898</v>
+        <v>3.7689426038657134</v>
       </c>
       <c r="U29" s="0">
-        <v>6.1304626999602734</v>
+        <v>5.4090769221189667</v>
       </c>
       <c r="V29" s="0">
-        <v>0.56393071072189216</v>
+        <v>0.42324272764050092</v>
       </c>
       <c r="W29" s="0">
-        <v>0.27346052397334858</v>
+        <v>0.52638387756231297</v>
       </c>
       <c r="X29" s="0">
-        <v>0.77923134904399427</v>
+        <v>0.7374182035601593</v>
       </c>
       <c r="Y29" s="0">
-        <v>-6.9055850395497202</v>
+        <v>-6.6875666062773238</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>271</v>
+        <v>528</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>277</v>
+        <v>553</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>278</v>
+        <v>559</v>
       </c>
       <c r="D30" s="0">
-        <v>2.6029283595674881</v>
+        <v>2.3135325316720956</v>
       </c>
       <c r="E30" s="0">
-        <v>3.3501451768453396</v>
+        <v>1.6865612606669804</v>
       </c>
       <c r="F30" s="0">
-        <v>0.94186622246635332</v>
+        <v>4.1262559794659808</v>
       </c>
       <c r="G30" s="0">
-        <v>0.63045490628150824</v>
+        <v>1.7790248611738315</v>
       </c>
       <c r="H30" s="0">
-        <v>1.0881384217413297</v>
+        <v>0.61472078131652375</v>
       </c>
       <c r="I30" s="0">
-        <v>1.398946937908282</v>
+        <v>0.96009968027823511</v>
       </c>
       <c r="J30" s="0">
-        <v>0.77117900189579369</v>
+        <v>0.62918749419419839</v>
       </c>
       <c r="K30" s="0">
-        <v>1.1299426596365547</v>
+        <v>0.86886674399936314</v>
       </c>
       <c r="L30" s="0">
-        <v>1.7256410256410257</v>
+        <v>1.7897435897435896</v>
       </c>
       <c r="M30" s="0">
-        <v>0.074104338546761142</v>
+        <v>0.039404397631565856</v>
       </c>
       <c r="N30" s="0">
-        <v>0.72044853662427</v>
+        <v>0.87076374590903316</v>
       </c>
       <c r="O30" s="0">
-        <v>0.46744344254115144</v>
+        <v>0.75397735417054734</v>
       </c>
       <c r="P30" s="0">
-        <v>0.80387708498936938</v>
+        <v>0.82438793322703885</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.5990085906328374</v>
+        <v>0.70934349291337839</v>
       </c>
       <c r="R30" s="0">
-        <v>3.0448904197394469</v>
+        <v>3.1380022256247861</v>
       </c>
       <c r="S30" s="0">
-        <v>1.8382534479926091</v>
+        <v>1.8322964184468755</v>
       </c>
       <c r="T30" s="0">
-        <v>4.6268799075282896</v>
+        <v>4.3356978247417395</v>
       </c>
       <c r="U30" s="0">
-        <v>6.083356859380646</v>
+        <v>6.0421863597310965</v>
       </c>
       <c r="V30" s="0">
-        <v>0.52174534572327214</v>
+        <v>0.55470274967072375</v>
       </c>
       <c r="W30" s="0">
-        <v>0.31498676423040922</v>
+        <v>0.32389392627723085</v>
       </c>
       <c r="X30" s="0">
-        <v>0.79282099655329497</v>
+        <v>0.76641867411256237</v>
       </c>
       <c r="Y30" s="0">
-        <v>-7.4172817118760843</v>
+        <v>-6.5587785876997158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>272</v>
+        <v>529</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>277</v>
+        <v>553</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>278</v>
+        <v>559</v>
       </c>
       <c r="D31" s="0">
-        <v>3.4432783067471897</v>
+        <v>1.8931225190297694</v>
       </c>
       <c r="E31" s="0">
-        <v>1.5554366940860902</v>
+        <v>1.7024381419117756</v>
       </c>
       <c r="F31" s="0">
-        <v>4.2288707254177833</v>
+        <v>3.7420309147134572</v>
       </c>
       <c r="G31" s="0">
-        <v>0.82677663958660719</v>
+        <v>3.6677702012625577</v>
       </c>
       <c r="H31" s="0">
-        <v>1.0152486219064003</v>
+        <v>0.69576939144106797</v>
       </c>
       <c r="I31" s="0">
-        <v>1.2268581735480133</v>
+        <v>0.50536478392927875</v>
       </c>
       <c r="J31" s="0">
-        <v>0.58243235139037941</v>
+        <v>0.50238892374185051</v>
       </c>
       <c r="K31" s="0">
-        <v>1.0401478331286846</v>
+        <v>0.59459635472480443</v>
       </c>
       <c r="L31" s="0">
-        <v>2.1269230769230769</v>
+        <v>1.7012820512820512</v>
       </c>
       <c r="M31" s="0">
-        <v>0.15775309786511285</v>
+        <v>0.11872422497300873</v>
       </c>
       <c r="N31" s="0">
-        <v>0.55392067577961801</v>
+        <v>0.61854121505289861</v>
       </c>
       <c r="O31" s="0">
-        <v>0.45098483255821303</v>
+        <v>0.6185499724703275</v>
       </c>
       <c r="P31" s="0">
-        <v>0.61567819080488084</v>
+        <v>0.68484541700883217</v>
       </c>
       <c r="Q31" s="0">
-        <v>0.3279601217274109</v>
+        <v>0.50990361578086985</v>
       </c>
       <c r="R31" s="0">
-        <v>2.0863952512891024</v>
+        <v>2.389603990754043</v>
       </c>
       <c r="S31" s="0">
-        <v>1.3063318338406469</v>
+        <v>3.4983565015573981</v>
       </c>
       <c r="T31" s="0">
-        <v>3.1126773069823797</v>
+        <v>4.1024374102323478</v>
       </c>
       <c r="U31" s="0">
-        <v>4.2239571913773641</v>
+        <v>6.2139289618441378</v>
       </c>
       <c r="V31" s="0">
-        <v>0.52575042845979902</v>
+        <v>0.40519984844266616</v>
       </c>
       <c r="W31" s="0">
-        <v>0.32918236414123608</v>
+        <v>0.59320855242720316</v>
       </c>
       <c r="X31" s="0">
-        <v>0.78436309073841837</v>
+        <v>0.69564121222744024</v>
       </c>
       <c r="Y31" s="0">
-        <v>-7.4362916338615319</v>
+        <v>-6.6381485527552071</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>273</v>
+        <v>530</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>277</v>
+        <v>553</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>278</v>
+        <v>559</v>
       </c>
       <c r="D32" s="0">
-        <v>1.4215447955866085</v>
+        <v>3.6137616082165747</v>
       </c>
       <c r="E32" s="0">
-        <v>1.3523825015645046</v>
+        <v>1.527924440281381</v>
       </c>
       <c r="F32" s="0">
-        <v>2.4802237779250396</v>
+        <v>4.3506660562342665</v>
       </c>
       <c r="G32" s="0">
-        <v>3.1834245933666936</v>
+        <v>1.9536245758856712</v>
       </c>
       <c r="H32" s="0">
-        <v>0.86840118062475469</v>
+        <v>1.0288262212928252</v>
       </c>
       <c r="I32" s="0">
-        <v>0.90389220692765559</v>
+        <v>1.0177139256590229</v>
       </c>
       <c r="J32" s="0">
-        <v>0.65514237905583894</v>
+        <v>0.74785819998415259</v>
       </c>
       <c r="K32" s="0">
-        <v>1.1341132123512669</v>
+        <v>1.2867372411277807</v>
       </c>
       <c r="L32" s="0">
-        <v>1.6256410256410254</v>
+        <v>1.9269230769230767</v>
       </c>
       <c r="M32" s="0">
-        <v>0.12183310241188493</v>
+        <v>0.068224324141455614</v>
       </c>
       <c r="N32" s="0">
-        <v>0.65299178045899542</v>
+        <v>0.60800153087494868</v>
       </c>
       <c r="O32" s="0">
-        <v>0.65167468997079037</v>
+        <v>0.68412397629982691</v>
       </c>
       <c r="P32" s="0">
-        <v>0.70705706052629602</v>
+        <v>0.77558296388271408</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.33879877485625703</v>
+        <v>0.29088929665055135</v>
       </c>
       <c r="R32" s="0">
-        <v>2.9173606380528065</v>
+        <v>2.82365730022086</v>
       </c>
       <c r="S32" s="0">
-        <v>3.0146379162434225</v>
+        <v>2.6735267238567046</v>
       </c>
       <c r="T32" s="0">
-        <v>4.7744084876270296</v>
+        <v>3.967427982824181</v>
       </c>
       <c r="U32" s="0">
-        <v>6.697817450755525</v>
+        <v>5.9114214173303417</v>
       </c>
       <c r="V32" s="0">
-        <v>0.45902002035642947</v>
+        <v>0.50828241636876859</v>
       </c>
       <c r="W32" s="0">
-        <v>0.47432571058644429</v>
+        <v>0.48125763113040415</v>
       </c>
       <c r="X32" s="0">
-        <v>0.75120951883522336</v>
+        <v>0.71417090229795677</v>
       </c>
       <c r="Y32" s="0">
-        <v>-6.6469376693780404</v>
+        <v>-7.4734065702189501</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>274</v>
+        <v>531</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>277</v>
+        <v>554</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>278</v>
+        <v>559</v>
       </c>
       <c r="D33" s="0">
         <v>5.3163688798485902</v>
@@ -3564,156 +4395,310 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>275</v>
+        <v>532</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>277</v>
+        <v>555</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>278</v>
+        <v>559</v>
       </c>
       <c r="D34" s="0">
-        <v>3.3011764975949687</v>
+        <v>3.8902692399708236</v>
       </c>
       <c r="E34" s="0">
-        <v>1.39897061946611</v>
+        <v>1.4054734396464656</v>
       </c>
       <c r="F34" s="0">
-        <v>3.0821144441402981</v>
+        <v>3.033256949460037</v>
       </c>
       <c r="G34" s="0">
-        <v>1.4888945354717691</v>
+        <v>1.1228160880012794</v>
       </c>
       <c r="H34" s="0">
-        <v>0.67717439404449786</v>
+        <v>0.98934704586536704</v>
       </c>
       <c r="I34" s="0">
-        <v>0.80776001612528769</v>
+        <v>0.92706137516358034</v>
       </c>
       <c r="J34" s="0">
-        <v>0.65636297361261087</v>
+        <v>0.92406220750365842</v>
       </c>
       <c r="K34" s="0">
-        <v>0.97517502435782399</v>
+        <v>1.3312956233209801</v>
       </c>
       <c r="L34" s="0">
         <v>1.6961538461538459</v>
       </c>
       <c r="M34" s="0">
-        <v>0.039177803472122914</v>
+        <v>0.10932322238009154</v>
       </c>
       <c r="N34" s="0">
-        <v>0.79061698208008335</v>
+        <v>0.67818652421113812</v>
       </c>
       <c r="O34" s="0">
-        <v>0.83773494686328553</v>
+        <v>0.678181985436212</v>
       </c>
       <c r="P34" s="0">
-        <v>0.85259683442691214</v>
+        <v>0.71377844480079666</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.54051092444221704</v>
+        <v>0.30103207871112753</v>
       </c>
       <c r="R34" s="0">
-        <v>2.6071767514133306</v>
+        <v>2.7437060001005413</v>
       </c>
       <c r="S34" s="0">
-        <v>2.752620796205004</v>
+        <v>2.1368339229747804</v>
       </c>
       <c r="T34" s="0">
-        <v>3.6702343699042075</v>
+        <v>3.8587535832694226</v>
       </c>
       <c r="U34" s="0">
-        <v>5.6094835486826469</v>
+        <v>5.4618450886772987</v>
       </c>
       <c r="V34" s="0">
-        <v>0.49408031188683338</v>
+        <v>0.52818336901090612</v>
       </c>
       <c r="W34" s="0">
-        <v>0.52164309180721935</v>
+        <v>0.41135607838895721</v>
       </c>
       <c r="X34" s="0">
-        <v>0.6955380149032937</v>
+        <v>0.74283814217684541</v>
       </c>
       <c r="Y34" s="0">
-        <v>-6.6797312881199415</v>
+        <v>-7.1702662079552359</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>276</v>
+        <v>533</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>277</v>
+        <v>556</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>278</v>
+        <v>559</v>
       </c>
       <c r="D35" s="0">
+        <v>3.3011764975949687</v>
+      </c>
+      <c r="E35" s="0">
+        <v>1.39897061946611</v>
+      </c>
+      <c r="F35" s="0">
+        <v>3.0821144441402981</v>
+      </c>
+      <c r="G35" s="0">
+        <v>1.4888945354717691</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0.67717439404449786</v>
+      </c>
+      <c r="I35" s="0">
+        <v>0.80776001612528769</v>
+      </c>
+      <c r="J35" s="0">
+        <v>0.65636297361261087</v>
+      </c>
+      <c r="K35" s="0">
+        <v>0.97517502435782399</v>
+      </c>
+      <c r="L35" s="0">
+        <v>1.6961538461538459</v>
+      </c>
+      <c r="M35" s="0">
+        <v>0.039177803472122914</v>
+      </c>
+      <c r="N35" s="0">
+        <v>0.79061698208008335</v>
+      </c>
+      <c r="O35" s="0">
+        <v>0.83773494686328553</v>
+      </c>
+      <c r="P35" s="0">
+        <v>0.85259683442691214</v>
+      </c>
+      <c r="Q35" s="0">
+        <v>0.54051092444221704</v>
+      </c>
+      <c r="R35" s="0">
+        <v>2.6071767514133306</v>
+      </c>
+      <c r="S35" s="0">
+        <v>2.752620796205004</v>
+      </c>
+      <c r="T35" s="0">
+        <v>3.6702343699042075</v>
+      </c>
+      <c r="U35" s="0">
+        <v>5.6094835486826469</v>
+      </c>
+      <c r="V35" s="0">
+        <v>0.49408031188683338</v>
+      </c>
+      <c r="W35" s="0">
+        <v>0.52164309180721935</v>
+      </c>
+      <c r="X35" s="0">
+        <v>0.6955380149032937</v>
+      </c>
+      <c r="Y35" s="0">
+        <v>-6.6797312881199415</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="D36" s="0">
         <v>3.4760151709871661</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E36" s="0">
         <v>1.2470976439020267</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F36" s="0">
         <v>4.2191085106093142</v>
       </c>
-      <c r="G35" s="0">
+      <c r="G36" s="0">
         <v>0.54998188687516347</v>
       </c>
-      <c r="H35" s="0">
+      <c r="H36" s="0">
         <v>0.89965910001584259</v>
       </c>
-      <c r="I35" s="0">
+      <c r="I36" s="0">
         <v>1.2218300066174603</v>
       </c>
-      <c r="J35" s="0">
+      <c r="J36" s="0">
         <v>0.77357478889004871</v>
       </c>
-      <c r="K35" s="0">
+      <c r="K36" s="0">
         <v>1.3606515914317987</v>
       </c>
-      <c r="L35" s="0">
+      <c r="L36" s="0">
         <v>1.9320512820512821</v>
       </c>
-      <c r="M35" s="0">
+      <c r="M36" s="0">
         <v>0.19501442710893668</v>
       </c>
-      <c r="N35" s="0">
+      <c r="N36" s="0">
         <v>0.72190190659185471</v>
       </c>
-      <c r="O35" s="0">
+      <c r="O36" s="0">
         <v>0.61979360779834014</v>
       </c>
-      <c r="P35" s="0">
+      <c r="P36" s="0">
         <v>0.71219984548272863</v>
       </c>
-      <c r="Q35" s="0">
+      <c r="Q36" s="0">
         <v>0.21950736183902828</v>
       </c>
-      <c r="R35" s="0">
+      <c r="R36" s="0">
         <v>1.7706463282411864</v>
       </c>
-      <c r="S35" s="0">
+      <c r="S36" s="0">
         <v>1.309631594400525</v>
       </c>
-      <c r="T35" s="0">
+      <c r="T36" s="0">
         <v>2.4615145577509834</v>
       </c>
-      <c r="U35" s="0">
+      <c r="U36" s="0">
         <v>3.4631594727704882</v>
       </c>
-      <c r="V35" s="0">
+      <c r="V36" s="0">
         <v>0.53608276276709577</v>
       </c>
-      <c r="W35" s="0">
+      <c r="W36" s="0">
         <v>0.39650545235122658</v>
       </c>
-      <c r="X35" s="0">
+      <c r="X36" s="0">
         <v>0.74525076163647552</v>
       </c>
-      <c r="Y35" s="0">
+      <c r="Y36" s="0">
         <v>-7.3213076453350983</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="D37" s="0">
+        <v>4.172626834499594</v>
+      </c>
+      <c r="E37" s="0">
+        <v>3.1498642210336287</v>
+      </c>
+      <c r="F37" s="0">
+        <v>4.4301588169101818</v>
+      </c>
+      <c r="G37" s="0">
+        <v>1.906625667046324</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.87377797361482923</v>
+      </c>
+      <c r="I37" s="0">
+        <v>1.0286261672033761</v>
+      </c>
+      <c r="J37" s="0">
+        <v>0.67723216154157484</v>
+      </c>
+      <c r="K37" s="0">
+        <v>1.0886475991490592</v>
+      </c>
+      <c r="L37" s="0">
+        <v>1.8410256410256411</v>
+      </c>
+      <c r="M37" s="0">
+        <v>0.070584656492709036</v>
+      </c>
+      <c r="N37" s="0">
+        <v>0.64291101958986407</v>
+      </c>
+      <c r="O37" s="0">
+        <v>0.5588233431774583</v>
+      </c>
+      <c r="P37" s="0">
+        <v>0.52611472358436684</v>
+      </c>
+      <c r="Q37" s="0">
+        <v>0.30021449862054278</v>
+      </c>
+      <c r="R37" s="0">
+        <v>2.5964529517556429</v>
+      </c>
+      <c r="S37" s="0">
+        <v>1.550890538867818</v>
+      </c>
+      <c r="T37" s="0">
+        <v>3.453854800305963</v>
+      </c>
+      <c r="U37" s="0">
+        <v>4.8435607352905521</v>
+      </c>
+      <c r="V37" s="0">
+        <v>0.56557077029399905</v>
+      </c>
+      <c r="W37" s="0">
+        <v>0.3378217795612482</v>
+      </c>
+      <c r="X37" s="0">
+        <v>0.75233380160878327</v>
+      </c>
+      <c r="Y37" s="0">
+        <v>-7.1058483195905486</v>
       </c>
     </row>
   </sheetData>
@@ -3722,12 +4707,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Y46"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.37890625" customWidth="true"/>
-    <col min="2" max="2" width="8.15625" customWidth="true"/>
-    <col min="3" max="3" width="3.15625" customWidth="true"/>
+    <col min="1" max="1" width="7.42578125" customWidth="true"/>
+    <col min="2" max="2" width="8.28515625" customWidth="true"/>
+    <col min="3" max="3" width="5.28515625" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="11.7109375" customWidth="true"/>
@@ -3736,108 +4721,108 @@
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="13.7109375" customWidth="true"/>
+    <col min="12" max="12" width="20" customWidth="true"/>
+    <col min="13" max="13" width="19.7109375" customWidth="true"/>
     <col min="14" max="14" width="12.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
     <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="12.7109375" customWidth="true"/>
-    <col min="18" max="18" width="11.7109375" customWidth="true"/>
-    <col min="19" max="19" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
     <col min="20" max="20" width="11.7109375" customWidth="true"/>
     <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="12.7109375" customWidth="true"/>
     <col min="23" max="23" width="12.7109375" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
-    <col min="25" max="25" width="12.37890625" customWidth="true"/>
+    <col min="25" max="25" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>203</v>
+        <v>404</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>246</v>
+        <v>475</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>248</v>
+        <v>477</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>249</v>
+        <v>478</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>250</v>
+        <v>479</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>251</v>
+        <v>480</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>252</v>
+        <v>481</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>253</v>
+        <v>482</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>254</v>
+        <v>483</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>255</v>
+        <v>484</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>256</v>
+        <v>485</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>258</v>
+        <v>487</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>259</v>
+        <v>488</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>260</v>
+        <v>489</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>261</v>
+        <v>490</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>262</v>
+        <v>491</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>263</v>
+        <v>492</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>264</v>
+        <v>493</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>265</v>
+        <v>494</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>266</v>
+        <v>495</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>267</v>
+        <v>496</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>268</v>
+        <v>497</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>269</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>204</v>
+        <v>405</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>231</v>
+        <v>451</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D2" s="0">
         <v>1.9628924713119185</v>
@@ -3908,13 +4893,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>205</v>
+        <v>406</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>232</v>
+        <v>452</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D3" s="0">
         <v>4.4396819474185509</v>
@@ -3985,37 +4970,37 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>206</v>
+        <v>407</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>233</v>
+        <v>453</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D4" s="0">
-        <v>2.2353611823543553</v>
+        <v>2.3672353844736005</v>
       </c>
       <c r="E4" s="0">
-        <v>1.3593121996330204</v>
+        <v>1.299063700532344</v>
       </c>
       <c r="F4" s="0">
-        <v>2.2781941969836681</v>
+        <v>2.2152380146578752</v>
       </c>
       <c r="G4" s="0">
-        <v>2.6199523395462108</v>
+        <v>2.5558977192739949</v>
       </c>
       <c r="H4" s="0">
-        <v>0.58986604550317856</v>
+        <v>0.61777571899590278</v>
       </c>
       <c r="I4" s="0">
-        <v>1.4902427868864552</v>
+        <v>1.5139465809307164</v>
       </c>
       <c r="J4" s="0">
-        <v>0.41035573505208123</v>
+        <v>0.42245366439744747</v>
       </c>
       <c r="K4" s="0">
-        <v>0.517863274685746</v>
+        <v>0.53702386789656198</v>
       </c>
       <c r="L4" s="0">
         <v>1.6615384615384614</v>
@@ -4024,37 +5009,37 @@
         <v>0.061382458958616735</v>
       </c>
       <c r="N4" s="0">
-        <v>0.73195650510443577</v>
+        <v>0.75539435218833573</v>
       </c>
       <c r="O4" s="0">
-        <v>0.77459012086400891</v>
+        <v>0.81176951551812515</v>
       </c>
       <c r="P4" s="0">
-        <v>0.84587508173203407</v>
+        <v>0.85497538510614801</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.66750816981383221</v>
+        <v>0.676095328564848</v>
       </c>
       <c r="R4" s="0">
-        <v>2.6980851181480618</v>
+        <v>2.7667850979983419</v>
       </c>
       <c r="S4" s="0">
-        <v>3.5563995665579733</v>
+        <v>3.5503639179531632</v>
       </c>
       <c r="T4" s="0">
-        <v>4.3746241565021498</v>
+        <v>4.3811343339491282</v>
       </c>
       <c r="U4" s="0">
-        <v>6.5757962850557332</v>
+        <v>6.6138342079419044</v>
       </c>
       <c r="V4" s="0">
-        <v>0.43167992862356352</v>
+        <v>0.44048085394931397</v>
       </c>
       <c r="W4" s="0">
-        <v>0.56900588521921125</v>
+        <v>0.5652290564750535</v>
       </c>
       <c r="X4" s="0">
-        <v>0.69991766787919907</v>
+        <v>0.69749030890787578</v>
       </c>
       <c r="Y4" s="0">
         <v>-6.7551888148419552</v>
@@ -4062,37 +5047,37 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>207</v>
+        <v>408</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>233</v>
+        <v>453</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D5" s="0">
-        <v>3.5391060998924071</v>
+        <v>3.4235355917274508</v>
       </c>
       <c r="E5" s="0">
-        <v>1.8084139408192177</v>
+        <v>1.8161854408557419</v>
       </c>
       <c r="F5" s="0">
-        <v>3.0966143497154128</v>
+        <v>2.8769587839553452</v>
       </c>
       <c r="G5" s="0">
-        <v>0.45789606919462239</v>
+        <v>0.45086790991086795</v>
       </c>
       <c r="H5" s="0">
-        <v>1.0977928427826478</v>
+        <v>1.1012400949560814</v>
       </c>
       <c r="I5" s="0">
-        <v>1.1896142876961961</v>
+        <v>1.1800749284652472</v>
       </c>
       <c r="J5" s="0">
-        <v>0.58401525749434335</v>
+        <v>0.57896076255211559</v>
       </c>
       <c r="K5" s="0">
-        <v>0.88255578775730392</v>
+        <v>0.87682921213372089</v>
       </c>
       <c r="L5" s="0">
         <v>1.8653846153846154</v>
@@ -4101,37 +5086,37 @@
         <v>0.095612435863426729</v>
       </c>
       <c r="N5" s="0">
-        <v>0.8049761848525665</v>
+        <v>0.81205675528785815</v>
       </c>
       <c r="O5" s="0">
-        <v>0.59249272951670684</v>
+        <v>0.63000539341052098</v>
       </c>
       <c r="P5" s="0">
-        <v>0.85215115388663698</v>
+        <v>0.86934187296652643</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.42712285450551146</v>
+        <v>0.44996537377618279</v>
       </c>
       <c r="R5" s="0">
-        <v>1.9286133290857013</v>
+        <v>1.9284199880323203</v>
       </c>
       <c r="S5" s="0">
-        <v>1.3297241315891526</v>
+        <v>1.3171268367698317</v>
       </c>
       <c r="T5" s="0">
-        <v>3.2945798784651172</v>
+        <v>3.2453326468197519</v>
       </c>
       <c r="U5" s="0">
-        <v>4.2477371494695246</v>
+        <v>4.1996320312045325</v>
       </c>
       <c r="V5" s="0">
-        <v>0.47708188888352798</v>
+        <v>0.48231891154004081</v>
       </c>
       <c r="W5" s="0">
-        <v>0.32893441667402878</v>
+        <v>0.32942781459095466</v>
       </c>
       <c r="X5" s="0">
-        <v>0.81498160766157246</v>
+        <v>0.81169315787719798</v>
       </c>
       <c r="Y5" s="0">
         <v>-6.6739451357852992</v>
@@ -4139,37 +5124,37 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>208</v>
+        <v>409</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>233</v>
+        <v>453</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D6" s="0">
-        <v>4.3454025497712285</v>
+        <v>4.1886274883445376</v>
       </c>
       <c r="E6" s="0">
-        <v>1.7332388036389501</v>
+        <v>1.9667913562345791</v>
       </c>
       <c r="F6" s="0">
-        <v>1.7194028203535006</v>
+        <v>1.6693410247117431</v>
       </c>
       <c r="G6" s="0">
-        <v>3.9529482448334643</v>
+        <v>2.9501263139086169</v>
       </c>
       <c r="H6" s="0">
-        <v>0.99657492939670234</v>
+        <v>1.0126071496484392</v>
       </c>
       <c r="I6" s="0">
-        <v>1.4561540209567732</v>
+        <v>1.4794255253111304</v>
       </c>
       <c r="J6" s="0">
-        <v>0.61643007095928193</v>
+        <v>0.61715589716870489</v>
       </c>
       <c r="K6" s="0">
-        <v>0.75003336351648342</v>
+        <v>0.75004934758328068</v>
       </c>
       <c r="L6" s="0">
         <v>2.2884615384615383</v>
@@ -4178,37 +5163,37 @@
         <v>0.23247706133204635</v>
       </c>
       <c r="N6" s="0">
-        <v>0.59260838897152857</v>
+        <v>0.5583102613833435</v>
       </c>
       <c r="O6" s="0">
-        <v>0.41365530631948805</v>
+        <v>0.38630542896325137</v>
       </c>
       <c r="P6" s="0">
-        <v>0.58575771585387082</v>
+        <v>0.54508934333372405</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.54310487632363846</v>
+        <v>0.54499302109464542</v>
       </c>
       <c r="R6" s="0">
-        <v>2.392200894401765</v>
+        <v>2.3941075904773021</v>
       </c>
       <c r="S6" s="0">
-        <v>1.2271597212487391</v>
+        <v>1.2268507922871636</v>
       </c>
       <c r="T6" s="0">
-        <v>3.3796969730346156</v>
+        <v>3.3197215088888545</v>
       </c>
       <c r="U6" s="0">
-        <v>4.63974748286173</v>
+        <v>4.5938009762504652</v>
       </c>
       <c r="V6" s="0">
-        <v>0.55392093347302496</v>
+        <v>0.56030361717413535</v>
       </c>
       <c r="W6" s="0">
-        <v>0.28415233014307045</v>
+        <v>0.28712533195486262</v>
       </c>
       <c r="X6" s="0">
-        <v>0.78257846426708955</v>
+        <v>0.77692914756198317</v>
       </c>
       <c r="Y6" s="0">
         <v>-7.3204703276432195</v>
@@ -4216,37 +5201,37 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>209</v>
+        <v>410</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>234</v>
+        <v>454</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D7" s="0">
-        <v>2.3467767951277168</v>
+        <v>2.2456781410766213</v>
       </c>
       <c r="E7" s="0">
-        <v>1.2277150506475267</v>
+        <v>1.3060012954027544</v>
       </c>
       <c r="F7" s="0">
-        <v>3.0715119658828911</v>
+        <v>3.0435656740193373</v>
       </c>
       <c r="G7" s="0">
-        <v>1.7253396532025078</v>
+        <v>1.6180425485437955</v>
       </c>
       <c r="H7" s="0">
-        <v>0.90246685025668216</v>
+        <v>0.88788388750398117</v>
       </c>
       <c r="I7" s="0">
-        <v>1.1018041790046929</v>
+        <v>1.1169104063879325</v>
       </c>
       <c r="J7" s="0">
-        <v>0.6622072899418463</v>
+        <v>0.66329267781060619</v>
       </c>
       <c r="K7" s="0">
-        <v>0.99316467686667576</v>
+        <v>1.0125000330038043</v>
       </c>
       <c r="L7" s="0">
         <v>1.7807692307692309</v>
@@ -4255,37 +5240,37 @@
         <v>0.059646393920272378</v>
       </c>
       <c r="N7" s="0">
-        <v>0.85360339797472662</v>
+        <v>0.85251668025959026</v>
       </c>
       <c r="O7" s="0">
-        <v>0.7337048603313947</v>
+        <v>0.72701153971158861</v>
       </c>
       <c r="P7" s="0">
-        <v>0.85744239005824507</v>
+        <v>0.86157691385466162</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.66370495079117486</v>
+        <v>0.67546774862957792</v>
       </c>
       <c r="R7" s="0">
-        <v>2.3811526212636909</v>
+        <v>2.3777433556403604</v>
       </c>
       <c r="S7" s="0">
-        <v>1.6118612959886227</v>
+        <v>1.5637990678781426</v>
       </c>
       <c r="T7" s="0">
-        <v>3.2006306409778857</v>
+        <v>3.2174985791888786</v>
       </c>
       <c r="U7" s="0">
-        <v>4.5410916454919175</v>
+        <v>4.5267041042343479</v>
       </c>
       <c r="V7" s="0">
-        <v>0.55342696254559953</v>
+        <v>0.55354124241033553</v>
       </c>
       <c r="W7" s="0">
-        <v>0.37462844385438115</v>
+        <v>0.36405412588368508</v>
       </c>
       <c r="X7" s="0">
-        <v>0.74388986159430637</v>
+        <v>0.74903717289456884</v>
       </c>
       <c r="Y7" s="0">
         <v>-6.5228846234763074</v>
@@ -4293,37 +5278,37 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>210</v>
+        <v>411</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>235</v>
+        <v>455</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D8" s="0">
-        <v>3.1706394414073129</v>
+        <v>2.5514368795686702</v>
       </c>
       <c r="E8" s="0">
-        <v>1.1679283857620315</v>
+        <v>1.0723775638534485</v>
       </c>
       <c r="F8" s="0">
-        <v>4.5261005769903981</v>
+        <v>4.1876793390459852</v>
       </c>
       <c r="G8" s="0">
-        <v>3.9636241828497774</v>
+        <v>3.705657443728271</v>
       </c>
       <c r="H8" s="0">
-        <v>0.87605707165371816</v>
+        <v>0.89044336294801518</v>
       </c>
       <c r="I8" s="0">
-        <v>1.0182472882685583</v>
+        <v>1.0175311592955458</v>
       </c>
       <c r="J8" s="0">
-        <v>0.53890367039444531</v>
+        <v>0.55280381810806367</v>
       </c>
       <c r="K8" s="0">
-        <v>0.66188702353434803</v>
+        <v>0.68555538139202887</v>
       </c>
       <c r="L8" s="0">
         <v>1.7653846153846153</v>
@@ -4332,37 +5317,37 @@
         <v>0.070205234340289233</v>
       </c>
       <c r="N8" s="0">
-        <v>0.76720635477676369</v>
+        <v>0.75642133730430161</v>
       </c>
       <c r="O8" s="0">
-        <v>0.73115330515579335</v>
+        <v>0.70257289563835945</v>
       </c>
       <c r="P8" s="0">
-        <v>0.78262131187457273</v>
+        <v>0.76214108152477911</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.78022353813181711</v>
+        <v>0.77602577759487246</v>
       </c>
       <c r="R8" s="0">
-        <v>4.1906097512551685</v>
+        <v>4.2205476733035177</v>
       </c>
       <c r="S8" s="0">
-        <v>2.1159749919620801</v>
+        <v>2.1063951663193841</v>
       </c>
       <c r="T8" s="0">
-        <v>4.8483487060018051</v>
+        <v>4.8740811631179684</v>
       </c>
       <c r="U8" s="0">
-        <v>7.0278846961131523</v>
+        <v>7.0662514755121064</v>
       </c>
       <c r="V8" s="0">
-        <v>0.62095002575071223</v>
+        <v>0.62224123218043104</v>
       </c>
       <c r="W8" s="0">
-        <v>0.31353783905866539</v>
+        <v>0.31054877831141148</v>
       </c>
       <c r="X8" s="0">
-        <v>0.71841150394367448</v>
+        <v>0.71859258642423296</v>
       </c>
       <c r="Y8" s="0">
         <v>-6.6201779240574155</v>
@@ -4370,37 +5355,37 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>211</v>
+        <v>412</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>236</v>
+        <v>456</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D9" s="0">
-        <v>3.1290473213570418</v>
+        <v>2.6799801160362486</v>
       </c>
       <c r="E9" s="0">
-        <v>1.656664205002067</v>
+        <v>1.5794906793020773</v>
       </c>
       <c r="F9" s="0">
-        <v>3.0478465528395917</v>
+        <v>2.8282488117103761</v>
       </c>
       <c r="G9" s="0">
-        <v>1.9010097571781985</v>
+        <v>0.62202704262004871</v>
       </c>
       <c r="H9" s="0">
-        <v>0.88267927272507996</v>
+        <v>0.89195711381926057</v>
       </c>
       <c r="I9" s="0">
-        <v>0.7805594099063401</v>
+        <v>0.77393377706224742</v>
       </c>
       <c r="J9" s="0">
-        <v>0.60664095941713536</v>
+        <v>0.6149137830022684</v>
       </c>
       <c r="K9" s="0">
-        <v>0.87513912977175934</v>
+        <v>0.89369130499230165</v>
       </c>
       <c r="L9" s="0">
         <v>1.8384615384615384</v>
@@ -4409,37 +5394,37 @@
         <v>0.0541707756495413</v>
       </c>
       <c r="N9" s="0">
-        <v>0.84560368515083828</v>
+        <v>0.84053533075139375</v>
       </c>
       <c r="O9" s="0">
-        <v>0.82651139686154096</v>
+        <v>0.8217071442532724</v>
       </c>
       <c r="P9" s="0">
-        <v>0.89398685499668273</v>
+        <v>0.892491418460166</v>
       </c>
       <c r="Q9" s="0">
-        <v>0.69940215577637443</v>
+        <v>0.66931063213816522</v>
       </c>
       <c r="R9" s="0">
-        <v>1.9892990075623183</v>
+        <v>1.9591437552238877</v>
       </c>
       <c r="S9" s="0">
-        <v>1.950869076504828</v>
+        <v>1.8456467522742559</v>
       </c>
       <c r="T9" s="0">
-        <v>3.5482083690514798</v>
+        <v>3.50403226078839</v>
       </c>
       <c r="U9" s="0">
-        <v>4.7257260303606872</v>
+        <v>4.6123935017916393</v>
       </c>
       <c r="V9" s="0">
-        <v>0.44094662977536464</v>
+        <v>0.4433984376800808</v>
       </c>
       <c r="W9" s="0">
-        <v>0.43242827807565459</v>
+        <v>0.41771150498050086</v>
       </c>
       <c r="X9" s="0">
-        <v>0.78649339095142556</v>
+        <v>0.79304156515896984</v>
       </c>
       <c r="Y9" s="0">
         <v>-6.3428623764787648</v>
@@ -4447,37 +5432,37 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>212</v>
+        <v>413</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>236</v>
+        <v>456</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D10" s="0">
-        <v>2.8598179765127414</v>
+        <v>2.7651315626664306</v>
       </c>
       <c r="E10" s="0">
-        <v>1.8901285169026534</v>
+        <v>1.7144622545769301</v>
       </c>
       <c r="F10" s="0">
-        <v>3.2596969483269502</v>
+        <v>3.0562709834457564</v>
       </c>
       <c r="G10" s="0">
-        <v>2.8714943168514528</v>
+        <v>3.4902140263963912</v>
       </c>
       <c r="H10" s="0">
-        <v>0.96733760798214496</v>
+        <v>1.0392422814185123</v>
       </c>
       <c r="I10" s="0">
-        <v>0.72968772597126097</v>
+        <v>0.74651733089840244</v>
       </c>
       <c r="J10" s="0">
-        <v>0.65390434314943913</v>
+        <v>0.68707309101216663</v>
       </c>
       <c r="K10" s="0">
-        <v>0.8667031021335645</v>
+        <v>0.89399795808485893</v>
       </c>
       <c r="L10" s="0">
         <v>1.8833333333333331</v>
@@ -4486,37 +5471,37 @@
         <v>0.086869420950621612</v>
       </c>
       <c r="N10" s="0">
-        <v>0.70065666404400861</v>
+        <v>0.6872135570892286</v>
       </c>
       <c r="O10" s="0">
-        <v>0.77426049068551162</v>
+        <v>0.78446029600921485</v>
       </c>
       <c r="P10" s="0">
-        <v>0.79581664617807235</v>
+        <v>0.79621319748169317</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.64785443875013726</v>
+        <v>0.66086556245200856</v>
       </c>
       <c r="R10" s="0">
-        <v>2.2589856097723269</v>
+        <v>2.3312734334796126</v>
       </c>
       <c r="S10" s="0">
-        <v>2.8506763225920455</v>
+        <v>2.895748014201347</v>
       </c>
       <c r="T10" s="0">
-        <v>3.7471270844412978</v>
+        <v>3.8668448446711903</v>
       </c>
       <c r="U10" s="0">
-        <v>5.5422850446120657</v>
+        <v>5.6777356030102588</v>
       </c>
       <c r="V10" s="0">
-        <v>0.43258180140495872</v>
+        <v>0.43461333353685938</v>
       </c>
       <c r="W10" s="0">
-        <v>0.54588692088818314</v>
+        <v>0.5398468834504454</v>
       </c>
       <c r="X10" s="0">
-        <v>0.71755170872659724</v>
+        <v>0.72088597762809881</v>
       </c>
       <c r="Y10" s="0">
         <v>-6.5928837256594681</v>
@@ -4524,37 +5509,37 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>213</v>
+        <v>414</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>236</v>
+        <v>456</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D11" s="0">
-        <v>3.9166102519686734</v>
+        <v>3.7824847587779353</v>
       </c>
       <c r="E11" s="0">
-        <v>1.7835221488452344</v>
+        <v>1.6672467515360501</v>
       </c>
       <c r="F11" s="0">
-        <v>3.1064363183071073</v>
+        <v>2.9450573514590106</v>
       </c>
       <c r="G11" s="0">
-        <v>2.4868915461996086</v>
+        <v>2.4114166458544743</v>
       </c>
       <c r="H11" s="0">
-        <v>0.79413067928184211</v>
+        <v>0.78433242683770565</v>
       </c>
       <c r="I11" s="0">
-        <v>0.57496712242928616</v>
+        <v>0.57204184674062641</v>
       </c>
       <c r="J11" s="0">
-        <v>0.56425085812759024</v>
+        <v>0.57445247021537849</v>
       </c>
       <c r="K11" s="0">
-        <v>0.76733229554907334</v>
+        <v>0.7699861799422516</v>
       </c>
       <c r="L11" s="0">
         <v>1.9679487179487178</v>
@@ -4563,37 +5548,37 @@
         <v>0.066826730922677671</v>
       </c>
       <c r="N11" s="0">
-        <v>0.76615980353015201</v>
+        <v>0.76004103818890034</v>
       </c>
       <c r="O11" s="0">
-        <v>0.80489058373796707</v>
+        <v>0.79387974070887601</v>
       </c>
       <c r="P11" s="0">
-        <v>0.83067108365708919</v>
+        <v>0.82034412269649726</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.42482422476359333</v>
+        <v>0.41198640926156288</v>
       </c>
       <c r="R11" s="0">
-        <v>1.5102982332744725</v>
+        <v>1.5181650662748272</v>
       </c>
       <c r="S11" s="0">
-        <v>1.9074841048165467</v>
+        <v>1.9064883495638691</v>
       </c>
       <c r="T11" s="0">
-        <v>2.7283491971320983</v>
+        <v>2.7443942311851091</v>
       </c>
       <c r="U11" s="0">
-        <v>3.8799410765234605</v>
+        <v>3.8925291660597963</v>
       </c>
       <c r="V11" s="0">
-        <v>0.41314686590562033</v>
+        <v>0.41363329170473345</v>
       </c>
       <c r="W11" s="0">
-        <v>0.5217983192373401</v>
+        <v>0.5194343284171401</v>
       </c>
       <c r="X11" s="0">
-        <v>0.74634856550639272</v>
+        <v>0.74772687423640294</v>
       </c>
       <c r="Y11" s="0">
         <v>-6.7074853900092579</v>
@@ -4601,37 +5586,37 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>237</v>
+        <v>457</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D12" s="0">
-        <v>4.0107233512786733</v>
+        <v>3.836607772217135</v>
       </c>
       <c r="E12" s="0">
-        <v>1.0105971561922524</v>
+        <v>1.5129421107516878</v>
       </c>
       <c r="F12" s="0">
-        <v>3.2970425507714132</v>
+        <v>3.1410966794101634</v>
       </c>
       <c r="G12" s="0">
-        <v>1.7649678898556684</v>
+        <v>1.8787352050781525</v>
       </c>
       <c r="H12" s="0">
-        <v>0.88273697584105992</v>
+        <v>0.87035276723191712</v>
       </c>
       <c r="I12" s="0">
-        <v>1.2281099502907631</v>
+        <v>1.2475450635128611</v>
       </c>
       <c r="J12" s="0">
-        <v>0.65620202826973484</v>
+        <v>0.65556718458104957</v>
       </c>
       <c r="K12" s="0">
-        <v>0.99238963290630333</v>
+        <v>0.99590442672736823</v>
       </c>
       <c r="L12" s="0">
         <v>1.9654761904761904</v>
@@ -4640,37 +5625,37 @@
         <v>0.1478426464436027</v>
       </c>
       <c r="N12" s="0">
-        <v>0.53868412296728851</v>
+        <v>0.51899348849555271</v>
       </c>
       <c r="O12" s="0">
-        <v>0.36141400575714483</v>
+        <v>0.33644750618871722</v>
       </c>
       <c r="P12" s="0">
-        <v>0.60821751652622047</v>
+        <v>0.63086513672119493</v>
       </c>
       <c r="Q12" s="0">
-        <v>0.29954538205316955</v>
+        <v>0.34325645704662572</v>
       </c>
       <c r="R12" s="0">
-        <v>2.0362411119142547</v>
+        <v>2.0208196088942829</v>
       </c>
       <c r="S12" s="0">
-        <v>1.5995379115502046</v>
+        <v>1.5805294379522106</v>
       </c>
       <c r="T12" s="0">
-        <v>3.0529861129908178</v>
+        <v>3.0233000833636359</v>
       </c>
       <c r="U12" s="0">
-        <v>4.2136595014485154</v>
+        <v>4.1723677080192427</v>
       </c>
       <c r="V12" s="0">
-        <v>0.50865473023912067</v>
+        <v>0.5096498202484766</v>
       </c>
       <c r="W12" s="0">
-        <v>0.39956590609348069</v>
+        <v>0.39860883198303804</v>
       </c>
       <c r="X12" s="0">
-        <v>0.76263848060077799</v>
+        <v>0.76247495682534616</v>
       </c>
       <c r="Y12" s="0">
         <v>-7.4766659181741177</v>
@@ -4678,37 +5663,37 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>215</v>
+        <v>416</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>238</v>
+        <v>458</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D13" s="0">
-        <v>2.3549292402024191</v>
+        <v>2.2452867372005123</v>
       </c>
       <c r="E13" s="0">
-        <v>3.6218721417090998</v>
+        <v>2.4757110563385272</v>
       </c>
       <c r="F13" s="0">
-        <v>3.2820980457183202</v>
+        <v>3.0450349444343505</v>
       </c>
       <c r="G13" s="0">
-        <v>0.61886157042788781</v>
+        <v>0.62999222730514748</v>
       </c>
       <c r="H13" s="0">
-        <v>1.3315022738976359</v>
+        <v>1.3234930189123257</v>
       </c>
       <c r="I13" s="0">
-        <v>1.3017792611413743</v>
+        <v>1.2847899363194302</v>
       </c>
       <c r="J13" s="0">
-        <v>1.0100283356751052</v>
+        <v>1.0001771669621176</v>
       </c>
       <c r="K13" s="0">
-        <v>1.1991833823924629</v>
+        <v>1.1996381374830283</v>
       </c>
       <c r="L13" s="0">
         <v>1.9499999999999997</v>
@@ -4717,37 +5702,37 @@
         <v>0.10042644116700582</v>
       </c>
       <c r="N13" s="0">
-        <v>0.76762242325623542</v>
+        <v>0.76725675109474012</v>
       </c>
       <c r="O13" s="0">
-        <v>0.51098336896738372</v>
+        <v>0.50779343455030812</v>
       </c>
       <c r="P13" s="0">
-        <v>0.81430265787900513</v>
+        <v>0.8072613989461721</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.48818874219445213</v>
+        <v>0.49887667478452352</v>
       </c>
       <c r="R13" s="0">
-        <v>1.982358101073171</v>
+        <v>1.995876620416869</v>
       </c>
       <c r="S13" s="0">
-        <v>1.0653258517548088</v>
+        <v>1.0780874494803978</v>
       </c>
       <c r="T13" s="0">
-        <v>3.0492771504942682</v>
+        <v>3.1249708778316259</v>
       </c>
       <c r="U13" s="0">
-        <v>3.9664518345349928</v>
+        <v>4.0475697798878212</v>
       </c>
       <c r="V13" s="0">
-        <v>0.52307413989100826</v>
+        <v>0.51686464355056938</v>
       </c>
       <c r="W13" s="0">
-        <v>0.28110178645756895</v>
+        <v>0.27918824219487243</v>
       </c>
       <c r="X13" s="0">
-        <v>0.80459631482355509</v>
+        <v>0.80926192649072526</v>
       </c>
       <c r="Y13" s="0">
         <v>-7.2731354211098465</v>
@@ -4755,37 +5740,37 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>216</v>
+        <v>417</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>239</v>
+        <v>459</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D14" s="0">
-        <v>2.9119117133286125</v>
+        <v>2.8119165626156009</v>
       </c>
       <c r="E14" s="0">
-        <v>1.4805950213451318</v>
+        <v>1.4980599906861081</v>
       </c>
       <c r="F14" s="0">
-        <v>3.1161003922308206</v>
+        <v>3.002122981710508</v>
       </c>
       <c r="G14" s="0">
-        <v>1.8224044131070947</v>
+        <v>4.2835525868539168</v>
       </c>
       <c r="H14" s="0">
-        <v>0.78373236430623461</v>
+        <v>0.78897855715186072</v>
       </c>
       <c r="I14" s="0">
-        <v>0.6236393220045181</v>
+        <v>0.6219327663833516</v>
       </c>
       <c r="J14" s="0">
-        <v>0.3821614081460753</v>
+        <v>0.38274337192678626</v>
       </c>
       <c r="K14" s="0">
-        <v>0.8064516222999516</v>
+        <v>0.80849200757406847</v>
       </c>
       <c r="L14" s="0">
         <v>1.8273809523809526</v>
@@ -4794,37 +5779,37 @@
         <v>0.058326791888587956</v>
       </c>
       <c r="N14" s="0">
-        <v>0.80648989376657909</v>
+        <v>0.7979350019153858</v>
       </c>
       <c r="O14" s="0">
-        <v>0.68330487690802355</v>
+        <v>0.68716010788008464</v>
       </c>
       <c r="P14" s="0">
-        <v>0.87700247460827108</v>
+        <v>0.88013261901747919</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.49129509750818967</v>
+        <v>0.50814948768579726</v>
       </c>
       <c r="R14" s="0">
-        <v>2.0514991154418061</v>
+        <v>2.0513697081524809</v>
       </c>
       <c r="S14" s="0">
-        <v>1.5003424507172161</v>
+        <v>1.5269939495541609</v>
       </c>
       <c r="T14" s="0">
-        <v>3.0133085974041061</v>
+        <v>3.0252443102328068</v>
       </c>
       <c r="U14" s="0">
-        <v>4.2112951783969255</v>
+        <v>4.2410893246483088</v>
       </c>
       <c r="V14" s="0">
-        <v>0.52041517507168189</v>
+        <v>0.51785209622663675</v>
       </c>
       <c r="W14" s="0">
-        <v>0.38060020269095984</v>
+        <v>0.3854775736228408</v>
       </c>
       <c r="X14" s="0">
-        <v>0.76440272845320933</v>
+        <v>0.7636990550390419</v>
       </c>
       <c r="Y14" s="0">
         <v>-6.8820588023486255</v>
@@ -4832,37 +5817,37 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>217</v>
+        <v>418</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>239</v>
+        <v>459</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D15" s="0">
-        <v>3.333666216256177</v>
+        <v>3.2528618811922487</v>
       </c>
       <c r="E15" s="0">
-        <v>3.3261678468836742</v>
+        <v>3.1932790203371031</v>
       </c>
       <c r="F15" s="0">
-        <v>2.6945491627170579</v>
+        <v>2.5394517065239444</v>
       </c>
       <c r="G15" s="0">
-        <v>2.2805304725614355</v>
+        <v>1.4919345456597517</v>
       </c>
       <c r="H15" s="0">
-        <v>1.0175400971237973</v>
+        <v>1.0230708452680384</v>
       </c>
       <c r="I15" s="0">
-        <v>1.1511590818053721</v>
+        <v>1.1620818817322549</v>
       </c>
       <c r="J15" s="0">
-        <v>0.70783256974575126</v>
+        <v>0.69232726157606772</v>
       </c>
       <c r="K15" s="0">
-        <v>1.0906908020061166</v>
+        <v>1.078596478316395</v>
       </c>
       <c r="L15" s="0">
         <v>1.5940476190476189</v>
@@ -4871,37 +5856,37 @@
         <v>0.064253485341344549</v>
       </c>
       <c r="N15" s="0">
-        <v>0.8576444722806289</v>
+        <v>0.85461178946976912</v>
       </c>
       <c r="O15" s="0">
-        <v>0.77708390907074065</v>
+        <v>0.77111656959115837</v>
       </c>
       <c r="P15" s="0">
-        <v>0.89059217687842118</v>
+        <v>0.88563771846375683</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.65881575845096751</v>
+        <v>0.65318835972109157</v>
       </c>
       <c r="R15" s="0">
-        <v>3.0322991115495541</v>
+        <v>3.0691377276777745</v>
       </c>
       <c r="S15" s="0">
-        <v>1.9097326819834723</v>
+        <v>1.9319754946082037</v>
       </c>
       <c r="T15" s="0">
-        <v>4.262346280715315</v>
+        <v>4.3673750889920893</v>
       </c>
       <c r="U15" s="0">
-        <v>5.8902695607872424</v>
+        <v>6.0043826326962213</v>
       </c>
       <c r="V15" s="0">
-        <v>0.5445334566226987</v>
+        <v>0.54064538078338475</v>
       </c>
       <c r="W15" s="0">
-        <v>0.34294550118256129</v>
+        <v>0.34032803986836357</v>
       </c>
       <c r="X15" s="0">
-        <v>0.76542256162016631</v>
+        <v>0.76933698566814424</v>
       </c>
       <c r="Y15" s="0">
         <v>-6.1374037581800627</v>
@@ -4909,37 +5894,37 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>218</v>
+        <v>419</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D16" s="0">
-        <v>3.8710517913954203</v>
+        <v>3.7145091070228426</v>
       </c>
       <c r="E16" s="0">
-        <v>1.1139177560598241</v>
+        <v>1.654740927244007</v>
       </c>
       <c r="F16" s="0">
-        <v>4.9754377263808589</v>
+        <v>4.6858442760615722</v>
       </c>
       <c r="G16" s="0">
-        <v>0.69146537865662261</v>
+        <v>0.67992788440977547</v>
       </c>
       <c r="H16" s="0">
-        <v>0.77709491810077713</v>
+        <v>0.78213865765653967</v>
       </c>
       <c r="I16" s="0">
-        <v>0.55594473754694052</v>
+        <v>0.55317554607467478</v>
       </c>
       <c r="J16" s="0">
-        <v>0.54220934204196292</v>
+        <v>0.5417021862089475</v>
       </c>
       <c r="K16" s="0">
-        <v>0.76736257066639624</v>
+        <v>0.75875429677654693</v>
       </c>
       <c r="L16" s="0">
         <v>2.0630952380952379</v>
@@ -4948,37 +5933,37 @@
         <v>0.071065929251409254</v>
       </c>
       <c r="N16" s="0">
-        <v>0.70075917831011314</v>
+        <v>0.69560717294663743</v>
       </c>
       <c r="O16" s="0">
-        <v>0.63024741843553533</v>
+        <v>0.65968578495961261</v>
       </c>
       <c r="P16" s="0">
-        <v>0.80136729472076085</v>
+        <v>0.82352957897374768</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.53852520607177279</v>
+        <v>0.58570632943235523</v>
       </c>
       <c r="R16" s="0">
-        <v>1.8786612208812081</v>
+        <v>1.9008948149399167</v>
       </c>
       <c r="S16" s="0">
-        <v>1.070379623290749</v>
+        <v>1.0504895914966699</v>
       </c>
       <c r="T16" s="0">
-        <v>2.8271841150618999</v>
+        <v>2.818921918481466</v>
       </c>
       <c r="U16" s="0">
-        <v>3.7667377880041508</v>
+        <v>3.7657015166208478</v>
       </c>
       <c r="V16" s="0">
-        <v>0.52782940052070759</v>
+        <v>0.5341773768917063</v>
       </c>
       <c r="W16" s="0">
-        <v>0.30073428280279685</v>
+        <v>0.2952019070321194</v>
       </c>
       <c r="X16" s="0">
-        <v>0.79432676846058625</v>
+        <v>0.79215551762371506</v>
       </c>
       <c r="Y16" s="0">
         <v>-7.011246771605256</v>
@@ -4986,37 +5971,37 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>219</v>
+        <v>420</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D17" s="0">
-        <v>2.3532680571090294</v>
+        <v>2.1717983953936781</v>
       </c>
       <c r="E17" s="0">
-        <v>1.8925708546563198</v>
+        <v>2.6402034397175198</v>
       </c>
       <c r="F17" s="0">
-        <v>3.7958637431494369</v>
+        <v>3.4822445215756987</v>
       </c>
       <c r="G17" s="0">
-        <v>0.68969520140560003</v>
+        <v>0.68871185691941106</v>
       </c>
       <c r="H17" s="0">
-        <v>0.70417246904279007</v>
+        <v>0.71529129769340405</v>
       </c>
       <c r="I17" s="0">
-        <v>1.030424066030192</v>
+        <v>1.0575818163049662</v>
       </c>
       <c r="J17" s="0">
-        <v>0.65603219168931282</v>
+        <v>0.66975888617112411</v>
       </c>
       <c r="K17" s="0">
-        <v>0.94642350998673597</v>
+        <v>0.96989752776107618</v>
       </c>
       <c r="L17" s="0">
         <v>1.7</v>
@@ -5025,37 +6010,37 @@
         <v>0.090582162731567634</v>
       </c>
       <c r="N17" s="0">
-        <v>0.7407096691775229</v>
+        <v>0.76505875599714668</v>
       </c>
       <c r="O17" s="0">
-        <v>0.61558394107338132</v>
+        <v>0.66824126947628959</v>
       </c>
       <c r="P17" s="0">
-        <v>0.71215364834576256</v>
+        <v>0.74243804513331368</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.2966608405920596</v>
+        <v>0.34175935691547299</v>
       </c>
       <c r="R17" s="0">
-        <v>2.7162792876688644</v>
+        <v>2.7632125198371011</v>
       </c>
       <c r="S17" s="0">
-        <v>1.7964894935501614</v>
+        <v>1.8283970355239911</v>
       </c>
       <c r="T17" s="0">
-        <v>3.9062888992969875</v>
+        <v>4.0040703651283831</v>
       </c>
       <c r="U17" s="0">
-        <v>5.344647505724784</v>
+        <v>5.4593416955047802</v>
       </c>
       <c r="V17" s="0">
-        <v>0.53409830254571322</v>
+        <v>0.53167261189066561</v>
       </c>
       <c r="W17" s="0">
-        <v>0.35324128612334355</v>
+        <v>0.35180378652435285</v>
       </c>
       <c r="X17" s="0">
-        <v>0.76808827422094783</v>
+        <v>0.77042736812270973</v>
       </c>
       <c r="Y17" s="0">
         <v>-6.6678540242216995</v>
@@ -5063,37 +6048,37 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>220</v>
+        <v>421</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D18" s="0">
-        <v>4.0676587026135858</v>
+        <v>3.9524357447050691</v>
       </c>
       <c r="E18" s="0">
-        <v>1.6000032620267142</v>
+        <v>1.7817083797818123</v>
       </c>
       <c r="F18" s="0">
-        <v>3.6201566742353499</v>
+        <v>3.5445866859515838</v>
       </c>
       <c r="G18" s="0">
-        <v>3.1897702958525116</v>
+        <v>3.2117075477900583</v>
       </c>
       <c r="H18" s="0">
-        <v>0.71277172316394732</v>
+        <v>0.71739152371247905</v>
       </c>
       <c r="I18" s="0">
-        <v>1.0681141354830781</v>
+        <v>1.0780036976286582</v>
       </c>
       <c r="J18" s="0">
-        <v>0.56119778829574374</v>
+        <v>0.56758763857650196</v>
       </c>
       <c r="K18" s="0">
-        <v>0.79118807862950746</v>
+        <v>0.80696288444025954</v>
       </c>
       <c r="L18" s="0">
         <v>2.0035714285714286</v>
@@ -5102,37 +6087,37 @@
         <v>0.14144833423420466</v>
       </c>
       <c r="N18" s="0">
-        <v>0.77043824975991737</v>
+        <v>0.74222669299002841</v>
       </c>
       <c r="O18" s="0">
-        <v>0.3379244304501971</v>
+        <v>0.32061402419204066</v>
       </c>
       <c r="P18" s="0">
-        <v>0.78015508836923753</v>
+        <v>0.73725458714377257</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.56697976204805034</v>
+        <v>0.54674949836314979</v>
       </c>
       <c r="R18" s="0">
-        <v>1.6912463227801335</v>
+        <v>1.6419885015087359</v>
       </c>
       <c r="S18" s="0">
-        <v>0.86617132512773576</v>
+        <v>0.87667699700949964</v>
       </c>
       <c r="T18" s="0">
-        <v>2.5164610120749407</v>
+        <v>2.4732555924218391</v>
       </c>
       <c r="U18" s="0">
-        <v>3.347247728992953</v>
+        <v>3.2795334362442508</v>
       </c>
       <c r="V18" s="0">
-        <v>0.53634597340079693</v>
+        <v>0.53045583916056516</v>
       </c>
       <c r="W18" s="0">
-        <v>0.27468943834498355</v>
+        <v>0.28321661917494512</v>
       </c>
       <c r="X18" s="0">
-        <v>0.79804680895199942</v>
+        <v>0.79900247141268266</v>
       </c>
       <c r="Y18" s="0">
         <v>-7.0499602951615623</v>
@@ -5140,37 +6125,37 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>221</v>
+        <v>422</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>241</v>
+        <v>461</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D19" s="0">
-        <v>1.6636972277278814</v>
+        <v>3.7757109499627957</v>
       </c>
       <c r="E19" s="0">
-        <v>2.0473996413877389</v>
+        <v>1.8835206462713254</v>
       </c>
       <c r="F19" s="0">
-        <v>4.3381549840209823</v>
+        <v>4.1588074212218071</v>
       </c>
       <c r="G19" s="0">
-        <v>4.398158068637799</v>
+        <v>4.3204237889270809</v>
       </c>
       <c r="H19" s="0">
-        <v>0.63623965336500998</v>
+        <v>0.61176239401374088</v>
       </c>
       <c r="I19" s="0">
-        <v>0.94468990174610856</v>
+        <v>0.91454025371486836</v>
       </c>
       <c r="J19" s="0">
-        <v>0.33967408183404951</v>
+        <v>0.33975815528311115</v>
       </c>
       <c r="K19" s="0">
-        <v>0.59893518090009312</v>
+        <v>0.58385868128495422</v>
       </c>
       <c r="L19" s="0">
         <v>2.4404761904761902</v>
@@ -5179,37 +6164,37 @@
         <v>0.27344855964900378</v>
       </c>
       <c r="N19" s="0">
-        <v>0.51133624786298904</v>
+        <v>0.50844624180962772</v>
       </c>
       <c r="O19" s="0">
-        <v>0.37859735825492125</v>
+        <v>0.3474983615485932</v>
       </c>
       <c r="P19" s="0">
-        <v>0.62579052490080322</v>
+        <v>0.56939546771491412</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.34816505644063211</v>
+        <v>0.27213045325558094</v>
       </c>
       <c r="R19" s="0">
-        <v>1.3439274463469151</v>
+        <v>1.2792280169324073</v>
       </c>
       <c r="S19" s="0">
-        <v>0.97992035803797362</v>
+        <v>0.97299129477891944</v>
       </c>
       <c r="T19" s="0">
-        <v>1.979414832353888</v>
+        <v>1.9194726874978785</v>
       </c>
       <c r="U19" s="0">
-        <v>2.7165416782798926</v>
+        <v>2.6367580523581728</v>
       </c>
       <c r="V19" s="0">
-        <v>0.51980733097056842</v>
+        <v>0.51097585987454752</v>
       </c>
       <c r="W19" s="0">
-        <v>0.37901583694865365</v>
+        <v>0.38865241920852789</v>
       </c>
       <c r="X19" s="0">
-        <v>0.76560259535307573</v>
+        <v>0.76671570198400485</v>
       </c>
       <c r="Y19" s="0">
         <v>-7.7321052451066663</v>
@@ -5217,37 +6202,37 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>242</v>
+        <v>462</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D20" s="0">
-        <v>3.2147708870068334</v>
+        <v>3.1332655422586422</v>
       </c>
       <c r="E20" s="0">
-        <v>1.6060404732913887</v>
+        <v>1.60846760729438</v>
       </c>
       <c r="F20" s="0">
-        <v>3.3815481930116671</v>
+        <v>3.2776678993273358</v>
       </c>
       <c r="G20" s="0">
-        <v>2.9489194276179842</v>
+        <v>4.4353851408860256</v>
       </c>
       <c r="H20" s="0">
-        <v>0.71185649442305576</v>
+        <v>0.71624170517209629</v>
       </c>
       <c r="I20" s="0">
-        <v>0.74775763492176317</v>
+        <v>0.73846171981468389</v>
       </c>
       <c r="J20" s="0">
-        <v>0.48429977820691472</v>
+        <v>0.46865467816278844</v>
       </c>
       <c r="K20" s="0">
-        <v>0.76849396148584825</v>
+        <v>0.76723871356145634</v>
       </c>
       <c r="L20" s="0">
         <v>2.0273809523809523</v>
@@ -5256,37 +6241,37 @@
         <v>0.21148711775614362</v>
       </c>
       <c r="N20" s="0">
-        <v>0.51165321014759657</v>
+        <v>0.47644351618086805</v>
       </c>
       <c r="O20" s="0">
-        <v>0.50113044289608355</v>
+        <v>0.43697510697760844</v>
       </c>
       <c r="P20" s="0">
-        <v>0.54017624643463957</v>
+        <v>0.49949921138272041</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.47864689467033877</v>
+        <v>0.51204124125514439</v>
       </c>
       <c r="R20" s="0">
-        <v>1.9671385322372954</v>
+        <v>1.9721339687438904</v>
       </c>
       <c r="S20" s="0">
-        <v>1.7909490446248661</v>
+        <v>1.7183737451190857</v>
       </c>
       <c r="T20" s="0">
-        <v>2.8335685183904089</v>
+        <v>2.7720918129236214</v>
       </c>
       <c r="U20" s="0">
-        <v>4.2336517858043798</v>
+        <v>4.1624989709290938</v>
       </c>
       <c r="V20" s="0">
-        <v>0.50612374358514545</v>
+        <v>0.51743311462417729</v>
       </c>
       <c r="W20" s="0">
-        <v>0.46079206938458422</v>
+        <v>0.45085348820988169</v>
       </c>
       <c r="X20" s="0">
-        <v>0.72904692919703762</v>
+        <v>0.72731980865318446</v>
       </c>
       <c r="Y20" s="0">
         <v>-6.735840439535477</v>
@@ -5294,37 +6279,37 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>223</v>
+        <v>424</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>243</v>
+        <v>463</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D21" s="0">
-        <v>2.9390574725772902</v>
+        <v>2.8217645885343474</v>
       </c>
       <c r="E21" s="0">
-        <v>0.77544462478288667</v>
+        <v>1.4579710041045415</v>
       </c>
       <c r="F21" s="0">
-        <v>3.3155942190921581</v>
+        <v>3.815578047360161</v>
       </c>
       <c r="G21" s="0">
-        <v>0.61502680739278459</v>
+        <v>1.408741257075768</v>
       </c>
       <c r="H21" s="0">
-        <v>0.72937831982481827</v>
+        <v>0.74728997057790569</v>
       </c>
       <c r="I21" s="0">
-        <v>0.52042848352764992</v>
+        <v>0.53100071641254454</v>
       </c>
       <c r="J21" s="0">
-        <v>0.43989369080460522</v>
+        <v>0.44473358598194801</v>
       </c>
       <c r="K21" s="0">
-        <v>0.81044970618149603</v>
+        <v>0.82023920480364831</v>
       </c>
       <c r="L21" s="0">
         <v>1.9011904761904763</v>
@@ -5333,37 +6318,37 @@
         <v>0.12817994258111398</v>
       </c>
       <c r="N21" s="0">
-        <v>0.58810870871269483</v>
+        <v>0.65031231328162509</v>
       </c>
       <c r="O21" s="0">
-        <v>0.34363932326137081</v>
+        <v>0.3929819592508379</v>
       </c>
       <c r="P21" s="0">
-        <v>0.74446695623690917</v>
+        <v>0.80524490097142232</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.36045643798686272</v>
+        <v>0.38651064681149533</v>
       </c>
       <c r="R21" s="0">
-        <v>2.2298355368554574</v>
+        <v>2.3203283719420642</v>
       </c>
       <c r="S21" s="0">
-        <v>0.96897621486977492</v>
+        <v>0.99029810193372514</v>
       </c>
       <c r="T21" s="0">
-        <v>3.1232960858755092</v>
+        <v>3.2620114501904673</v>
       </c>
       <c r="U21" s="0">
-        <v>4.137893189836185</v>
+        <v>4.3027492891525458</v>
       </c>
       <c r="V21" s="0">
-        <v>0.56336899459704404</v>
+        <v>0.56267404536931731</v>
       </c>
       <c r="W21" s="0">
-        <v>0.24481229531818169</v>
+        <v>0.24014490615835932</v>
       </c>
       <c r="X21" s="0">
-        <v>0.78910222150730192</v>
+        <v>0.79102992529607896</v>
       </c>
       <c r="Y21" s="0">
         <v>-6.9382868954423795</v>
@@ -5371,37 +6356,37 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>224</v>
+        <v>425</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>244</v>
+        <v>464</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D22" s="0">
-        <v>2.465343385196094</v>
+        <v>3.7734705906231545</v>
       </c>
       <c r="E22" s="0">
-        <v>1.5903025417923833</v>
+        <v>1.874017113002965</v>
       </c>
       <c r="F22" s="0">
-        <v>3.7214860176010283</v>
+        <v>3.5064639686927674</v>
       </c>
       <c r="G22" s="0">
-        <v>1.9717557431920265</v>
+        <v>0.98774762795992588</v>
       </c>
       <c r="H22" s="0">
-        <v>0.78069868515934071</v>
+        <v>0.92452455040644754</v>
       </c>
       <c r="I22" s="0">
-        <v>0.73668009328875317</v>
+        <v>0.83006209706087331</v>
       </c>
       <c r="J22" s="0">
-        <v>0.56371721756941973</v>
+        <v>0.63055770389078358</v>
       </c>
       <c r="K22" s="0">
-        <v>0.73255025054140588</v>
+        <v>0.7788401953303089</v>
       </c>
       <c r="L22" s="0">
         <v>2.1976190476190474</v>
@@ -5410,37 +6395,37 @@
         <v>0.7475560506343647</v>
       </c>
       <c r="N22" s="0">
-        <v>0.63584624724986261</v>
+        <v>0.63343045698715095</v>
       </c>
       <c r="O22" s="0">
-        <v>0.54966758387477144</v>
+        <v>0.56426706771016411</v>
       </c>
       <c r="P22" s="0">
-        <v>0.72801840121491901</v>
+        <v>0.74372039514123078</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.35525888331330213</v>
+        <v>0.33082693341487257</v>
       </c>
       <c r="R22" s="0">
-        <v>1.6754626776574753</v>
+        <v>1.8068028831960949</v>
       </c>
       <c r="S22" s="0">
-        <v>1.9101659431713467</v>
+        <v>2.0579077134189845</v>
       </c>
       <c r="T22" s="0">
-        <v>2.694436511591106</v>
+        <v>2.9788886516058906</v>
       </c>
       <c r="U22" s="0">
-        <v>3.9132405357997149</v>
+        <v>4.2766441681064293</v>
       </c>
       <c r="V22" s="0">
-        <v>0.45240005266907507</v>
+        <v>0.4465218200785791</v>
       </c>
       <c r="W22" s="0">
-        <v>0.51577345459321289</v>
+        <v>0.50857827729615279</v>
       </c>
       <c r="X22" s="0">
-        <v>0.72753827107719982</v>
+        <v>0.73618367277208108</v>
       </c>
       <c r="Y22" s="0">
         <v>-7.1858949106940662</v>
@@ -5448,37 +6433,37 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>225</v>
+        <v>426</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>244</v>
+        <v>464</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D23" s="0">
-        <v>2.6401171740494744</v>
+        <v>3.1314989368443364</v>
       </c>
       <c r="E23" s="0">
-        <v>1.589629444138577</v>
+        <v>1.8303645500364603</v>
       </c>
       <c r="F23" s="0">
-        <v>3.8294636226208101</v>
+        <v>3.5854413090827233</v>
       </c>
       <c r="G23" s="0">
-        <v>0.54256537160590323</v>
+        <v>0.53567377100377911</v>
       </c>
       <c r="H23" s="0">
-        <v>1.2137117419513426</v>
+        <v>1.194767960787865</v>
       </c>
       <c r="I23" s="0">
-        <v>1.1374232823037835</v>
+        <v>1.1447424678833096</v>
       </c>
       <c r="J23" s="0">
-        <v>0.7889327688068889</v>
+        <v>0.79639828001991453</v>
       </c>
       <c r="K23" s="0">
-        <v>1.2603733925117075</v>
+        <v>1.2617868592262098</v>
       </c>
       <c r="L23" s="0">
         <v>1.9488095238095233</v>
@@ -5487,37 +6472,37 @@
         <v>0.1013718477993349</v>
       </c>
       <c r="N23" s="0">
-        <v>0.65282226051885206</v>
+        <v>0.6673936656360907</v>
       </c>
       <c r="O23" s="0">
-        <v>0.59125301473487646</v>
+        <v>0.59447700768540568</v>
       </c>
       <c r="P23" s="0">
-        <v>0.76447545284054186</v>
+        <v>0.76669925489589119</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.42860520223077436</v>
+        <v>0.46499663041364914</v>
       </c>
       <c r="R23" s="0">
-        <v>2.2122166393854004</v>
+        <v>2.219595250624578</v>
       </c>
       <c r="S23" s="0">
-        <v>1.9207486262114768</v>
+        <v>1.9295298953942366</v>
       </c>
       <c r="T23" s="0">
-        <v>3.2200715581019765</v>
+        <v>3.2041728430514431</v>
       </c>
       <c r="U23" s="0">
-        <v>4.5682524658736146</v>
+        <v>4.5624715655785204</v>
       </c>
       <c r="V23" s="0">
-        <v>0.50815907824986095</v>
+        <v>0.51033388000813418</v>
       </c>
       <c r="W23" s="0">
-        <v>0.44120717386723773</v>
+        <v>0.44364146023070705</v>
       </c>
       <c r="X23" s="0">
-        <v>0.73966923751115732</v>
+        <v>0.73670997392475246</v>
       </c>
       <c r="Y23" s="0">
         <v>-7.6660857030929899</v>
@@ -5525,37 +6510,37 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>226</v>
+        <v>427</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>244</v>
+        <v>464</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D24" s="0">
-        <v>3.3976759282232729</v>
+        <v>3.3115802943472361</v>
       </c>
       <c r="E24" s="0">
-        <v>2.5127515752336973</v>
+        <v>3.4249406752694318</v>
       </c>
       <c r="F24" s="0">
-        <v>3.2322574407110918</v>
+        <v>2.1554500731486552</v>
       </c>
       <c r="G24" s="0">
-        <v>1.604722254855576</v>
+        <v>2.4104261507994447</v>
       </c>
       <c r="H24" s="0">
-        <v>1.0298120746763546</v>
+        <v>1.0401785968269412</v>
       </c>
       <c r="I24" s="0">
-        <v>1.2390638136383227</v>
+        <v>1.2127333599975791</v>
       </c>
       <c r="J24" s="0">
-        <v>0.82233850177899703</v>
+        <v>0.82510843363028996</v>
       </c>
       <c r="K24" s="0">
-        <v>1.3792693438637709</v>
+        <v>1.3624256577991274</v>
       </c>
       <c r="L24" s="0">
         <v>1.6619047619047616</v>
@@ -5564,37 +6549,37 @@
         <v>0.10529335727713829</v>
       </c>
       <c r="N24" s="0">
-        <v>0.65983452815269228</v>
+        <v>0.70303287621233179</v>
       </c>
       <c r="O24" s="0">
-        <v>0.57990872588977127</v>
+        <v>0.59304445681141527</v>
       </c>
       <c r="P24" s="0">
-        <v>0.79049906240605439</v>
+        <v>0.81344924571053456</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.4677066551492966</v>
+        <v>0.45913790482355615</v>
       </c>
       <c r="R24" s="0">
-        <v>2.5818760569595436</v>
+        <v>2.5554598252490139</v>
       </c>
       <c r="S24" s="0">
-        <v>1.9043325997798253</v>
+        <v>1.8683495557020164</v>
       </c>
       <c r="T24" s="0">
-        <v>4.2419639818975217</v>
+        <v>4.1463407284560692</v>
       </c>
       <c r="U24" s="0">
-        <v>5.6070915786590927</v>
+        <v>5.4982953511293005</v>
       </c>
       <c r="V24" s="0">
-        <v>0.48544863908849845</v>
+        <v>0.48986778565143141</v>
       </c>
       <c r="W24" s="0">
-        <v>0.35805578910074848</v>
+        <v>0.35815247441246606</v>
       </c>
       <c r="X24" s="0">
-        <v>0.79758113737635816</v>
+        <v>0.79483102459151111</v>
       </c>
       <c r="Y24" s="0">
         <v>-6.7845529771543411</v>
@@ -5602,37 +6587,37 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>227</v>
+        <v>428</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>245</v>
+        <v>465</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D25" s="0">
-        <v>3.1500268277773369</v>
+        <v>3.116508573127958</v>
       </c>
       <c r="E25" s="0">
-        <v>1.0651326650330808</v>
+        <v>1.0553838943772795</v>
       </c>
       <c r="F25" s="0">
-        <v>1.5175328998001554</v>
+        <v>1.5224994716673206</v>
       </c>
       <c r="G25" s="0">
-        <v>2.937579355725175</v>
+        <v>2.8452677183459234</v>
       </c>
       <c r="H25" s="0">
-        <v>0.57398939818562267</v>
+        <v>0.58365691131521169</v>
       </c>
       <c r="I25" s="0">
-        <v>0.99857474395039669</v>
+        <v>1.0120118154055471</v>
       </c>
       <c r="J25" s="0">
-        <v>0.46230108361623634</v>
+        <v>0.46978335842908181</v>
       </c>
       <c r="K25" s="0">
-        <v>0.66933464089480399</v>
+        <v>0.67547092303078304</v>
       </c>
       <c r="L25" s="0">
         <v>1.8964285714285711</v>
@@ -5641,37 +6626,37 @@
         <v>0.18801465793791614</v>
       </c>
       <c r="N25" s="0">
-        <v>0.71137795030659912</v>
+        <v>0.70585230458833925</v>
       </c>
       <c r="O25" s="0">
-        <v>0.54376369342452202</v>
+        <v>0.54013206273957381</v>
       </c>
       <c r="P25" s="0">
-        <v>0.67845504675080104</v>
+        <v>0.67415943975698234</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.65373423300001876</v>
+        <v>0.66748549412289726</v>
       </c>
       <c r="R25" s="0">
-        <v>3.4102462931289796</v>
+        <v>3.3807936503189162</v>
       </c>
       <c r="S25" s="0">
-        <v>1.3971119560048544</v>
+        <v>1.4137929204268622</v>
       </c>
       <c r="T25" s="0">
-        <v>4.0200054148541717</v>
+        <v>3.9824292485735269</v>
       </c>
       <c r="U25" s="0">
-        <v>5.7371905180078695</v>
+        <v>5.6924421950515312</v>
       </c>
       <c r="V25" s="0">
-        <v>0.62531608656770654</v>
+        <v>0.6246999081716641</v>
       </c>
       <c r="W25" s="0">
-        <v>0.256179907763884</v>
+        <v>0.26123934167975504</v>
       </c>
       <c r="X25" s="0">
-        <v>0.73712390189013433</v>
+        <v>0.73586957478145731</v>
       </c>
       <c r="Y25" s="0">
         <v>-6.7424878758545042</v>
@@ -5679,37 +6664,37 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>228</v>
+        <v>429</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>245</v>
+        <v>465</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D26" s="0">
-        <v>3.2469099218679216</v>
+        <v>3.237737237600407</v>
       </c>
       <c r="E26" s="0">
-        <v>0.29708354182883562</v>
+        <v>0.29321967895855261</v>
       </c>
       <c r="F26" s="0">
-        <v>2.1279027851324681</v>
+        <v>2.3468079203983438</v>
       </c>
       <c r="G26" s="0">
-        <v>2.4245061803276666</v>
+        <v>3.1323512255181623</v>
       </c>
       <c r="H26" s="0">
-        <v>1.7160771641019201</v>
+        <v>1.7232186730499064</v>
       </c>
       <c r="I26" s="0">
-        <v>1.8686720040678684</v>
+        <v>1.9000816142116099</v>
       </c>
       <c r="J26" s="0">
-        <v>1.1971693019653915</v>
+        <v>1.1972198618715857</v>
       </c>
       <c r="K26" s="0">
-        <v>1.6628867516379968</v>
+        <v>1.6916467446541668</v>
       </c>
       <c r="L26" s="0">
         <v>1.6023809523809525</v>
@@ -5718,37 +6703,37 @@
         <v>0.057682131784707207</v>
       </c>
       <c r="N26" s="0">
-        <v>0.65441937834396113</v>
+        <v>0.65470517242399784</v>
       </c>
       <c r="O26" s="0">
-        <v>0.26725201993649217</v>
+        <v>0.27887478079418609</v>
       </c>
       <c r="P26" s="0">
-        <v>0.64968898718175516</v>
+        <v>0.66074693454629174</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.37687945519664978</v>
+        <v>0.37121954733440427</v>
       </c>
       <c r="R26" s="0">
-        <v>4.3571898626871732</v>
+        <v>4.452760714832138</v>
       </c>
       <c r="S26" s="0">
-        <v>2.1542129385559416</v>
+        <v>2.2174842627609599</v>
       </c>
       <c r="T26" s="0">
-        <v>5.8535491254923251</v>
+        <v>6.0100011288956496</v>
       </c>
       <c r="U26" s="0">
-        <v>7.8532568978373307</v>
+        <v>8.051078062651019</v>
       </c>
       <c r="V26" s="0">
-        <v>0.57267148198426188</v>
+        <v>0.57075218779854331</v>
       </c>
       <c r="W26" s="0">
-        <v>0.28313118200263143</v>
+        <v>0.28423579784196196</v>
       </c>
       <c r="X26" s="0">
-        <v>0.76934004672819556</v>
+        <v>0.77035832659115189</v>
       </c>
       <c r="Y26" s="0">
         <v>-7.8543892431462146</v>
@@ -5756,37 +6741,37 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>245</v>
+        <v>465</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="D27" s="0">
-        <v>2.2964867465931929</v>
+        <v>2.2373386330926452</v>
       </c>
       <c r="E27" s="0">
-        <v>1.4797512684637799</v>
+        <v>1.4449146938880519</v>
       </c>
       <c r="F27" s="0">
-        <v>2.463832163963164</v>
+        <v>2.6053217079546882</v>
       </c>
       <c r="G27" s="0">
-        <v>2.979240461774614</v>
+        <v>1.4555073261922282</v>
       </c>
       <c r="H27" s="0">
-        <v>0.33892708816261574</v>
+        <v>0.34551552951355341</v>
       </c>
       <c r="I27" s="0">
-        <v>0.43403056718675731</v>
+        <v>0.43859700003466862</v>
       </c>
       <c r="J27" s="0">
-        <v>0.27013174172194443</v>
+        <v>0.27175609215593427</v>
       </c>
       <c r="K27" s="0">
-        <v>0.58311738709172789</v>
+        <v>0.59139663170850854</v>
       </c>
       <c r="L27" s="0">
         <v>1.5940476190476187</v>
@@ -5795,37 +6780,37 @@
         <v>0.10348771405199249</v>
       </c>
       <c r="N27" s="0">
-        <v>0.59250014698787778</v>
+        <v>0.57541617909277631</v>
       </c>
       <c r="O27" s="0">
-        <v>0.70847218302581005</v>
+        <v>0.68870453202471071</v>
       </c>
       <c r="P27" s="0">
-        <v>0.82741215011675284</v>
+        <v>0.80387345152837342</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.40681264933713113</v>
+        <v>0.38346365944135019</v>
       </c>
       <c r="R27" s="0">
-        <v>1.9045644579033203</v>
+        <v>1.9195152822750516</v>
       </c>
       <c r="S27" s="0">
-        <v>2.8130631583714472</v>
+        <v>2.8124548330664041</v>
       </c>
       <c r="T27" s="0">
-        <v>3.962744138798282</v>
+        <v>3.962361771632505</v>
       </c>
       <c r="U27" s="0">
-        <v>5.5049478232028859</v>
+        <v>5.5102064723472433</v>
       </c>
       <c r="V27" s="0">
-        <v>0.36488834431477996</v>
+        <v>0.36741086789491295</v>
       </c>
       <c r="W27" s="0">
-        <v>0.53894419485337675</v>
+        <v>0.53832677482382363</v>
       </c>
       <c r="X27" s="0">
-        <v>0.75920725168893377</v>
+        <v>0.75842833389878506</v>
       </c>
       <c r="Y27" s="0">
         <v>-6.5848136383757874</v>
@@ -5833,76 +6818,76 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>279</v>
+        <v>431</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>297</v>
+        <v>466</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D28" s="0">
-        <v>2.7557316727692966</v>
+        <v>4.1394790064042688</v>
       </c>
       <c r="E28" s="0">
-        <v>1.9658330746493902</v>
+        <v>1.8292593326875919</v>
       </c>
       <c r="F28" s="0">
-        <v>3.9344841680678808</v>
+        <v>3.6293414870483747</v>
       </c>
       <c r="G28" s="0">
-        <v>4.8595584565445602</v>
+        <v>3.9678146018198004</v>
       </c>
       <c r="H28" s="0">
-        <v>0.93037524701927077</v>
+        <v>0.93652979174847084</v>
       </c>
       <c r="I28" s="0">
-        <v>0.66385758538347395</v>
+        <v>0.67053805028242797</v>
       </c>
       <c r="J28" s="0">
-        <v>0.75793468119586227</v>
+        <v>0.76250933377701469</v>
       </c>
       <c r="K28" s="0">
-        <v>1.1834987969240931</v>
+        <v>1.2205334244571764</v>
       </c>
       <c r="L28" s="0">
-        <v>2.3269230769230771</v>
+        <v>2.3607142857142862</v>
       </c>
       <c r="M28" s="0">
-        <v>0.11314904574368516</v>
+        <v>0.16674448732634026</v>
       </c>
       <c r="N28" s="0">
-        <v>0.72424730972894402</v>
+        <v>0.78732119269932765</v>
       </c>
       <c r="O28" s="0">
-        <v>0.85967522330143298</v>
+        <v>0.92268212180043574</v>
       </c>
       <c r="P28" s="0">
-        <v>0.82723029614279953</v>
+        <v>0.89212258547706624</v>
       </c>
       <c r="Q28" s="0">
-        <v>0.67710784461552886</v>
+        <v>0.7276450310864252</v>
       </c>
       <c r="R28" s="0">
-        <v>1.2062621495233192</v>
+        <v>1.2564832988610297</v>
       </c>
       <c r="S28" s="0">
-        <v>1.9474899064011233</v>
+        <v>2.049058024043481</v>
       </c>
       <c r="T28" s="0">
-        <v>1.9874505381720553</v>
+        <v>2.0776243992044385</v>
       </c>
       <c r="U28" s="0">
-        <v>3.2766669290572894</v>
+        <v>3.4321347039761894</v>
       </c>
       <c r="V28" s="0">
-        <v>0.39774160261434016</v>
+        <v>0.39548221577638443</v>
       </c>
       <c r="W28" s="0">
-        <v>0.64214711267640567</v>
+        <v>0.64494769515653105</v>
       </c>
       <c r="X28" s="0">
-        <v>0.65532335776403683</v>
+        <v>0.65393905489493409</v>
       </c>
       <c r="Y28" s="0">
         <v>-7.1263265017255222</v>
@@ -5910,76 +6895,76 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>280</v>
+        <v>432</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>297</v>
+        <v>466</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D29" s="0">
-        <v>2.6564645926654018</v>
+        <v>4.4627694030845779</v>
       </c>
       <c r="E29" s="0">
-        <v>1.7261804076548988</v>
+        <v>2.1500926336862305</v>
       </c>
       <c r="F29" s="0">
-        <v>2.6232421458859188</v>
+        <v>4.1039040620269169</v>
       </c>
       <c r="G29" s="0">
-        <v>2.1949534241986242</v>
+        <v>2.1807088089994471</v>
       </c>
       <c r="H29" s="0">
-        <v>0.85362306622914152</v>
+        <v>0.87645862980867983</v>
       </c>
       <c r="I29" s="0">
-        <v>0.94640625893270447</v>
+        <v>0.94479179760564935</v>
       </c>
       <c r="J29" s="0">
-        <v>0.71350114912362217</v>
+        <v>0.7288239999158721</v>
       </c>
       <c r="K29" s="0">
-        <v>1.2054124104341037</v>
+        <v>1.2134558000873656</v>
       </c>
       <c r="L29" s="0">
-        <v>2.2307692307692308</v>
+        <v>2.2345238095238096</v>
       </c>
       <c r="M29" s="0">
-        <v>0.12781028943504544</v>
+        <v>0.12359713397264327</v>
       </c>
       <c r="N29" s="0">
-        <v>0.66718899112553787</v>
+        <v>0.63522786421443156</v>
       </c>
       <c r="O29" s="0">
-        <v>0.54280029685224329</v>
+        <v>0.49289315730705036</v>
       </c>
       <c r="P29" s="0">
-        <v>0.6631030905016988</v>
+        <v>0.62768287460155625</v>
       </c>
       <c r="Q29" s="0">
-        <v>0.24811544107602648</v>
+        <v>0.23090918080236961</v>
       </c>
       <c r="R29" s="0">
-        <v>1.5720250986175757</v>
+        <v>1.5545417551603398</v>
       </c>
       <c r="S29" s="0">
-        <v>1.3790558957741441</v>
+        <v>1.3525063262130474</v>
       </c>
       <c r="T29" s="0">
-        <v>2.1661473337666619</v>
+        <v>2.1562698288270825</v>
       </c>
       <c r="U29" s="0">
-        <v>3.2286981060534439</v>
+        <v>3.2014452906651303</v>
       </c>
       <c r="V29" s="0">
-        <v>0.52211903500737844</v>
+        <v>0.52121908536062556</v>
       </c>
       <c r="W29" s="0">
-        <v>0.45802788654966187</v>
+        <v>0.45347904483949597</v>
       </c>
       <c r="X29" s="0">
-        <v>0.7194457369571482</v>
+        <v>0.72297124489656661</v>
       </c>
       <c r="Y29" s="0">
         <v>-7.3768052712099612</v>
@@ -5987,76 +6972,76 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>281</v>
+        <v>433</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>297</v>
+        <v>466</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D30" s="0">
-        <v>2.6645384581122902</v>
+        <v>2.1767129384535808</v>
       </c>
       <c r="E30" s="0">
-        <v>1.5115840247714878</v>
+        <v>1.4289875368988028</v>
       </c>
       <c r="F30" s="0">
-        <v>1.9706679784915266</v>
+        <v>2.01152177919692</v>
       </c>
       <c r="G30" s="0">
-        <v>2.2380834677069932</v>
+        <v>2.1470845071159297</v>
       </c>
       <c r="H30" s="0">
-        <v>0.38459755799815154</v>
+        <v>0.3923934484883887</v>
       </c>
       <c r="I30" s="0">
-        <v>0.60078563923335793</v>
+        <v>0.61102057620396977</v>
       </c>
       <c r="J30" s="0">
-        <v>0.49282826437953237</v>
+        <v>0.50021390440486091</v>
       </c>
       <c r="K30" s="0">
-        <v>0.70681897047150777</v>
+        <v>0.71265905002840002</v>
       </c>
       <c r="L30" s="0">
-        <v>1.6525641025641027</v>
+        <v>1.6559523809523811</v>
       </c>
       <c r="M30" s="0">
-        <v>0.14511268830702684</v>
+        <v>0.13999498508373742</v>
       </c>
       <c r="N30" s="0">
-        <v>0.89210300349488914</v>
+        <v>0.87257378282830311</v>
       </c>
       <c r="O30" s="0">
-        <v>0.79477084068918069</v>
+        <v>0.77618416410214763</v>
       </c>
       <c r="P30" s="0">
-        <v>0.86711332847278588</v>
+        <v>0.85359130558919849</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.61033906738905885</v>
+        <v>0.57606678895320129</v>
       </c>
       <c r="R30" s="0">
-        <v>3.0996863120530458</v>
+        <v>3.1037387794571756</v>
       </c>
       <c r="S30" s="0">
-        <v>2.7586259925470769</v>
+        <v>2.6885605470999807</v>
       </c>
       <c r="T30" s="0">
-        <v>3.6033719073537993</v>
+        <v>3.6409469019485723</v>
       </c>
       <c r="U30" s="0">
-        <v>5.8973644835140666</v>
+        <v>5.8877395340114349</v>
       </c>
       <c r="V30" s="0">
-        <v>0.56402362222296154</v>
+        <v>0.56555098390812875</v>
       </c>
       <c r="W30" s="0">
-        <v>0.50196376924484987</v>
+        <v>0.48989885127346317</v>
       </c>
       <c r="X30" s="0">
-        <v>0.6556750170168093</v>
+        <v>0.66343891966140234</v>
       </c>
       <c r="Y30" s="0">
         <v>-5.898954137377415</v>
@@ -6064,76 +7049,76 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>282</v>
+        <v>434</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>297</v>
+        <v>466</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D31" s="0">
-        <v>3.9263214657442127</v>
+        <v>3.7594483764697224</v>
       </c>
       <c r="E31" s="0">
-        <v>1.5479441661522011</v>
+        <v>1.4711130544670368</v>
       </c>
       <c r="F31" s="0">
-        <v>2.5381136666286475</v>
+        <v>2.3755897645904009</v>
       </c>
       <c r="G31" s="0">
-        <v>3.1647682345583594</v>
+        <v>3.0981962350957355</v>
       </c>
       <c r="H31" s="0">
-        <v>0.79108274201720485</v>
+        <v>0.78009296787324844</v>
       </c>
       <c r="I31" s="0">
-        <v>1.0789576882575651</v>
+        <v>1.0771817279609137</v>
       </c>
       <c r="J31" s="0">
-        <v>0.58667186815163341</v>
+        <v>0.57037945570061954</v>
       </c>
       <c r="K31" s="0">
-        <v>1.0085902644976708</v>
+        <v>0.99617054919899672</v>
       </c>
       <c r="L31" s="0">
-        <v>1.7282051282051281</v>
+        <v>1.7345238095238094</v>
       </c>
       <c r="M31" s="0">
-        <v>0.062132108127753549</v>
+        <v>0.064205960567577922</v>
       </c>
       <c r="N31" s="0">
-        <v>0.78656931808250297</v>
+        <v>0.79380273031316739</v>
       </c>
       <c r="O31" s="0">
-        <v>0.64823459530174943</v>
+        <v>0.64456024438071469</v>
       </c>
       <c r="P31" s="0">
-        <v>0.81837034588098667</v>
+        <v>0.83151834551584525</v>
       </c>
       <c r="Q31" s="0">
-        <v>0.52045151866813932</v>
+        <v>0.55191076170499342</v>
       </c>
       <c r="R31" s="0">
-        <v>2.8948452830950089</v>
+        <v>2.9400638475711145</v>
       </c>
       <c r="S31" s="0">
-        <v>2.0706896007818307</v>
+        <v>2.0983408878587388</v>
       </c>
       <c r="T31" s="0">
-        <v>4.5119316019263227</v>
+        <v>4.565411976612463</v>
       </c>
       <c r="U31" s="0">
-        <v>6.0228503451311761</v>
+        <v>6.093953998490707</v>
       </c>
       <c r="V31" s="0">
-        <v>0.50373397017013888</v>
+        <v>0.50503444601655167</v>
       </c>
       <c r="W31" s="0">
-        <v>0.36032208687735168</v>
+        <v>0.36044605926810047</v>
       </c>
       <c r="X31" s="0">
-        <v>0.78512424558472249</v>
+        <v>0.7842313731896039</v>
       </c>
       <c r="Y31" s="0">
         <v>-6.7265026403246679</v>
@@ -6141,76 +7126,76 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>283</v>
+        <v>435</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>297</v>
+        <v>466</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D32" s="0">
-        <v>4.1885712515457874</v>
+        <v>4.0697459490283627</v>
       </c>
       <c r="E32" s="0">
-        <v>1.8726144150871196</v>
+        <v>1.7726653404097847</v>
       </c>
       <c r="F32" s="0">
-        <v>4.1198524622566399</v>
+        <v>2.5895346265166301</v>
       </c>
       <c r="G32" s="0">
-        <v>3.5792071084950163</v>
+        <v>3.5051498893440733</v>
       </c>
       <c r="H32" s="0">
-        <v>0.76531971628172557</v>
+        <v>0.75806047292434486</v>
       </c>
       <c r="I32" s="0">
-        <v>1.3768327628961547</v>
+        <v>1.3671663986528115</v>
       </c>
       <c r="J32" s="0">
-        <v>0.78858131167876522</v>
+        <v>0.79638037545794382</v>
       </c>
       <c r="K32" s="0">
-        <v>1.007754063241864</v>
+        <v>1.0200402933786723</v>
       </c>
       <c r="L32" s="0">
-        <v>1.8961538461538463</v>
+        <v>1.8964285714285716</v>
       </c>
       <c r="M32" s="0">
-        <v>0.071735705168426422</v>
+        <v>0.068929101265147855</v>
       </c>
       <c r="N32" s="0">
-        <v>0.72175968979505023</v>
+        <v>0.74243733253382349</v>
       </c>
       <c r="O32" s="0">
-        <v>0.37425409121058512</v>
+        <v>0.39634835096879389</v>
       </c>
       <c r="P32" s="0">
-        <v>0.7344175573325008</v>
+        <v>0.75456908845972426</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.55258593490741403</v>
+        <v>0.5565679429921826</v>
       </c>
       <c r="R32" s="0">
-        <v>2.8001827892740825</v>
+        <v>2.8316353734027575</v>
       </c>
       <c r="S32" s="0">
-        <v>1.0908449837971272</v>
+        <v>1.1192011574825003</v>
       </c>
       <c r="T32" s="0">
-        <v>3.0235865292367885</v>
+        <v>3.0638936575580846</v>
       </c>
       <c r="U32" s="0">
-        <v>4.4960205268215665</v>
+        <v>4.5534716642470547</v>
       </c>
       <c r="V32" s="0">
-        <v>0.65685962441289214</v>
+        <v>0.65554466698009595</v>
       </c>
       <c r="W32" s="0">
-        <v>0.25588759030099661</v>
+        <v>0.25910339903118867</v>
       </c>
       <c r="X32" s="0">
-        <v>0.70926509497232682</v>
+        <v>0.70931418863888496</v>
       </c>
       <c r="Y32" s="0">
         <v>-7.1065133746252682</v>
@@ -6218,76 +7203,76 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>284</v>
+        <v>436</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>298</v>
+        <v>467</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D33" s="0">
-        <v>2.5954755726374188</v>
+        <v>2.5487799425320534</v>
       </c>
       <c r="E33" s="0">
-        <v>0.91960433035513167</v>
+        <v>0.85929205926793695</v>
       </c>
       <c r="F33" s="0">
-        <v>3.1411439364151432</v>
+        <v>3.139560443326971</v>
       </c>
       <c r="G33" s="0">
-        <v>1.0721091270647527</v>
+        <v>1.0296274868074013</v>
       </c>
       <c r="H33" s="0">
-        <v>0.88114241309482821</v>
+        <v>0.89581754195160301</v>
       </c>
       <c r="I33" s="0">
-        <v>1.1597436181276735</v>
+        <v>1.1631809493217777</v>
       </c>
       <c r="J33" s="0">
-        <v>0.6744214885217481</v>
+        <v>0.70128275072340007</v>
       </c>
       <c r="K33" s="0">
-        <v>1.0348604071159979</v>
+        <v>1.0673336819378689</v>
       </c>
       <c r="L33" s="0">
-        <v>1.4089743589743589</v>
+        <v>1.4142857142857144</v>
       </c>
       <c r="M33" s="0">
-        <v>0.081823937177067527</v>
+        <v>0.081086938375373202</v>
       </c>
       <c r="N33" s="0">
-        <v>0.73347410359911358</v>
+        <v>0.69369665437289074</v>
       </c>
       <c r="O33" s="0">
-        <v>0.61752464080182501</v>
+        <v>0.58932389424405995</v>
       </c>
       <c r="P33" s="0">
-        <v>0.75632600405185058</v>
+        <v>0.72709614798968603</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.49706963639811436</v>
+        <v>0.45821806348263111</v>
       </c>
       <c r="R33" s="0">
-        <v>4.1216416228977399</v>
+        <v>4.1521884555618778</v>
       </c>
       <c r="S33" s="0">
-        <v>2.2743362863624292</v>
+        <v>2.2094352295755231</v>
       </c>
       <c r="T33" s="0">
-        <v>5.3258863770986551</v>
+        <v>5.320990564118671</v>
       </c>
       <c r="U33" s="0">
-        <v>7.359377302051719</v>
+        <v>7.3595294710080355</v>
       </c>
       <c r="V33" s="0">
-        <v>0.5798484271253419</v>
+        <v>0.58466907664002621</v>
       </c>
       <c r="W33" s="0">
-        <v>0.319962393400467</v>
+        <v>0.31111026616374027</v>
       </c>
       <c r="X33" s="0">
-        <v>0.74926621995770759</v>
+        <v>0.74924793834112469</v>
       </c>
       <c r="Y33" s="0">
         <v>-6.6747813929703863</v>
@@ -6295,76 +7280,76 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>299</v>
+        <v>468</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D34" s="0">
-        <v>1.8188484050626146</v>
+        <v>1.7221986491502583</v>
       </c>
       <c r="E34" s="0">
-        <v>1.1052488101855427</v>
+        <v>1.0856193694340013</v>
       </c>
       <c r="F34" s="0">
-        <v>3.7029421535201017</v>
+        <v>3.6288967648758903</v>
       </c>
       <c r="G34" s="0">
-        <v>3.7394214141482345</v>
+        <v>3.6528850995705433</v>
       </c>
       <c r="H34" s="0">
-        <v>0.73659629684856331</v>
+        <v>0.75645081735290609</v>
       </c>
       <c r="I34" s="0">
-        <v>0.97879537537612515</v>
+        <v>1.0028468001985082</v>
       </c>
       <c r="J34" s="0">
-        <v>0.67602061900620958</v>
+        <v>0.67373309800850467</v>
       </c>
       <c r="K34" s="0">
-        <v>1.0936926735668278</v>
+        <v>1.0907504885532191</v>
       </c>
       <c r="L34" s="0">
-        <v>1.8397435897435896</v>
+        <v>1.8285714285714285</v>
       </c>
       <c r="M34" s="0">
-        <v>0.10012456629083981</v>
+        <v>0.10488670555042236</v>
       </c>
       <c r="N34" s="0">
-        <v>0.73517438970545901</v>
+        <v>0.74200509895061284</v>
       </c>
       <c r="O34" s="0">
-        <v>0.61767369829107954</v>
+        <v>0.62757832810272063</v>
       </c>
       <c r="P34" s="0">
-        <v>0.70046878390978018</v>
+        <v>0.69741417071644396</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.37093642419514883</v>
+        <v>0.38275412695328614</v>
       </c>
       <c r="R34" s="0">
-        <v>2.4637751938685892</v>
+        <v>2.4523302782815319</v>
       </c>
       <c r="S34" s="0">
-        <v>2.0935165595310203</v>
+        <v>2.0674644673259017</v>
       </c>
       <c r="T34" s="0">
-        <v>3.4248108073948411</v>
+        <v>3.3934128664825081</v>
       </c>
       <c r="U34" s="0">
-        <v>4.9510996829383975</v>
+        <v>4.9158166710888027</v>
       </c>
       <c r="V34" s="0">
-        <v>0.52311540375113863</v>
+        <v>0.52518826878533265</v>
       </c>
       <c r="W34" s="0">
-        <v>0.44450109045020952</v>
+        <v>0.44276584356775928</v>
       </c>
       <c r="X34" s="0">
-        <v>0.72716508094576282</v>
+        <v>0.72672944766260561</v>
       </c>
       <c r="Y34" s="0">
         <v>-6.6594705010864823</v>
@@ -6372,13 +7357,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>286</v>
+        <v>438</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>299</v>
+        <v>468</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D35" s="0">
         <v>2.2090410059762107</v>
@@ -6405,10 +7390,10 @@
         <v>1.388799265293807</v>
       </c>
       <c r="L35" s="0">
-        <v>1.9512820512820512</v>
+        <v>1.9428571428571428</v>
       </c>
       <c r="M35" s="0">
-        <v>0.087786973444541866</v>
+        <v>0.090041368867027446</v>
       </c>
       <c r="N35" s="0">
         <v>0.74985366397338793</v>
@@ -6449,76 +7434,76 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>287</v>
+        <v>439</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D36" s="0">
-        <v>3.8185890191593668</v>
+        <v>3.7903728381376296</v>
       </c>
       <c r="E36" s="0">
-        <v>3.1861780663157528</v>
+        <v>3.5727555755004863</v>
       </c>
       <c r="F36" s="0">
-        <v>4.1752419475119646</v>
+        <v>3.0196609448597345</v>
       </c>
       <c r="G36" s="0">
-        <v>2.0198600285495045</v>
+        <v>0.5510833085241551</v>
       </c>
       <c r="H36" s="0">
-        <v>1.2405744225020356</v>
+        <v>1.2286800216456424</v>
       </c>
       <c r="I36" s="0">
-        <v>1.2912644526299333</v>
+        <v>1.3301543260354987</v>
       </c>
       <c r="J36" s="0">
-        <v>0.76775378123763482</v>
+        <v>0.77626659740329029</v>
       </c>
       <c r="K36" s="0">
-        <v>1.2576105133543585</v>
+        <v>1.2557410785003407</v>
       </c>
       <c r="L36" s="0">
-        <v>1.7410256410256411</v>
+        <v>1.730952380952381</v>
       </c>
       <c r="M36" s="0">
-        <v>0.099446473741410954</v>
+        <v>0.10271051820261906</v>
       </c>
       <c r="N36" s="0">
-        <v>0.61808944747497563</v>
+        <v>0.60001736609121459</v>
       </c>
       <c r="O36" s="0">
-        <v>0.61687379057199121</v>
+        <v>0.61576473530005227</v>
       </c>
       <c r="P36" s="0">
-        <v>0.75109335760718998</v>
+        <v>0.72251766994954736</v>
       </c>
       <c r="Q36" s="0">
-        <v>0.4101610905684252</v>
+        <v>0.36485219915028716</v>
       </c>
       <c r="R36" s="0">
-        <v>2.3444186028462002</v>
+        <v>2.3206969750787345</v>
       </c>
       <c r="S36" s="0">
-        <v>2.1111433116876879</v>
+        <v>2.053849286661046</v>
       </c>
       <c r="T36" s="0">
-        <v>3.9565368288426557</v>
+        <v>3.9306732606565427</v>
       </c>
       <c r="U36" s="0">
-        <v>5.2929432406791141</v>
+        <v>5.2347916530783936</v>
       </c>
       <c r="V36" s="0">
-        <v>0.46328938040396012</v>
+        <v>0.46363779120085191</v>
       </c>
       <c r="W36" s="0">
-        <v>0.41719097247750225</v>
+        <v>0.41032593093920239</v>
       </c>
       <c r="X36" s="0">
-        <v>0.78186612823947721</v>
+        <v>0.7852850622349008</v>
       </c>
       <c r="Y36" s="0">
         <v>-7.4769898836217887</v>
@@ -6526,37 +7511,37 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>288</v>
+        <v>440</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>300</v>
+        <v>469</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D37" s="0">
-        <v>2.826420480796755</v>
+        <v>3.2714531459471781</v>
       </c>
       <c r="E37" s="0">
-        <v>1.2536521181949285</v>
+        <v>1.4096893502956684</v>
       </c>
       <c r="F37" s="0">
-        <v>2.7551759402486384</v>
+        <v>2.7438690840281592</v>
       </c>
       <c r="G37" s="0">
-        <v>1.4051740316692813</v>
+        <v>3.4968515209596318</v>
       </c>
       <c r="H37" s="0">
-        <v>1.1330503467028914</v>
+        <v>1.1340835100014925</v>
       </c>
       <c r="I37" s="0">
-        <v>0.63072877272390981</v>
+        <v>0.65838049957505607</v>
       </c>
       <c r="J37" s="0">
-        <v>0.62773509664517091</v>
+        <v>0.64570703087846182</v>
       </c>
       <c r="K37" s="0">
-        <v>0.9833018263386577</v>
+        <v>1.0861664787431042</v>
       </c>
       <c r="L37" s="0">
         <v>1.4392857142857143</v>
@@ -6565,37 +7550,37 @@
         <v>0.10245014273309599</v>
       </c>
       <c r="N37" s="0">
-        <v>0.35232720939130341</v>
+        <v>0.37737005207204216</v>
       </c>
       <c r="O37" s="0">
-        <v>0.60058533990854301</v>
+        <v>0.70483197193630331</v>
       </c>
       <c r="P37" s="0">
-        <v>0.7210058928106069</v>
+        <v>0.78301155439261794</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.3599011349692478</v>
+        <v>0.40150115559768185</v>
       </c>
       <c r="R37" s="0">
-        <v>1.9446824936148215</v>
+        <v>1.9029332647716499</v>
       </c>
       <c r="S37" s="0">
-        <v>4.118451122207059</v>
+        <v>3.9914078553472994</v>
       </c>
       <c r="T37" s="0">
-        <v>5.1603082366757205</v>
+        <v>5.0526618958144933</v>
       </c>
       <c r="U37" s="0">
-        <v>7.3097270790696856</v>
+        <v>7.1255310443341058</v>
       </c>
       <c r="V37" s="0">
-        <v>0.28254451335950698</v>
+        <v>0.28341480283373632</v>
       </c>
       <c r="W37" s="0">
-        <v>0.59837313902893052</v>
+        <v>0.59446334314200289</v>
       </c>
       <c r="X37" s="0">
-        <v>0.74974541309640796</v>
+        <v>0.75252201509002226</v>
       </c>
       <c r="Y37" s="0">
         <v>-6.5654010535161742</v>
@@ -6603,37 +7588,37 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>289</v>
+        <v>441</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D38" s="0">
-        <v>2.7897875470568416</v>
+        <v>2.6706009799589956</v>
       </c>
       <c r="E38" s="0">
-        <v>1.4169287208665631</v>
+        <v>1.390742251351093</v>
       </c>
       <c r="F38" s="0">
-        <v>3.6988039475876571</v>
+        <v>3.5677492927708108</v>
       </c>
       <c r="G38" s="0">
-        <v>4.4717225707619592</v>
+        <v>4.2307559658632838</v>
       </c>
       <c r="H38" s="0">
-        <v>0.84742478520076747</v>
+        <v>0.8338721943656493</v>
       </c>
       <c r="I38" s="0">
-        <v>1.0328172762847214</v>
+        <v>1.049361296213255</v>
       </c>
       <c r="J38" s="0">
-        <v>0.62789560865687588</v>
+        <v>0.63642170264521214</v>
       </c>
       <c r="K38" s="0">
-        <v>0.94772682766658889</v>
+        <v>0.96134248705272118</v>
       </c>
       <c r="L38" s="0">
         <v>1.7166666666666666</v>
@@ -6642,37 +7627,37 @@
         <v>0.095407358744302867</v>
       </c>
       <c r="N38" s="0">
-        <v>0.63651665423799686</v>
+        <v>0.62812516153234843</v>
       </c>
       <c r="O38" s="0">
-        <v>0.5418023332811831</v>
+        <v>0.51678292955100835</v>
       </c>
       <c r="P38" s="0">
-        <v>0.665521141271738</v>
+        <v>0.65089227354631607</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.51922644243679061</v>
+        <v>0.50975739710134083</v>
       </c>
       <c r="R38" s="0">
-        <v>3.3623998854276409</v>
+        <v>3.3425354218911569</v>
       </c>
       <c r="S38" s="0">
-        <v>2.3442284281979662</v>
+        <v>2.3724571790724793</v>
       </c>
       <c r="T38" s="0">
-        <v>5.1229678657808959</v>
+        <v>5.0947705982895233</v>
       </c>
       <c r="U38" s="0">
-        <v>6.7936064202710806</v>
+        <v>6.7705557745576712</v>
       </c>
       <c r="V38" s="0">
-        <v>0.51248748681491418</v>
+        <v>0.51117361154514063</v>
       </c>
       <c r="W38" s="0">
-        <v>0.35730067113491343</v>
+        <v>0.36281964179650394</v>
       </c>
       <c r="X38" s="0">
-        <v>0.78082828218800682</v>
+        <v>0.77914276380298508</v>
       </c>
       <c r="Y38" s="0">
         <v>-7.0167225401522808</v>
@@ -6680,37 +7665,37 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>290</v>
+        <v>442</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D39" s="0">
-        <v>3.4104926686285224</v>
+        <v>3.2852586809276838</v>
       </c>
       <c r="E39" s="0">
-        <v>1.1993693159792387</v>
+        <v>1.2305980864935695</v>
       </c>
       <c r="F39" s="0">
-        <v>2.6118594960739694</v>
+        <v>2.4594501083809548</v>
       </c>
       <c r="G39" s="0">
-        <v>1.8436957547764234</v>
+        <v>2.2081076635601944</v>
       </c>
       <c r="H39" s="0">
-        <v>0.68158656708664245</v>
+        <v>0.68745510208409344</v>
       </c>
       <c r="I39" s="0">
-        <v>1.1227787842036565</v>
+        <v>1.150440836188672</v>
       </c>
       <c r="J39" s="0">
-        <v>0.71888692382130448</v>
+        <v>0.71994240101647144</v>
       </c>
       <c r="K39" s="0">
-        <v>1.0131844678834336</v>
+        <v>1.0331616836055704</v>
       </c>
       <c r="L39" s="0">
         <v>1.7369047619047617</v>
@@ -6719,37 +7704,37 @@
         <v>0.10903198217941899</v>
       </c>
       <c r="N39" s="0">
-        <v>0.71713806077750086</v>
+        <v>0.70332760910014125</v>
       </c>
       <c r="O39" s="0">
-        <v>0.58288435193794197</v>
+        <v>0.60044463317076091</v>
       </c>
       <c r="P39" s="0">
-        <v>0.72961344980501708</v>
+        <v>0.71500943969763409</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.65091822105750596</v>
+        <v>0.62381105306766327</v>
       </c>
       <c r="R39" s="0">
-        <v>2.6319503650076457</v>
+        <v>2.6320553602858388</v>
       </c>
       <c r="S39" s="0">
-        <v>1.5494516411507038</v>
+        <v>1.5200847379109137</v>
       </c>
       <c r="T39" s="0">
-        <v>3.4464651309420198</v>
+        <v>3.400801586315676</v>
       </c>
       <c r="U39" s="0">
-        <v>4.9351834803371126</v>
+        <v>4.8824282399472949</v>
       </c>
       <c r="V39" s="0">
-        <v>0.57154107295060452</v>
+        <v>0.57706326588270151</v>
       </c>
       <c r="W39" s="0">
-        <v>0.33647110722233387</v>
+        <v>0.33326998987667977</v>
       </c>
       <c r="X39" s="0">
-        <v>0.74841699334999634</v>
+        <v>0.74560653230533602</v>
       </c>
       <c r="Y39" s="0">
         <v>-6.4467600596156656</v>
@@ -6757,37 +7742,37 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>291</v>
+        <v>443</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D40" s="0">
-        <v>1.5568496554151279</v>
+        <v>1.5265996427408641</v>
       </c>
       <c r="E40" s="0">
-        <v>1.8700818018526659</v>
+        <v>1.8319400846865521</v>
       </c>
       <c r="F40" s="0">
-        <v>4.1458096784759952</v>
+        <v>4.1105008223697217</v>
       </c>
       <c r="G40" s="0">
-        <v>2.4130116560811783</v>
+        <v>3.9981404883432008</v>
       </c>
       <c r="H40" s="0">
-        <v>0.64506826628273728</v>
+        <v>0.63273565130902132</v>
       </c>
       <c r="I40" s="0">
-        <v>0.60612207614985014</v>
+        <v>0.59345857762128018</v>
       </c>
       <c r="J40" s="0">
-        <v>0.48889049990873829</v>
+        <v>0.49945029743571734</v>
       </c>
       <c r="K40" s="0">
-        <v>0.5840424605631217</v>
+        <v>0.59473095929617859</v>
       </c>
       <c r="L40" s="0">
         <v>1.7892857142857141</v>
@@ -6796,37 +7781,37 @@
         <v>0.18806335798827645</v>
       </c>
       <c r="N40" s="0">
-        <v>0.58130899618808241</v>
+        <v>0.55341805263758148</v>
       </c>
       <c r="O40" s="0">
-        <v>0.47571199274274611</v>
+        <v>0.40396023593244323</v>
       </c>
       <c r="P40" s="0">
-        <v>0.60601836380262875</v>
+        <v>0.54460300248727023</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.47694698899044041</v>
+        <v>0.48674120669969412</v>
       </c>
       <c r="R40" s="0">
-        <v>2.2925263553841826</v>
+        <v>2.2447181941734322</v>
       </c>
       <c r="S40" s="0">
-        <v>3.3365116652074494</v>
+        <v>3.2123899127543281</v>
       </c>
       <c r="T40" s="0">
-        <v>4.1056450603868058</v>
+        <v>4.0162573827065868</v>
       </c>
       <c r="U40" s="0">
-        <v>6.068525539792887</v>
+        <v>5.9145451792271073</v>
       </c>
       <c r="V40" s="0">
-        <v>0.39760852273128577</v>
+        <v>0.40002360461709563</v>
       </c>
       <c r="W40" s="0">
-        <v>0.57867403406863771</v>
+        <v>0.57246909463785423</v>
       </c>
       <c r="X40" s="0">
-        <v>0.71207009833735735</v>
+        <v>0.71572358591404617</v>
       </c>
       <c r="Y40" s="0">
         <v>-6.939735435917024</v>
@@ -6834,37 +7819,37 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>292</v>
+        <v>444</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>301</v>
+        <v>470</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D41" s="0">
-        <v>3.9310033945355611</v>
+        <v>5.1006890286876079</v>
       </c>
       <c r="E41" s="0">
-        <v>1.6798397409223629</v>
+        <v>1.8247569191777147</v>
       </c>
       <c r="F41" s="0">
-        <v>3.9688295624192871</v>
+        <v>3.8067373227420833</v>
       </c>
       <c r="G41" s="0">
-        <v>1.8539188167523331</v>
+        <v>1.7664540444763799</v>
       </c>
       <c r="H41" s="0">
-        <v>1.0295211759126834</v>
+        <v>1.0187497896174571</v>
       </c>
       <c r="I41" s="0">
-        <v>1.0417553657783167</v>
+        <v>1.0617894360538989</v>
       </c>
       <c r="J41" s="0">
-        <v>0.68969148592435969</v>
+        <v>0.68554772401817965</v>
       </c>
       <c r="K41" s="0">
-        <v>1.2616361948240076</v>
+        <v>1.2769267478747335</v>
       </c>
       <c r="L41" s="0">
         <v>2.0559523809523812</v>
@@ -6873,37 +7858,37 @@
         <v>0.082069165862386967</v>
       </c>
       <c r="N41" s="0">
-        <v>0.64293655373199876</v>
+        <v>0.64328718522957185</v>
       </c>
       <c r="O41" s="0">
-        <v>0.63429654324842155</v>
+        <v>0.6351108963798171</v>
       </c>
       <c r="P41" s="0">
-        <v>0.81086520139691276</v>
+        <v>0.78570902913717822</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.50596163593756438</v>
+        <v>0.50269223355021597</v>
       </c>
       <c r="R41" s="0">
-        <v>2.7289726498200091</v>
+        <v>2.8224336976837923</v>
       </c>
       <c r="S41" s="0">
-        <v>2.6676642375145541</v>
+        <v>2.7224449982589958</v>
       </c>
       <c r="T41" s="0">
-        <v>3.6722654003665287</v>
+        <v>3.7539558871684413</v>
       </c>
       <c r="U41" s="0">
-        <v>5.6148446851605547</v>
+        <v>5.7511156737822562</v>
       </c>
       <c r="V41" s="0">
-        <v>0.51527432062628564</v>
+        <v>0.51991638844426535</v>
       </c>
       <c r="W41" s="0">
-        <v>0.50369829750217954</v>
+        <v>0.50149761618653577</v>
       </c>
       <c r="X41" s="0">
-        <v>0.69338329919066088</v>
+        <v>0.69151073020329468</v>
       </c>
       <c r="Y41" s="0">
         <v>-7.5370904020195102</v>
@@ -6911,37 +7896,37 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>293</v>
+        <v>445</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>302</v>
+        <v>471</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D42" s="0">
-        <v>2.7531235509462553</v>
+        <v>1.8756938912939791</v>
       </c>
       <c r="E42" s="0">
-        <v>4.7048618320553723</v>
+        <v>4.5883494809084766</v>
       </c>
       <c r="F42" s="0">
-        <v>3.0769678734865664</v>
+        <v>2.9558751716714142</v>
       </c>
       <c r="G42" s="0">
-        <v>0.5550051605129811</v>
+        <v>1.2569217582700689</v>
       </c>
       <c r="H42" s="0">
-        <v>0.99331655121265527</v>
+        <v>1.0016141142572696</v>
       </c>
       <c r="I42" s="0">
-        <v>0.96546782105138973</v>
+        <v>0.9867259984595228</v>
       </c>
       <c r="J42" s="0">
-        <v>0.67818815781256403</v>
+        <v>0.67155007991021021</v>
       </c>
       <c r="K42" s="0">
-        <v>1.1249856440975385</v>
+        <v>1.129205830614616</v>
       </c>
       <c r="L42" s="0">
         <v>2.0154761904761904</v>
@@ -6950,37 +7935,37 @@
         <v>0.090219174178770872</v>
       </c>
       <c r="N42" s="0">
-        <v>0.70881993393128206</v>
+        <v>0.68896660321818748</v>
       </c>
       <c r="O42" s="0">
-        <v>0.73086054826021718</v>
+        <v>0.70842145162095893</v>
       </c>
       <c r="P42" s="0">
-        <v>0.77964124192297801</v>
+        <v>0.76087792017034206</v>
       </c>
       <c r="Q42" s="0">
-        <v>0.3588129750652691</v>
+        <v>0.34481161906501989</v>
       </c>
       <c r="R42" s="0">
-        <v>1.4833606585502863</v>
+        <v>1.5142311465529912</v>
       </c>
       <c r="S42" s="0">
-        <v>1.3257073931164562</v>
+        <v>1.3383817194622671</v>
       </c>
       <c r="T42" s="0">
-        <v>2.2142337344536123</v>
+        <v>2.278541264576385</v>
       </c>
       <c r="U42" s="0">
-        <v>3.1774606602713056</v>
+        <v>3.2520960567473849</v>
       </c>
       <c r="V42" s="0">
-        <v>0.49832535643514908</v>
+        <v>0.49718024928555593</v>
       </c>
       <c r="W42" s="0">
-        <v>0.44536276824890236</v>
+        <v>0.43944212773343211</v>
       </c>
       <c r="X42" s="0">
-        <v>0.74385740823860591</v>
+        <v>0.74813261932191299</v>
       </c>
       <c r="Y42" s="0">
         <v>-7.2923128165093321</v>
@@ -6988,37 +7973,37 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>294</v>
+        <v>446</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>303</v>
+        <v>472</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D43" s="0">
-        <v>3.9147050250488147</v>
+        <v>3.8294187686000183</v>
       </c>
       <c r="E43" s="0">
-        <v>1.5843903747729309</v>
+        <v>1.4226739470187864</v>
       </c>
       <c r="F43" s="0">
-        <v>4.0658003183583311</v>
+        <v>3.6752331717900679</v>
       </c>
       <c r="G43" s="0">
-        <v>0.46286819484997216</v>
+        <v>0.40724599855948806</v>
       </c>
       <c r="H43" s="0">
-        <v>1.0147131364430044</v>
+        <v>1.0503028042466149</v>
       </c>
       <c r="I43" s="0">
-        <v>0.93004277210510433</v>
+        <v>0.93328976411629039</v>
       </c>
       <c r="J43" s="0">
-        <v>0.69629189797081226</v>
+        <v>0.70376553445200751</v>
       </c>
       <c r="K43" s="0">
-        <v>1.2007000770477951</v>
+        <v>1.2818135209622683</v>
       </c>
       <c r="L43" s="0">
         <v>1.6369047619047621</v>
@@ -7027,37 +8012,37 @@
         <v>0.066402866348830622</v>
       </c>
       <c r="N43" s="0">
-        <v>0.6659537777059108</v>
+        <v>0.65913620772496773</v>
       </c>
       <c r="O43" s="0">
-        <v>0.75367076288295975</v>
+        <v>0.7474807457638456</v>
       </c>
       <c r="P43" s="0">
-        <v>0.81594544140537972</v>
+        <v>0.80333292323563332</v>
       </c>
       <c r="Q43" s="0">
-        <v>0.36451768064960699</v>
+        <v>0.39007276505395516</v>
       </c>
       <c r="R43" s="0">
-        <v>2.6971074092309926</v>
+        <v>2.6620610165061187</v>
       </c>
       <c r="S43" s="0">
-        <v>2.9879810979973991</v>
+        <v>2.9669108727686226</v>
       </c>
       <c r="T43" s="0">
-        <v>4.3047045723331987</v>
+        <v>4.385421836224789</v>
       </c>
       <c r="U43" s="0">
-        <v>6.1071658599666998</v>
+        <v>6.1321276721046933</v>
       </c>
       <c r="V43" s="0">
-        <v>0.4576439375957978</v>
+        <v>0.44919430061253424</v>
       </c>
       <c r="W43" s="0">
-        <v>0.50699925055607309</v>
+        <v>0.50063445060405953</v>
       </c>
       <c r="X43" s="0">
-        <v>0.7304202806038409</v>
+        <v>0.73999299129490936</v>
       </c>
       <c r="Y43" s="0">
         <v>-6.8395882025624006</v>
@@ -7065,37 +8050,37 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>295</v>
+        <v>447</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>304</v>
+        <v>473</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D44" s="0">
-        <v>1.9028893633471402</v>
+        <v>1.9889862170360506</v>
       </c>
       <c r="E44" s="0">
-        <v>0.98331402974370874</v>
+        <v>0.99341292568993111</v>
       </c>
       <c r="F44" s="0">
-        <v>2.4884896129661871</v>
+        <v>2.6563678293614732</v>
       </c>
       <c r="G44" s="0">
-        <v>2.1400078772372684</v>
+        <v>0.53588949825044685</v>
       </c>
       <c r="H44" s="0">
-        <v>0.93143528228602313</v>
+        <v>0.94011613578220488</v>
       </c>
       <c r="I44" s="0">
-        <v>1.1028440814484772</v>
+        <v>1.1470598659076026</v>
       </c>
       <c r="J44" s="0">
-        <v>0.62230217778745334</v>
+        <v>0.65853132439038398</v>
       </c>
       <c r="K44" s="0">
-        <v>1.0785568034792823</v>
+        <v>1.1137168599201392</v>
       </c>
       <c r="L44" s="0">
         <v>1.517857142857143</v>
@@ -7104,37 +8089,37 @@
         <v>0.076085951653850237</v>
       </c>
       <c r="N44" s="0">
-        <v>0.7359946213961267</v>
+        <v>0.71367741509084415</v>
       </c>
       <c r="O44" s="0">
-        <v>0.7097294147649128</v>
+        <v>0.69390442793527463</v>
       </c>
       <c r="P44" s="0">
-        <v>0.8339812019397792</v>
+        <v>0.81263778590926805</v>
       </c>
       <c r="Q44" s="0">
-        <v>0.54805502645893689</v>
+        <v>0.51691517736400938</v>
       </c>
       <c r="R44" s="0">
-        <v>2.9181501693652012</v>
+        <v>2.9349992871637287</v>
       </c>
       <c r="S44" s="0">
-        <v>1.8448637852333616</v>
+        <v>1.773147730915158</v>
       </c>
       <c r="T44" s="0">
-        <v>3.8009623825129548</v>
+        <v>3.7868245314257201</v>
       </c>
       <c r="U44" s="0">
-        <v>5.3097494105069574</v>
+        <v>5.2793538239227562</v>
       </c>
       <c r="V44" s="0">
-        <v>0.56830556313646086</v>
+        <v>0.57451553476659489</v>
       </c>
       <c r="W44" s="0">
-        <v>0.35928457808090863</v>
+        <v>0.34708727913570636</v>
       </c>
       <c r="X44" s="0">
-        <v>0.7402319763840074</v>
+        <v>0.74125725694526978</v>
       </c>
       <c r="Y44" s="0">
         <v>-6.9248813102402371</v>
@@ -7142,78 +8127,155 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>296</v>
+        <v>448</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>305</v>
+        <v>473</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="D45" s="0">
-        <v>3.2308764243772368</v>
+        <v>2.9443558694499847</v>
       </c>
       <c r="E45" s="0">
-        <v>1.3468582853688853</v>
+        <v>3.1296178773162975</v>
       </c>
       <c r="F45" s="0">
-        <v>3.399103895528587</v>
+        <v>2.8808510387012447</v>
       </c>
       <c r="G45" s="0">
-        <v>2.3644545867716817</v>
+        <v>0.61707178095647552</v>
       </c>
       <c r="H45" s="0">
-        <v>0.67265737611375398</v>
+        <v>0.97813078749518367</v>
       </c>
       <c r="I45" s="0">
-        <v>0.76728769060852109</v>
+        <v>0.86647385470747829</v>
       </c>
       <c r="J45" s="0">
-        <v>0.56931985555685827</v>
+        <v>0.75062306486744346</v>
       </c>
       <c r="K45" s="0">
-        <v>0.81899810811634677</v>
+        <v>1.2798896476227364</v>
       </c>
       <c r="L45" s="0">
+        <v>1.9119047619047618</v>
+      </c>
+      <c r="M45" s="0">
+        <v>0.088053153000660647</v>
+      </c>
+      <c r="N45" s="0">
+        <v>0.70485524429869628</v>
+      </c>
+      <c r="O45" s="0">
+        <v>0.73074270871859859</v>
+      </c>
+      <c r="P45" s="0">
+        <v>0.74619082859546482</v>
+      </c>
+      <c r="Q45" s="0">
+        <v>0.32720759140399519</v>
+      </c>
+      <c r="R45" s="0">
+        <v>1.3211464669802495</v>
+      </c>
+      <c r="S45" s="0">
+        <v>1.5879054966442934</v>
+      </c>
+      <c r="T45" s="0">
+        <v>2.3552028467951285</v>
+      </c>
+      <c r="U45" s="0">
+        <v>3.3260570001592162</v>
+      </c>
+      <c r="V45" s="0">
+        <v>0.42172680810705382</v>
+      </c>
+      <c r="W45" s="0">
+        <v>0.50687969382084797</v>
+      </c>
+      <c r="X45" s="0">
+        <v>0.75181079755209657</v>
+      </c>
+      <c r="Y45" s="0">
+        <v>-7.0464037914353899</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="D46" s="0">
+        <v>3.1555751618639638</v>
+      </c>
+      <c r="E46" s="0">
+        <v>1.3092065004369546</v>
+      </c>
+      <c r="F46" s="0">
+        <v>2.6195421830960832</v>
+      </c>
+      <c r="G46" s="0">
+        <v>3.6067630293563213</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.64432795580051316</v>
+      </c>
+      <c r="I46" s="0">
+        <v>0.80307631376366562</v>
+      </c>
+      <c r="J46" s="0">
+        <v>0.58032080569313138</v>
+      </c>
+      <c r="K46" s="0">
+        <v>0.84818573241489381</v>
+      </c>
+      <c r="L46" s="0">
         <v>1.7023809523809523</v>
       </c>
-      <c r="M45" s="0">
+      <c r="M46" s="0">
         <v>0.075633264641893655</v>
       </c>
-      <c r="N45" s="0">
-        <v>0.78198511909435975</v>
-      </c>
-      <c r="O45" s="0">
-        <v>0.78433303196595916</v>
-      </c>
-      <c r="P45" s="0">
-        <v>0.83679726104871321</v>
-      </c>
-      <c r="Q45" s="0">
-        <v>0.64653319703324064</v>
-      </c>
-      <c r="R45" s="0">
-        <v>3.020849010724806</v>
-      </c>
-      <c r="S45" s="0">
-        <v>3.7513374243690754</v>
-      </c>
-      <c r="T45" s="0">
-        <v>4.5013764216969472</v>
-      </c>
-      <c r="U45" s="0">
-        <v>6.9304474065741131</v>
-      </c>
-      <c r="V45" s="0">
-        <v>0.45822829711737972</v>
-      </c>
-      <c r="W45" s="0">
-        <v>0.56903504735872201</v>
-      </c>
-      <c r="X45" s="0">
-        <v>0.68280739787905298</v>
-      </c>
-      <c r="Y45" s="0">
+      <c r="N46" s="0">
+        <v>0.78515267377568032</v>
+      </c>
+      <c r="O46" s="0">
+        <v>0.80369276082224639</v>
+      </c>
+      <c r="P46" s="0">
+        <v>0.84803770266095579</v>
+      </c>
+      <c r="Q46" s="0">
+        <v>0.69181982485134241</v>
+      </c>
+      <c r="R46" s="0">
+        <v>3.0827249195053281</v>
+      </c>
+      <c r="S46" s="0">
+        <v>3.6668704033338444</v>
+      </c>
+      <c r="T46" s="0">
+        <v>4.5315744013024135</v>
+      </c>
+      <c r="U46" s="0">
+        <v>6.9342926512990255</v>
+      </c>
+      <c r="V46" s="0">
+        <v>0.46748592663064481</v>
+      </c>
+      <c r="W46" s="0">
+        <v>0.55606982559186002</v>
+      </c>
+      <c r="X46" s="0">
+        <v>0.68719957615566507</v>
+      </c>
+      <c r="Y46" s="0">
         <v>-6.547154520397954</v>
       </c>
     </row>
